--- a/data/excel/FlightBooking.xlsx
+++ b/data/excel/FlightBooking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C440B55-620D-4596-A72B-8986F11260A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A010C44-C265-448E-B855-DD2E7F37822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet14" sheetId="72" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sheet7" sheetId="81" r:id="rId7"/>
     <sheet name="Sheet6" sheetId="80" r:id="rId8"/>
     <sheet name="Sheet5" sheetId="79" r:id="rId9"/>
+    <sheet name="Sheet8" sheetId="83" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4702" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4836" uniqueCount="403">
   <si>
     <t>del</t>
   </si>
@@ -1247,6 +1248,12 @@
   </si>
   <si>
     <t>8-Mar-2024</t>
+  </si>
+  <si>
+    <t>24B,9E,6E,12E</t>
+  </si>
+  <si>
+    <t>29-Jan-2024</t>
   </si>
 </sst>
 </file>
@@ -5992,6 +5999,585 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E64D9A7-538F-4A91-A281-E05404AC9E04}">
+  <dimension ref="A1:BV2"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AS2" sqref="AS2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AY1" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="BA1" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="BB1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="BC1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="BI1" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="BJ1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="BL1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="BQ1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV1" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:74" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB2" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC2" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ2" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BA2" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="BB2" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BC2" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE2" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BF2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK2" s="7">
+        <v>123</v>
+      </c>
+      <c r="BL2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BP2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR2" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BS2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BT2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BU2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV2" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{0CD54666-EFDC-4C33-BF78-76EF6476D710}">
+      <formula1>"bom,maa,dxb"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{44ACB44D-92E3-46C1-B853-FB349BC606BA}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{0D536917-8DDC-4DC9-8190-D64021CE5DC7}">
+      <formula1>"sbt,preprod117,Live"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AT2" xr:uid="{F348DDAF-17B0-45BF-8A89-91C706F36CA4}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2" xr:uid="{A98ADDC0-87E0-4C28-804B-0EE4B741AA5A}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG2" xr:uid="{4899AA23-9D78-4609-8B4D-7E95C61E2192}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{14FFAEE5-838A-40C6-A868-3EEF0E4F7A5F}">
+      <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{748048FB-E074-4A81-AF08-D0E22C4A4999}">
+      <formula1>"Saurav_at,tarun"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{42DBF49A-ABDB-4433-A6C0-3F7DDEF1FDC4}">
+      <formula1>"at,QL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{FF3333FC-9C0C-4E2E-A451-FF174DAC3490}">
+      <formula1>"//staging117/backoffice/,//preprod.quadlabs.net/backoffice/,//test.quadlabs.net/backoffice/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{ACEBCA11-95B3-474B-9D84-CF84766EE043}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{81F3A335-5865-4402-9854-20EA212FDB9A}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2" xr:uid="{A12E1609-25BB-4994-97A0-25D9D3B36AEC}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 AG2" xr:uid="{4E0A9ED7-EAC9-4CAC-8AAF-107BABE2C722}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2" xr:uid="{60E61AA3-AC62-4092-9CEF-AEC79C51FCC3}">
+      <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{9206C22A-AD82-499A-8D35-EC7904C28788}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{E80A7C73-0EC1-4A31-B681-3D8CEEA65FBF}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{30E9077C-0BAE-484C-8800-EF1CF1F7AC72}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2" xr:uid="{F0728136-07B8-4DCB-8931-8286C1B5114F}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2" xr:uid="{79D15FF4-E890-48B2-95E9-B925300F5696}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AK2" xr:uid="{7A4026AA-3BD3-4AEB-9FB4-D4314AADBC3A}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{B56167FE-47C9-4A65-9086-DF87F9515F4E}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 AF2 BN2" xr:uid="{25D1A8B3-725F-4BE3-9BEA-65FEA3721120}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2" xr:uid="{87D7DF79-5693-494C-872E-DB134D2656A4}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{9C6B7A26-5793-477F-88FC-541C38102924}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{FD073124-14C7-453E-9EBE-2942304264F9}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2" xr:uid="{6B11E2D2-8B91-497D-BDCC-CC90F8522260}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ2" xr:uid="{647EAA93-2B4A-46AD-9D99-968D39FC469E}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2 AP2" xr:uid="{055CAE79-5247-4886-ADFA-BB6E2D01E952}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{F6717E76-07CE-4958-9239-247A1BBF1E1B}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR2" xr:uid="{8EC77805-5CBE-4970-810E-3F3A7B8C691D}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2" xr:uid="{344D26CF-4F2A-4587-9D46-1E751217A884}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{F238780C-3877-4C40-9ADD-1BAF2F3F0FBE}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{2E3A18E1-980E-4149-8CB1-EFF96A8811C3}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{240CC697-928A-4105-8DA3-8BB81E5D6CD9}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{FAD7C1B9-42CA-4064-B9E8-01C6858CDC14}"/>
+    <hyperlink ref="G2" r:id="rId2" display="Password@123" xr:uid="{E4072722-AAB4-4707-AFCC-638E300E309A}"/>
+    <hyperlink ref="U2" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{1D6A9996-E1EA-4781-92FB-8CE3C9232EFF}"/>
+    <hyperlink ref="Q2" r:id="rId4" display="Admin@123" xr:uid="{623772FD-EAD4-45C8-9F6D-B43DF26977DD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98DCEC8-5D14-41F2-ACA0-1145C7751169}">
   <dimension ref="A1:BN5"/>
@@ -16152,8 +16738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873E93BB-9FC7-4764-85A0-340252AC8F16}">
   <dimension ref="A1:BV13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BA2" sqref="BA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16670,7 +17256,7 @@
         <v>153</v>
       </c>
       <c r="BS2" s="7" t="s">
-        <v>304</v>
+        <v>401</v>
       </c>
       <c r="BT2" s="7" t="s">
         <v>145</v>
@@ -19957,8 +20543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4687B7CB-B79C-4A10-A96F-CB8129CC90D6}">
   <dimension ref="A1:BV5"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20316,7 +20902,7 @@
         <v>295</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>192</v>
@@ -20352,7 +20938,7 @@
         <v>246</v>
       </c>
       <c r="AD2" s="12" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="AE2" s="12" t="s">
         <v>306</v>
@@ -20540,7 +21126,7 @@
         <v>295</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>192</v>
@@ -20576,7 +21162,7 @@
         <v>246</v>
       </c>
       <c r="AD3" s="12" t="s">
-        <v>308</v>
+        <v>402</v>
       </c>
       <c r="AE3" s="12" t="s">
         <v>306</v>
@@ -20764,7 +21350,7 @@
         <v>295</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>192</v>
@@ -20988,7 +21574,7 @@
         <v>295</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="S5" s="8" t="s">
         <v>192</v>
@@ -21024,7 +21610,7 @@
         <v>246</v>
       </c>
       <c r="AD5" s="12" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AE5" s="12" t="s">
         <v>386</v>

--- a/data/excel/FlightBooking.xlsx
+++ b/data/excel/FlightBooking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A010C44-C265-448E-B855-DD2E7F37822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C8AA87-190E-490F-8133-74621778D432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet14" sheetId="72" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4836" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4842" uniqueCount="409">
   <si>
     <t>del</t>
   </si>
@@ -1254,6 +1254,24 @@
   </si>
   <si>
     <t>29-Jan-2024</t>
+  </si>
+  <si>
+    <t>//test.quadlabs.net/SSO_Login</t>
+  </si>
+  <si>
+    <t>LoginType</t>
+  </si>
+  <si>
+    <t>SSO</t>
+  </si>
+  <si>
+    <t>Emailid</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>test.quadlabs.net</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1466,6 +1484,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6001,18 +6022,94 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E64D9A7-538F-4A91-A281-E05404AC9E04}">
-  <dimension ref="A1:BV2"/>
+  <dimension ref="A1:BY2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AS2" sqref="AS2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="39" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>35</v>
       </c>
@@ -6050,193 +6147,202 @@
         <v>15</v>
       </c>
       <c r="M1" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="N1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="U1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="V1" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="W1" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="X1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="Y1" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="Z1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="AA1" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="AB1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="AC1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AD1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AE1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AF1" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AG1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AH1" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AI1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AK1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="23" t="s">
+      <c r="AL1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="23" t="s">
+      <c r="AM1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AK1" s="23" t="s">
+      <c r="AN1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" s="23" t="s">
+      <c r="AO1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AM1" s="23" t="s">
+      <c r="AP1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="AN1" s="23" t="s">
+      <c r="AQ1" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="AO1" s="23" t="s">
+      <c r="AR1" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="AU1" s="23" t="s">
+      <c r="AX1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AV1" s="23" t="s">
+      <c r="AY1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="AW1" s="23" t="s">
+      <c r="AZ1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="23" t="s">
+      <c r="BA1" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="AY1" s="33" t="s">
+      <c r="BB1" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="AZ1" s="33" t="s">
+      <c r="BC1" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="BA1" s="33" t="s">
+      <c r="BD1" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="BB1" s="33" t="s">
+      <c r="BE1" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="BC1" s="23" t="s">
+      <c r="BF1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="BD1" s="23" t="s">
+      <c r="BG1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="BE1" s="23" t="s">
+      <c r="BH1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="BF1" s="23" t="s">
+      <c r="BI1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="BG1" s="23" t="s">
+      <c r="BJ1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="BH1" s="14" t="s">
+      <c r="BK1" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="BI1" s="14" t="s">
+      <c r="BL1" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="BJ1" s="23" t="s">
+      <c r="BM1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="BK1" s="23" t="s">
+      <c r="BN1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="BL1" s="23" t="s">
+      <c r="BO1" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="BM1" s="23" t="s">
+      <c r="BP1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="BN1" s="19" t="s">
+      <c r="BQ1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="BO1" s="19" t="s">
+      <c r="BR1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="BP1" s="19" t="s">
+      <c r="BS1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="BQ1" s="23" t="s">
+      <c r="BT1" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="BR1" s="23" t="s">
+      <c r="BU1" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="BS1" s="23" t="s">
+      <c r="BV1" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="BT1" s="23" t="s">
+      <c r="BW1" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="BU1" s="23" t="s">
+      <c r="BX1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="BV1" s="23" t="s">
+      <c r="BY1" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:74" ht="48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77" ht="48" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
@@ -6274,210 +6380,219 @@
         <v>45</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>296</v>
+        <v>405</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="X2" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AB2" s="28" t="s">
+      <c r="AE2" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AC2" s="30" t="s">
+      <c r="AF2" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AG2" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AH2" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AI2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AJ2" s="1">
         <v>3</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AL2" s="1">
         <v>2</v>
       </c>
-      <c r="AJ2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AM2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AO2" s="7">
+      <c r="AR2" s="7">
         <v>0</v>
       </c>
-      <c r="AP2" s="13" t="s">
+      <c r="AS2" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="AQ2" s="7" t="s">
+      <c r="AT2" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AU2" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AS2" s="13" t="s">
+      <c r="AV2" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="AT2" s="13" t="s">
+      <c r="AW2" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="AU2" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="7">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="7">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AX2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AY2" s="13" t="s">
+      <c r="BB2" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="AZ2" s="13" t="s">
+      <c r="BC2" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="BA2" s="34" t="s">
+      <c r="BD2" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="BB2" s="34" t="s">
+      <c r="BE2" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="BC2" s="7">
+      <c r="BF2" s="7">
         <v>78554432323</v>
       </c>
-      <c r="BD2" s="7" t="s">
+      <c r="BG2" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="BE2" s="7">
+      <c r="BH2" s="7">
         <v>345678</v>
       </c>
-      <c r="BF2" s="7" t="s">
+      <c r="BI2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="BG2" s="7" t="s">
+      <c r="BJ2" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="BH2" s="1">
-        <v>1</v>
-      </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BK2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BJ2" s="7" t="s">
+      <c r="BM2" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="BK2" s="7">
+      <c r="BN2" s="7">
         <v>123</v>
       </c>
-      <c r="BL2" s="7" t="s">
+      <c r="BO2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="BM2" s="7" t="s">
+      <c r="BP2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="BN2" s="9" t="s">
+      <c r="BQ2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="BO2" s="9">
-        <v>1</v>
-      </c>
-      <c r="BP2" s="9" t="s">
+      <c r="BR2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="BQ2" s="7" t="s">
+      <c r="BT2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="BR2" s="32" t="s">
+      <c r="BU2" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="BS2" s="7" t="s">
+      <c r="BV2" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="BT2" s="7" t="s">
+      <c r="BW2" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="BU2" s="7" t="s">
+      <c r="BX2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BV2" s="11" t="s">
+      <c r="BY2" s="11" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="35">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{0CD54666-EFDC-4C33-BF78-76EF6476D710}">
+  <dataValidations count="36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2" xr:uid="{0CD54666-EFDC-4C33-BF78-76EF6476D710}">
       <formula1>"bom,maa,dxb"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{44ACB44D-92E3-46C1-B853-FB349BC606BA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{44ACB44D-92E3-46C1-B853-FB349BC606BA}">
       <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{0D536917-8DDC-4DC9-8190-D64021CE5DC7}">
       <formula1>"sbt,preprod117,Live"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AT2" xr:uid="{F348DDAF-17B0-45BF-8A89-91C706F36CA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AW2" xr:uid="{F348DDAF-17B0-45BF-8A89-91C706F36CA4}">
       <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2" xr:uid="{A98ADDC0-87E0-4C28-804B-0EE4B741AA5A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{A98ADDC0-87E0-4C28-804B-0EE4B741AA5A}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG2" xr:uid="{4899AA23-9D78-4609-8B4D-7E95C61E2192}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2" xr:uid="{4899AA23-9D78-4609-8B4D-7E95C61E2192}">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{14FFAEE5-838A-40C6-A868-3EEF0E4F7A5F}">
@@ -6492,87 +6607,91 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{FF3333FC-9C0C-4E2E-A451-FF174DAC3490}">
       <formula1>"//staging117/backoffice/,//preprod.quadlabs.net/backoffice/,//test.quadlabs.net/backoffice/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{ACEBCA11-95B3-474B-9D84-CF84766EE043}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{ACEBCA11-95B3-474B-9D84-CF84766EE043}">
       <formula1>"Old,New"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{81F3A335-5865-4402-9854-20EA212FDB9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{81F3A335-5865-4402-9854-20EA212FDB9A}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2" xr:uid="{A12E1609-25BB-4994-97A0-25D9D3B36AEC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2" xr:uid="{A12E1609-25BB-4994-97A0-25D9D3B36AEC}">
       <formula1>"InPolicy,OutPolicy,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 AG2" xr:uid="{4E0A9ED7-EAC9-4CAC-8AAF-107BABE2C722}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 AJ2" xr:uid="{4E0A9ED7-EAC9-4CAC-8AAF-107BABE2C722}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2" xr:uid="{60E61AA3-AC62-4092-9CEF-AEC79C51FCC3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2" xr:uid="{60E61AA3-AC62-4092-9CEF-AEC79C51FCC3}">
       <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{9206C22A-AD82-499A-8D35-EC7904C28788}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{9206C22A-AD82-499A-8D35-EC7904C28788}">
       <formula1>"OneWay,RoundTrip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{E80A7C73-0EC1-4A31-B681-3D8CEEA65FBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{E80A7C73-0EC1-4A31-B681-3D8CEEA65FBF}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{30E9077C-0BAE-484C-8800-EF1CF1F7AC72}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2" xr:uid="{30E9077C-0BAE-484C-8800-EF1CF1F7AC72}">
       <formula1>"Individual,Guest,Personal,Dependent"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2" xr:uid="{F0728136-07B8-4DCB-8931-8286C1B5114F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{F0728136-07B8-4DCB-8931-8286C1B5114F}">
       <formula1>"Master Card,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2" xr:uid="{79D15FF4-E890-48B2-95E9-B925300F5696}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2" xr:uid="{79D15FF4-E890-48B2-95E9-B925300F5696}">
       <formula1>"0,1,2,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AK2" xr:uid="{7A4026AA-3BD3-4AEB-9FB4-D4314AADBC3A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AN2" xr:uid="{7A4026AA-3BD3-4AEB-9FB4-D4314AADBC3A}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{B56167FE-47C9-4A65-9086-DF87F9515F4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{B56167FE-47C9-4A65-9086-DF87F9515F4E}">
       <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 AF2 BN2" xr:uid="{25D1A8B3-725F-4BE3-9BEA-65FEA3721120}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 AI2 BQ2" xr:uid="{25D1A8B3-725F-4BE3-9BEA-65FEA3721120}">
       <formula1>"Applied,NotApplied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2" xr:uid="{87D7DF79-5693-494C-872E-DB134D2656A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2" xr:uid="{87D7DF79-5693-494C-872E-DB134D2656A4}">
       <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{9C6B7A26-5793-477F-88FC-541C38102924}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{FD073124-14C7-453E-9EBE-2942304264F9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{FD073124-14C7-453E-9EBE-2942304264F9}">
       <formula1>"Administrator,Travel Arranger,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2" xr:uid="{6B11E2D2-8B91-497D-BDCC-CC90F8522260}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2" xr:uid="{6B11E2D2-8B91-497D-BDCC-CC90F8522260}">
       <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ2" xr:uid="{647EAA93-2B4A-46AD-9D99-968D39FC469E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2" xr:uid="{647EAA93-2B4A-46AD-9D99-968D39FC469E}">
       <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2 AP2" xr:uid="{055CAE79-5247-4886-ADFA-BB6E2D01E952}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2 AS2" xr:uid="{055CAE79-5247-4886-ADFA-BB6E2D01E952}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{F6717E76-07CE-4958-9239-247A1BBF1E1B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{F6717E76-07CE-4958-9239-247A1BBF1E1B}">
       <formula1>"On,Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR2" xr:uid="{8EC77805-5CBE-4970-810E-3F3A7B8C691D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT2:AU2" xr:uid="{8EC77805-5CBE-4970-810E-3F3A7B8C691D}">
       <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2" xr:uid="{344D26CF-4F2A-4587-9D46-1E751217A884}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2" xr:uid="{344D26CF-4F2A-4587-9D46-1E751217A884}">
       <formula1>"Business trip  - Without reason"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{F238780C-3877-4C40-9ADD-1BAF2F3F0FBE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{F238780C-3877-4C40-9ADD-1BAF2F3F0FBE}">
       <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{2E3A18E1-980E-4149-8CB1-EFF96A8811C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{2E3A18E1-980E-4149-8CB1-EFF96A8811C3}">
       <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{240CC697-928A-4105-8DA3-8BB81E5D6CD9}">
-      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{240CC697-928A-4105-8DA3-8BB81E5D6CD9}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{906F570E-507D-420C-940E-278E4EFCB370}">
+      <formula1>"Normal,SSO"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{FAD7C1B9-42CA-4064-B9E8-01C6858CDC14}"/>
     <hyperlink ref="G2" r:id="rId2" display="Password@123" xr:uid="{E4072722-AAB4-4707-AFCC-638E300E309A}"/>
-    <hyperlink ref="U2" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{1D6A9996-E1EA-4781-92FB-8CE3C9232EFF}"/>
-    <hyperlink ref="Q2" r:id="rId4" display="Admin@123" xr:uid="{623772FD-EAD4-45C8-9F6D-B43DF26977DD}"/>
+    <hyperlink ref="X2" r:id="rId3" xr:uid="{1D6A9996-E1EA-4781-92FB-8CE3C9232EFF}"/>
+    <hyperlink ref="T2" r:id="rId4" display="Admin@123" xr:uid="{623772FD-EAD4-45C8-9F6D-B43DF26977DD}"/>
+    <hyperlink ref="O2" r:id="rId5" xr:uid="{41AF3579-0A29-47FF-A6EE-C017BADA9515}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20543,8 +20662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4687B7CB-B79C-4A10-A96F-CB8129CC90D6}">
   <dimension ref="A1:BV5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/excel/FlightBooking.xlsx
+++ b/data/excel/FlightBooking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C8AA87-190E-490F-8133-74621778D432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F8D34B-A146-4DC6-B287-3862E175535C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4842" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4844" uniqueCount="411">
   <si>
     <t>del</t>
   </si>
@@ -1272,6 +1272,12 @@
   </si>
   <si>
     <t>test.quadlabs.net</t>
+  </si>
+  <si>
+    <t>31-Jan-2024</t>
+  </si>
+  <si>
+    <t>UpgradePolicy</t>
   </si>
 </sst>
 </file>
@@ -6022,10 +6028,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E64D9A7-538F-4A91-A281-E05404AC9E04}">
-  <dimension ref="A1:BY2"/>
+  <dimension ref="A1:BZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6072,44 +6078,45 @@
     <col min="40" max="40" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.5703125" customWidth="1"/>
+    <col min="44" max="44" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>35</v>
       </c>
@@ -6237,112 +6244,115 @@
         <v>21</v>
       </c>
       <c r="AQ1" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="AR1" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="AR1" s="23" t="s">
+      <c r="AS1" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="AX1" s="23" t="s">
+      <c r="AY1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AY1" s="23" t="s">
+      <c r="AZ1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="AZ1" s="23" t="s">
+      <c r="BA1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="BA1" s="23" t="s">
+      <c r="BB1" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="BB1" s="33" t="s">
+      <c r="BC1" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="BC1" s="33" t="s">
+      <c r="BD1" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="BD1" s="33" t="s">
+      <c r="BE1" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="BE1" s="33" t="s">
+      <c r="BF1" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="BF1" s="23" t="s">
+      <c r="BG1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="BG1" s="23" t="s">
+      <c r="BH1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="BH1" s="23" t="s">
+      <c r="BI1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="BI1" s="23" t="s">
+      <c r="BJ1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="BJ1" s="23" t="s">
+      <c r="BK1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="BK1" s="14" t="s">
+      <c r="BL1" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="BL1" s="14" t="s">
+      <c r="BM1" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="BM1" s="23" t="s">
+      <c r="BN1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="BN1" s="23" t="s">
+      <c r="BO1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="BO1" s="23" t="s">
+      <c r="BP1" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="BP1" s="23" t="s">
+      <c r="BQ1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="19" t="s">
+      <c r="BR1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" s="19" t="s">
+      <c r="BS1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" s="19" t="s">
+      <c r="BT1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="23" t="s">
+      <c r="BU1" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="BU1" s="23" t="s">
+      <c r="BV1" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="BV1" s="23" t="s">
+      <c r="BW1" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="BW1" s="23" t="s">
+      <c r="BX1" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="BX1" s="23" t="s">
+      <c r="BY1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="BY1" s="23" t="s">
+      <c r="BZ1" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:77" ht="48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" ht="48" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
@@ -6386,7 +6396,7 @@
         <v>403</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>55</v>
+        <v>343</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>408</v>
@@ -6404,7 +6414,7 @@
         <v>295</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>192</v>
@@ -6440,7 +6450,7 @@
         <v>246</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="AH2" s="12" t="s">
         <v>306</v>
@@ -6469,29 +6479,29 @@
       <c r="AP2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AQ2" s="7" t="s">
+      <c r="AQ2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AR2" s="7">
+      <c r="AS2" s="7">
         <v>0</v>
       </c>
-      <c r="AS2" s="13" t="s">
+      <c r="AT2" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="AT2" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="AU2" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AV2" s="13" t="s">
-        <v>292</v>
+      <c r="AV2" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="AW2" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="AX2" s="7">
-        <v>1</v>
+      <c r="AX2" s="13" t="s">
+        <v>292</v>
       </c>
       <c r="AY2" s="7">
         <v>1</v>
@@ -6499,100 +6509,100 @@
       <c r="AZ2" s="7">
         <v>1</v>
       </c>
-      <c r="BA2" s="7" t="s">
+      <c r="BA2" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="BB2" s="13" t="s">
+      <c r="BC2" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="BC2" s="13" t="s">
+      <c r="BD2" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="BD2" s="34" t="s">
+      <c r="BE2" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="BE2" s="34" t="s">
+      <c r="BF2" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="BF2" s="7">
+      <c r="BG2" s="7">
         <v>78554432323</v>
       </c>
-      <c r="BG2" s="7" t="s">
+      <c r="BH2" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="BH2" s="7">
+      <c r="BI2" s="7">
         <v>345678</v>
       </c>
-      <c r="BI2" s="7" t="s">
+      <c r="BJ2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="BJ2" s="7" t="s">
+      <c r="BK2" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="BK2" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BL2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BM2" s="7" t="s">
+      <c r="BN2" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="BN2" s="7">
+      <c r="BO2" s="7">
         <v>123</v>
       </c>
-      <c r="BO2" s="7" t="s">
+      <c r="BP2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="BP2" s="7" t="s">
+      <c r="BQ2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="BQ2" s="9" t="s">
+      <c r="BR2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="BR2" s="9">
-        <v>1</v>
-      </c>
-      <c r="BS2" s="9" t="s">
+      <c r="BS2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="BT2" s="7" t="s">
+      <c r="BU2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="BU2" s="32" t="s">
+      <c r="BV2" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="BV2" s="7" t="s">
+      <c r="BW2" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="BW2" s="7" t="s">
+      <c r="BX2" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="BX2" s="7" t="s">
+      <c r="BY2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BY2" s="11" t="s">
+      <c r="BZ2" s="11" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="36">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2" xr:uid="{0CD54666-EFDC-4C33-BF78-76EF6476D710}">
-      <formula1>"bom,maa,dxb"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{44ACB44D-92E3-46C1-B853-FB349BC606BA}">
       <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{0D536917-8DDC-4DC9-8190-D64021CE5DC7}">
       <formula1>"sbt,preprod117,Live"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AW2" xr:uid="{F348DDAF-17B0-45BF-8A89-91C706F36CA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX2" xr:uid="{F348DDAF-17B0-45BF-8A89-91C706F36CA4}">
       <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{A98ADDC0-87E0-4C28-804B-0EE4B741AA5A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2" xr:uid="{A98ADDC0-87E0-4C28-804B-0EE4B741AA5A}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2" xr:uid="{4899AA23-9D78-4609-8B4D-7E95C61E2192}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{4899AA23-9D78-4609-8B4D-7E95C61E2192}">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{14FFAEE5-838A-40C6-A868-3EEF0E4F7A5F}">
@@ -6613,13 +6623,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{81F3A335-5865-4402-9854-20EA212FDB9A}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2" xr:uid="{A12E1609-25BB-4994-97A0-25D9D3B36AEC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2" xr:uid="{A12E1609-25BB-4994-97A0-25D9D3B36AEC}">
       <formula1>"InPolicy,OutPolicy,Null"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 AJ2" xr:uid="{4E0A9ED7-EAC9-4CAC-8AAF-107BABE2C722}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2" xr:uid="{60E61AA3-AC62-4092-9CEF-AEC79C51FCC3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2" xr:uid="{60E61AA3-AC62-4092-9CEF-AEC79C51FCC3}">
       <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{9206C22A-AD82-499A-8D35-EC7904C28788}">
@@ -6631,10 +6641,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2" xr:uid="{30E9077C-0BAE-484C-8800-EF1CF1F7AC72}">
       <formula1>"Individual,Guest,Personal,Dependent"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{F0728136-07B8-4DCB-8931-8286C1B5114F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2" xr:uid="{F0728136-07B8-4DCB-8931-8286C1B5114F}">
       <formula1>"Master Card,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2" xr:uid="{79D15FF4-E890-48B2-95E9-B925300F5696}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2" xr:uid="{79D15FF4-E890-48B2-95E9-B925300F5696}">
       <formula1>"0,1,2,Null"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AN2" xr:uid="{7A4026AA-3BD3-4AEB-9FB4-D4314AADBC3A}">
@@ -6643,10 +6653,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{B56167FE-47C9-4A65-9086-DF87F9515F4E}">
       <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 AI2 BQ2" xr:uid="{25D1A8B3-725F-4BE3-9BEA-65FEA3721120}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 AI2 BR2" xr:uid="{25D1A8B3-725F-4BE3-9BEA-65FEA3721120}">
       <formula1>"Applied,NotApplied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2" xr:uid="{87D7DF79-5693-494C-872E-DB134D2656A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2" xr:uid="{87D7DF79-5693-494C-872E-DB134D2656A4}">
       <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{9C6B7A26-5793-477F-88FC-541C38102924}">
@@ -6655,19 +6665,19 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{FD073124-14C7-453E-9EBE-2942304264F9}">
       <formula1>"Administrator,Travel Arranger,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2" xr:uid="{6B11E2D2-8B91-497D-BDCC-CC90F8522260}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2" xr:uid="{6B11E2D2-8B91-497D-BDCC-CC90F8522260}">
       <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2" xr:uid="{647EAA93-2B4A-46AD-9D99-968D39FC469E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2" xr:uid="{647EAA93-2B4A-46AD-9D99-968D39FC469E}">
       <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2 AS2" xr:uid="{055CAE79-5247-4886-ADFA-BB6E2D01E952}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2 AT2 AQ2" xr:uid="{055CAE79-5247-4886-ADFA-BB6E2D01E952}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{F6717E76-07CE-4958-9239-247A1BBF1E1B}">
       <formula1>"On,Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT2:AU2" xr:uid="{8EC77805-5CBE-4970-810E-3F3A7B8C691D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV2" xr:uid="{8EC77805-5CBE-4970-810E-3F3A7B8C691D}">
       <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2" xr:uid="{344D26CF-4F2A-4587-9D46-1E751217A884}">
@@ -6684,6 +6694,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{906F570E-507D-420C-940E-278E4EFCB370}">
       <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2" xr:uid="{9FCC3812-0A78-4C4A-83E4-5D06690FD278}">
+      <formula1>"bom,maa,dxb"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -20662,8 +20675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4687B7CB-B79C-4A10-A96F-CB8129CC90D6}">
   <dimension ref="A1:BV5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4:AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/excel/FlightBooking.xlsx
+++ b/data/excel/FlightBooking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F8D34B-A146-4DC6-B287-3862E175535C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6F3F13-304B-401C-9405-F01AAAA00D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4844" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4844" uniqueCount="410">
   <si>
     <t>del</t>
   </si>
@@ -1272,9 +1272,6 @@
   </si>
   <si>
     <t>test.quadlabs.net</t>
-  </si>
-  <si>
-    <t>31-Jan-2024</t>
   </si>
   <si>
     <t>UpgradePolicy</t>
@@ -6031,7 +6028,7 @@
   <dimension ref="A1:BZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AI13" sqref="AI13"/>
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6244,7 +6241,7 @@
         <v>21</v>
       </c>
       <c r="AQ1" s="23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AR1" s="23" t="s">
         <v>287</v>
@@ -6450,7 +6447,7 @@
         <v>246</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="AH2" s="12" t="s">
         <v>306</v>

--- a/data/excel/FlightBooking.xlsx
+++ b/data/excel/FlightBooking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6F3F13-304B-401C-9405-F01AAAA00D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB758B67-C4AC-4132-A371-958A2095AC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet14" sheetId="72" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Sheet6" sheetId="80" r:id="rId8"/>
     <sheet name="Sheet5" sheetId="79" r:id="rId9"/>
     <sheet name="Sheet8" sheetId="83" r:id="rId10"/>
+    <sheet name="Sheet9" sheetId="84" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4844" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4986" uniqueCount="418">
   <si>
     <t>del</t>
   </si>
@@ -1275,6 +1276,30 @@
   </si>
   <si>
     <t>UpgradePolicy</t>
+  </si>
+  <si>
+    <t>Istanbul,Turkey - Ataturk (IST)</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>20-Feb-2024</t>
+  </si>
+  <si>
+    <t>John F Kennedy-United States,United States - John F. Kennedy International Airport (JFK)</t>
+  </si>
+  <si>
+    <t>JFK</t>
+  </si>
+  <si>
+    <t>23-Mar-2024</t>
+  </si>
+  <si>
+    <t>ankit.bist@quadlabs.com</t>
   </si>
 </sst>
 </file>
@@ -1774,7 +1799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98EDDB2-6BE4-45F6-80CF-17F0C90DBF6A}">
   <dimension ref="A1:IT5"/>
   <sheetViews>
-    <sheetView topLeftCell="IF1" workbookViewId="0">
+    <sheetView topLeftCell="GW1" workbookViewId="0">
       <selection activeCell="IX10" sqref="IX10"/>
     </sheetView>
   </sheetViews>
@@ -6027,8 +6052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E64D9A7-538F-4A91-A281-E05404AC9E04}">
   <dimension ref="A1:BZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6426,28 +6451,28 @@
         <v>32</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>132</v>
+        <v>412</v>
       </c>
       <c r="AA2" s="7" t="s">
         <v>337</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>33</v>
+        <v>140</v>
+      </c>
+      <c r="AC2" s="28" t="s">
+        <v>141</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>140</v>
+        <v>411</v>
       </c>
       <c r="AE2" s="28" t="s">
-        <v>141</v>
+        <v>410</v>
       </c>
       <c r="AF2" s="30" t="s">
         <v>246</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="AH2" s="12" t="s">
         <v>306</v>
@@ -6586,7 +6611,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="36">
+  <dataValidations count="37">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{44ACB44D-92E3-46C1-B853-FB349BC606BA}">
       <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
     </dataValidation>
@@ -6693,6 +6718,9 @@
       <formula1>"Normal,SSO"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2" xr:uid="{9FCC3812-0A78-4C4A-83E4-5D06690FD278}">
+      <formula1>"bom,maa,dxb,IST"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2" xr:uid="{0963ED60-77A7-4A2B-972F-564D84EB353B}">
       <formula1>"bom,maa,dxb"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6707,12 +6735,695 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B8F8D0-D766-4C64-AE8A-3BA802829F0D}">
+  <dimension ref="A1:BZ2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="91.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ1" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="AR1" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AY1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC1" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="BD1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="BE1" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="BF1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="BG1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="BM1" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="BN1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="BP1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="BS1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BV1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="BW1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BY1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ1" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:78" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="X2" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE2" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF2" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AX2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AY2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD2" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BE2" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF2" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG2" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI2" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO2" s="7">
+        <v>123</v>
+      </c>
+      <c r="BP2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV2" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BW2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BX2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BY2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ2" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2" xr:uid="{90D93D37-9C22-4698-841C-FED041DB87F4}">
+      <formula1>"bom,maa,dxb,IST,JFK"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{CC8FB706-3951-4250-A1E3-3F76870C3D4A}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{5F72F893-A0D9-49CE-9690-EA3857459A4B}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{4BB6D6BE-D014-42D0-8A34-C47166523A09}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{859917FD-E0A7-4F2C-BD1F-68DA2DAE983E}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2" xr:uid="{D219607C-F2C5-4A38-8201-D27FCCCF93DB}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV2" xr:uid="{A12CD16C-6418-4FCF-BEF4-4418845D1213}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{C3905F57-1B7E-4EFA-94DA-7233652F7F8E}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2 AT2 AQ2" xr:uid="{45F185F8-31EC-46B1-ABEA-7635A86AF516}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2" xr:uid="{4211F050-602B-4387-B682-25E54593032C}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2" xr:uid="{4A09CD01-C341-4F4F-80BB-444A72B05334}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{191D4A16-78A5-44DA-BA3F-58BF1723743E}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{5232188D-F0A8-4076-A51D-966AEDFB2183}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2" xr:uid="{ADC4A5DE-F1FA-4A98-8EB7-A982B9AAF89E}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 AI2 BR2" xr:uid="{5FDACED2-9ABD-43D2-9CED-79F874056968}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{D9D47D60-260D-438A-AB1A-E7640E8E4A5E}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AN2" xr:uid="{DC2884CA-7498-46CA-9CFC-A006097F85D9}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2" xr:uid="{1B782B1A-99FD-4AF0-BDAB-3075214F0073}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2" xr:uid="{E6A79FF1-EAD5-4279-B608-B03A7417761F}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2" xr:uid="{0BFE0387-361E-427C-8B6C-3FF618079EE1}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{29043126-83A7-4918-BB54-BF5A2F6FC08C}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{07E2FA78-B5AD-4996-AD8B-E488D53EBDDF}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2" xr:uid="{B864253E-50C3-4EBF-B35F-3CA34D0B4043}">
+      <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 AJ2" xr:uid="{0ACB26FA-66BE-4A93-A38A-80A0846BCAB1}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2" xr:uid="{59316F6A-741F-42FE-8C9A-3C183ADEB28B}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{634DF8F1-B130-4428-95AC-9CC9E18FA097}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{60855C35-0E78-4BB1-9975-BAA2C1FC5735}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{DA60ACC0-5F1C-42CE-BBAE-8D9176E2B731}">
+      <formula1>"//staging117/backoffice/,//preprod.quadlabs.net/backoffice/,//test.quadlabs.net/backoffice/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{85D7396F-6DC0-4CA6-800E-6C803F2CC1C5}">
+      <formula1>"at,QL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{6761D887-2E90-44EA-979F-5ADE262186ED}">
+      <formula1>"Saurav_at,tarun"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{DBA551E6-DBEE-421C-A4E1-9E979D097BDE}">
+      <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{BBD5C23F-817F-487F-B51E-F17B617C805F}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2" xr:uid="{2324EC73-740B-4CF1-8709-97F369E3BA25}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX2" xr:uid="{8B8AEAF0-A3F4-4129-AF02-8FB49E1FA39B}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{5FB86278-861C-4B78-8178-3F76A1AD926D}">
+      <formula1>"sbt,preprod117,Live"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{E895117B-1E23-469C-BCD3-A206E37C7DF6}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{507B0C3A-98E8-43ED-B1EF-2899D7BF9618}"/>
+    <hyperlink ref="G2" r:id="rId2" display="Password@123" xr:uid="{886A0FA7-BB3F-46E7-A9B9-3B8C1CD6877E}"/>
+    <hyperlink ref="X2" r:id="rId3" display="shubham.natkar@quadlabs.com" xr:uid="{5F68D4CD-1312-434D-AE49-F1844CE02EB2}"/>
+    <hyperlink ref="T2" r:id="rId4" display="Admin@123" xr:uid="{2378CC3D-FD6B-43B1-A253-5A5B5BB517F8}"/>
+    <hyperlink ref="O2" r:id="rId5" xr:uid="{3535D123-5873-4A23-9A27-C7AD9EA638D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98DCEC8-5D14-41F2-ACA0-1145C7751169}">
   <dimension ref="A1:BN5"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+      <selection activeCell="V2" sqref="V2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20673,7 +21384,7 @@
   <dimension ref="A1:BV5"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4:AB4"/>
+      <selection activeCell="Y5" sqref="Y5:Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/excel/FlightBooking.xlsx
+++ b/data/excel/FlightBooking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\QuadlabsCoreProject\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB758B67-C4AC-4132-A371-958A2095AC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C328A4F-FDC9-4C9C-8C19-8923223BD68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet14" sheetId="72" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <sheet name="Sheet6" sheetId="80" r:id="rId8"/>
     <sheet name="Sheet5" sheetId="79" r:id="rId9"/>
     <sheet name="Sheet8" sheetId="83" r:id="rId10"/>
-    <sheet name="Sheet9" sheetId="84" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="87" r:id="rId11"/>
+    <sheet name="Sheet10" sheetId="85" r:id="rId12"/>
+    <sheet name="Sheet9" sheetId="84" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4986" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5898" uniqueCount="436">
   <si>
     <t>del</t>
   </si>
@@ -1278,28 +1280,82 @@
     <t>UpgradePolicy</t>
   </si>
   <si>
-    <t>Istanbul,Turkey - Ataturk (IST)</t>
-  </si>
-  <si>
-    <t>IST</t>
-  </si>
-  <si>
-    <t>International</t>
-  </si>
-  <si>
-    <t>20-Feb-2024</t>
-  </si>
-  <si>
-    <t>John F Kennedy-United States,United States - John F. Kennedy International Airport (JFK)</t>
-  </si>
-  <si>
-    <t>JFK</t>
-  </si>
-  <si>
-    <t>23-Mar-2024</t>
-  </si>
-  <si>
-    <t>ankit.bist@quadlabs.com</t>
+    <t>26-Mar-2024</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>12-Apr-2024</t>
+  </si>
+  <si>
+    <t>prince.chaurasia@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Air India</t>
+  </si>
+  <si>
+    <t>19B,9E,6E,12E</t>
+  </si>
+  <si>
+    <t>18B,8E,6E,12E</t>
+  </si>
+  <si>
+    <t>29-Mar-2024</t>
+  </si>
+  <si>
+    <t>Prince Chaurasia</t>
+  </si>
+  <si>
+    <t>Flight domestic booking flow for Akasa Air flight (One way - Individual) with 0 stop</t>
+  </si>
+  <si>
+    <t>Flight domestic booking flow for Akasa Air + Air India flight (Round Trip - Individual) with 0 stop</t>
+  </si>
+  <si>
+    <t>Flight domestic booking flow for Akasa Air flight (One way - Individual) with 1 stop</t>
+  </si>
+  <si>
+    <t>Flight domestic booking flow for Akasa Air flight (Round Trip - Individual) with 0 stop</t>
+  </si>
+  <si>
+    <t>Flight domestic booking flow for Akasa Air flight (Round Trip - Individual) with 1 stop</t>
+  </si>
+  <si>
+    <t>Flight domestic booking flow for Akasa Air + Air India flight (Round Trip - Individual) with 1 stop</t>
+  </si>
+  <si>
+    <t>Flight domestic booking flow for Air India + Akasa Air flight (Round Trip - Individual) with 0 stop</t>
+  </si>
+  <si>
+    <t>Flight domestic booking flow for Air India + Akasa Air flight (Round Trip - Individual) with 1 stop</t>
+  </si>
+  <si>
+    <t>Flight domestic booking flow for Akasa Air + Vistara flight (Round Trip - Individual) with 0 stop</t>
+  </si>
+  <si>
+    <t>Flight domestic booking flow for Vistara + Akasa Air flight (Round Trip - Individual) with 1 stop</t>
+  </si>
+  <si>
+    <t>Vistara</t>
+  </si>
+  <si>
+    <t>ECO LITE</t>
+  </si>
+  <si>
+    <t>15-Apr-2024</t>
+  </si>
+  <si>
+    <t>Sachin Kumar</t>
+  </si>
+  <si>
+    <t>Verify as a travel arranger, Flight domestic booking flow with Akasa Air (One way - Individual) for 0 stop</t>
+  </si>
+  <si>
+    <t>ajit.kumar@quadlabs.com</t>
+  </si>
+  <si>
+    <t>17-May-2024</t>
   </si>
 </sst>
 </file>
@@ -1799,7 +1855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98EDDB2-6BE4-45F6-80CF-17F0C90DBF6A}">
   <dimension ref="A1:IT5"/>
   <sheetViews>
-    <sheetView topLeftCell="GW1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="IX10" sqref="IX10"/>
     </sheetView>
   </sheetViews>
@@ -6050,10 +6106,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E64D9A7-538F-4A91-A281-E05404AC9E04}">
-  <dimension ref="A1:BZ2"/>
+  <dimension ref="A1:BZ3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6418,7 +6474,7 @@
         <v>403</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>343</v>
+        <v>413</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>408</v>
@@ -6427,7 +6483,7 @@
         <v>44</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>44</v>
@@ -6445,37 +6501,37 @@
         <v>293</v>
       </c>
       <c r="X2" s="35" t="s">
-        <v>55</v>
+        <v>413</v>
       </c>
       <c r="Y2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>412</v>
+        <v>132</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>337</v>
+        <v>137</v>
       </c>
       <c r="AB2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AC2" s="28" t="s">
+      <c r="AE2" s="28" t="s">
         <v>141</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE2" s="28" t="s">
-        <v>410</v>
       </c>
       <c r="AF2" s="30" t="s">
         <v>246</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>306</v>
+        <v>412</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>69</v>
@@ -6502,28 +6558,28 @@
         <v>4</v>
       </c>
       <c r="AQ2" s="13" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="AR2" s="7" t="s">
         <v>59</v>
       </c>
       <c r="AS2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="13" t="s">
         <v>153</v>
       </c>
       <c r="AU2" s="7" t="s">
-        <v>139</v>
+        <v>353</v>
       </c>
       <c r="AV2" s="7" t="s">
-        <v>139</v>
+        <v>414</v>
       </c>
       <c r="AW2" s="13" t="s">
         <v>292</v>
       </c>
       <c r="AX2" s="13" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="AY2" s="7">
         <v>1</v>
@@ -6595,10 +6651,10 @@
         <v>7</v>
       </c>
       <c r="BV2" s="32" t="s">
-        <v>281</v>
+        <v>153</v>
       </c>
       <c r="BW2" s="7" t="s">
-        <v>304</v>
+        <v>415</v>
       </c>
       <c r="BX2" s="7" t="s">
         <v>145</v>
@@ -6610,143 +6666,382 @@
         <v>37</v>
       </c>
     </row>
+    <row r="3" spans="1:78" ht="48" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="X3" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE3" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ3" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AW3" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AX3" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AY3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD3" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BE3" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF3" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG3" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI3" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN3" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO3" s="7">
+        <v>123</v>
+      </c>
+      <c r="BP3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS3" s="9">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV3" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW3" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="BX3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BY3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ3" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="37">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{44ACB44D-92E3-46C1-B853-FB349BC606BA}">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T3" xr:uid="{44ACB44D-92E3-46C1-B853-FB349BC606BA}">
       <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{0D536917-8DDC-4DC9-8190-D64021CE5DC7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{0D536917-8DDC-4DC9-8190-D64021CE5DC7}">
       <formula1>"sbt,preprod117,Live"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX2" xr:uid="{F348DDAF-17B0-45BF-8A89-91C706F36CA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX3" xr:uid="{F348DDAF-17B0-45BF-8A89-91C706F36CA4}">
       <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2" xr:uid="{A98ADDC0-87E0-4C28-804B-0EE4B741AA5A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2:BL3" xr:uid="{A98ADDC0-87E0-4C28-804B-0EE4B741AA5A}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{4899AA23-9D78-4609-8B4D-7E95C61E2192}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK3" xr:uid="{4899AA23-9D78-4609-8B4D-7E95C61E2192}">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{14FFAEE5-838A-40C6-A868-3EEF0E4F7A5F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{14FFAEE5-838A-40C6-A868-3EEF0E4F7A5F}">
       <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{748048FB-E074-4A81-AF08-D0E22C4A4999}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{748048FB-E074-4A81-AF08-D0E22C4A4999}">
       <formula1>"Saurav_at,tarun"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{42DBF49A-ABDB-4433-A6C0-3F7DDEF1FDC4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{42DBF49A-ABDB-4433-A6C0-3F7DDEF1FDC4}">
       <formula1>"at,QL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{FF3333FC-9C0C-4E2E-A451-FF174DAC3490}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{FF3333FC-9C0C-4E2E-A451-FF174DAC3490}">
       <formula1>"//staging117/backoffice/,//preprod.quadlabs.net/backoffice/,//test.quadlabs.net/backoffice/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{ACEBCA11-95B3-474B-9D84-CF84766EE043}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W3" xr:uid="{ACEBCA11-95B3-474B-9D84-CF84766EE043}">
       <formula1>"Old,New"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{81F3A335-5865-4402-9854-20EA212FDB9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X3 O2:O3" xr:uid="{81F3A335-5865-4402-9854-20EA212FDB9A}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2" xr:uid="{A12E1609-25BB-4994-97A0-25D9D3B36AEC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR3" xr:uid="{A12E1609-25BB-4994-97A0-25D9D3B36AEC}">
       <formula1>"InPolicy,OutPolicy,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 AJ2" xr:uid="{4E0A9ED7-EAC9-4CAC-8AAF-107BABE2C722}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3 AJ2:AJ3" xr:uid="{4E0A9ED7-EAC9-4CAC-8AAF-107BABE2C722}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2" xr:uid="{60E61AA3-AC62-4092-9CEF-AEC79C51FCC3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB3" xr:uid="{60E61AA3-AC62-4092-9CEF-AEC79C51FCC3}">
       <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{9206C22A-AD82-499A-8D35-EC7904C28788}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA3" xr:uid="{17D54AE4-565B-4207-9ECB-46708917D6E7}">
       <formula1>"OneWay,RoundTrip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{E80A7C73-0EC1-4A31-B681-3D8CEEA65FBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z3" xr:uid="{E80A7C73-0EC1-4A31-B681-3D8CEEA65FBF}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2" xr:uid="{30E9077C-0BAE-484C-8800-EF1CF1F7AC72}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y3" xr:uid="{30E9077C-0BAE-484C-8800-EF1CF1F7AC72}">
       <formula1>"Individual,Guest,Personal,Dependent"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2" xr:uid="{F0728136-07B8-4DCB-8931-8286C1B5114F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2:BN3" xr:uid="{F0728136-07B8-4DCB-8931-8286C1B5114F}">
       <formula1>"Master Card,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2" xr:uid="{79D15FF4-E890-48B2-95E9-B925300F5696}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS3" xr:uid="{79D15FF4-E890-48B2-95E9-B925300F5696}">
       <formula1>"0,1,2,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AN2" xr:uid="{7A4026AA-3BD3-4AEB-9FB4-D4314AADBC3A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AN3" xr:uid="{7A4026AA-3BD3-4AEB-9FB4-D4314AADBC3A}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{B56167FE-47C9-4A65-9086-DF87F9515F4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{B56167FE-47C9-4A65-9086-DF87F9515F4E}">
       <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 AI2 BR2" xr:uid="{25D1A8B3-725F-4BE3-9BEA-65FEA3721120}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3 AI2:AI3 BR2:BR3" xr:uid="{25D1A8B3-725F-4BE3-9BEA-65FEA3721120}">
       <formula1>"Applied,NotApplied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2" xr:uid="{87D7DF79-5693-494C-872E-DB134D2656A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2:BZ3" xr:uid="{87D7DF79-5693-494C-872E-DB134D2656A4}">
       <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{9C6B7A26-5793-477F-88FC-541C38102924}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{9C6B7A26-5793-477F-88FC-541C38102924}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{FD073124-14C7-453E-9EBE-2942304264F9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3" xr:uid="{FD073124-14C7-453E-9EBE-2942304264F9}">
       <formula1>"Administrator,Travel Arranger,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2" xr:uid="{6B11E2D2-8B91-497D-BDCC-CC90F8522260}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP3" xr:uid="{6B11E2D2-8B91-497D-BDCC-CC90F8522260}">
       <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2" xr:uid="{647EAA93-2B4A-46AD-9D99-968D39FC469E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU3" xr:uid="{647EAA93-2B4A-46AD-9D99-968D39FC469E}">
       <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2 AT2 AQ2" xr:uid="{055CAE79-5247-4886-ADFA-BB6E2D01E952}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2:BV3 AT2:AT3 AQ2:AQ3" xr:uid="{055CAE79-5247-4886-ADFA-BB6E2D01E952}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{F6717E76-07CE-4958-9239-247A1BBF1E1B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V3" xr:uid="{F6717E76-07CE-4958-9239-247A1BBF1E1B}">
       <formula1>"On,Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV2" xr:uid="{8EC77805-5CBE-4970-810E-3F3A7B8C691D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV3" xr:uid="{8EC77805-5CBE-4970-810E-3F3A7B8C691D}">
       <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2" xr:uid="{344D26CF-4F2A-4587-9D46-1E751217A884}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF3" xr:uid="{344D26CF-4F2A-4587-9D46-1E751217A884}">
       <formula1>"Business trip  - Without reason"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{F238780C-3877-4C40-9ADD-1BAF2F3F0FBE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{F238780C-3877-4C40-9ADD-1BAF2F3F0FBE}">
       <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{2E3A18E1-980E-4149-8CB1-EFF96A8811C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S3" xr:uid="{2E3A18E1-980E-4149-8CB1-EFF96A8811C3}">
       <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{240CC697-928A-4105-8DA3-8BB81E5D6CD9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{240CC697-928A-4105-8DA3-8BB81E5D6CD9}">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{906F570E-507D-420C-940E-278E4EFCB370}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3" xr:uid="{906F570E-507D-420C-940E-278E4EFCB370}">
       <formula1>"Normal,SSO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2" xr:uid="{9FCC3812-0A78-4C4A-83E4-5D06690FD278}">
-      <formula1>"bom,maa,dxb,IST"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2" xr:uid="{0963ED60-77A7-4A2B-972F-564D84EB353B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD3" xr:uid="{786533F1-B66A-4382-B038-F90555BE614A}">
       <formula1>"bom,maa,dxb"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{FAD7C1B9-42CA-4064-B9E8-01C6858CDC14}"/>
     <hyperlink ref="G2" r:id="rId2" display="Password@123" xr:uid="{E4072722-AAB4-4707-AFCC-638E300E309A}"/>
-    <hyperlink ref="X2" r:id="rId3" xr:uid="{1D6A9996-E1EA-4781-92FB-8CE3C9232EFF}"/>
+    <hyperlink ref="X2" r:id="rId3" display="shubham.natkar@quadlabs.com" xr:uid="{1D6A9996-E1EA-4781-92FB-8CE3C9232EFF}"/>
     <hyperlink ref="T2" r:id="rId4" display="Admin@123" xr:uid="{623772FD-EAD4-45C8-9F6D-B43DF26977DD}"/>
-    <hyperlink ref="O2" r:id="rId5" xr:uid="{41AF3579-0A29-47FF-A6EE-C017BADA9515}"/>
+    <hyperlink ref="O2" r:id="rId5" display="shubham.natkar@quadlabs.com" xr:uid="{F30C06C9-8C6F-4B40-A0B3-5A5F692A52F3}"/>
+    <hyperlink ref="F3" r:id="rId6" display="shubham.natkar@quadlabs.com" xr:uid="{4538FA64-58E4-4F8F-B24F-6AC098B67621}"/>
+    <hyperlink ref="G3" r:id="rId7" display="Password@123" xr:uid="{A925BDAF-81A3-4096-B389-5C2095E56F82}"/>
+    <hyperlink ref="X3" r:id="rId8" display="shubham.natkar@quadlabs.com" xr:uid="{2739574A-F5E9-4DEC-B974-9C73587D610D}"/>
+    <hyperlink ref="T3" r:id="rId9" display="Admin@123" xr:uid="{C219481B-FA1A-4D58-B72A-66893CB9FA73}"/>
+    <hyperlink ref="O3" r:id="rId10" display="shubham.natkar@quadlabs.com" xr:uid="{7837FCB3-21C5-447C-A9F6-5F6CC7DACC49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B8F8D0-D766-4C64-AE8A-3BA802829F0D}">
-  <dimension ref="A1:BZ2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001DE8A5-962C-4F61-8971-2FADC052C517}">
+  <dimension ref="A1:BZ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -6758,26 +7053,26 @@
     <col min="11" max="11" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="91.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="39" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -7065,7 +7360,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>376</v>
@@ -7104,22 +7399,2878 @@
         <v>403</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>343</v>
+        <v>413</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>408</v>
       </c>
       <c r="Q2" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="X2" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE2" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF2" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AX2" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AY2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD2" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BE2" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF2" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG2" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI2" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO2" s="7">
+        <v>123</v>
+      </c>
+      <c r="BP2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV2" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW2" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="BX2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BY2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ2" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:78" ht="48" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="X3" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE3" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ3" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AW3" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AX3" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AY3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD3" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BE3" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF3" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG3" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI3" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN3" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO3" s="7">
+        <v>123</v>
+      </c>
+      <c r="BP3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS3" s="9">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV3" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW3" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="BX3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BY3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ3" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:78" ht="48" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="X4" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE4" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF4" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ4" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU4" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AV4" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AW4" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AX4" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AY4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD4" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BE4" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF4" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG4" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BH4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI4" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BJ4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO4" s="7">
+        <v>123</v>
+      </c>
+      <c r="BP4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV4" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW4" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="BX4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BY4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ4" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:78" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="X5" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE5" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF5" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH5" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU5" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AV5" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AW5" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AX5" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AY5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC5" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD5" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BE5" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF5" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG5" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BH5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI5" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BJ5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO5" s="7">
+        <v>123</v>
+      </c>
+      <c r="BP5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV5" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW5" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="BX5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BY5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ5" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:78" ht="48" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="X6" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE6" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF6" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG6" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH6" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK6" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU6" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW6" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AX6" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AY6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC6" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD6" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BE6" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF6" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG6" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BH6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI6" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BJ6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN6" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO6" s="7">
+        <v>123</v>
+      </c>
+      <c r="BP6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV6" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW6" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="BX6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BY6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ6" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:78" ht="48" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="X7" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE7" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF7" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH7" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK7" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ7" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AV7" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW7" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AX7" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AY7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC7" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD7" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BE7" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF7" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG7" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BH7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI7" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BJ7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO7" s="7">
+        <v>123</v>
+      </c>
+      <c r="BP7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BT7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV7" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW7" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="BX7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BY7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ7" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:78" ht="48" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="X8" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE8" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF8" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG8" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH8" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK8" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU8" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AV8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AW8" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AX8" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AY8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD8" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BE8" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF8" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG8" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BH8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI8" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BJ8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN8" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO8" s="7">
+        <v>123</v>
+      </c>
+      <c r="BP8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BT8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV8" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW8" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="BX8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BY8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ8" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:78" ht="48" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="X9" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE9" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF9" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG9" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH9" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK9" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ9" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU9" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AV9" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AW9" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AX9" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AY9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC9" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD9" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BE9" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF9" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG9" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BH9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI9" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BJ9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK9" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN9" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO9" s="7">
+        <v>123</v>
+      </c>
+      <c r="BP9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS9" s="9">
+        <v>1</v>
+      </c>
+      <c r="BT9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV9" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW9" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="BX9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BY9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ9" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:78" ht="48" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="X10" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE10" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF10" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG10" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH10" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK10" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ10" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU10" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AV10" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AW10" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AX10" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="AY10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC10" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD10" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BE10" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF10" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG10" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BH10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI10" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BJ10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN10" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO10" s="7">
+        <v>123</v>
+      </c>
+      <c r="BP10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS10" s="9">
+        <v>1</v>
+      </c>
+      <c r="BT10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV10" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW10" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="BX10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BY10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ10" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:78" ht="48" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="X11" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE11" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF11" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG11" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH11" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK11" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ11" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU11" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AV11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AW11" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="AX11" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AY11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC11" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD11" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BE11" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF11" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG11" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BH11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI11" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BJ11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN11" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO11" s="7">
+        <v>123</v>
+      </c>
+      <c r="BP11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS11" s="9">
+        <v>1</v>
+      </c>
+      <c r="BT11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV11" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW11" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="BX11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BY11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ11" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD11" xr:uid="{F4BC619C-5D87-46AF-B7A6-FE56A51A3A16}">
+      <formula1>"bom,maa,dxb"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11" xr:uid="{DC934F61-7BC9-4A6D-9819-A7DE4467A0AA}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11" xr:uid="{9C9D9887-6226-40A9-92A1-2B1342493D42}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S11" xr:uid="{C3EDD6BA-A2E2-48E0-BCAF-FE29442C16CB}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q11" xr:uid="{9F26F7AD-AE47-4052-8822-CF33215557B4}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF11" xr:uid="{559FCC2B-A64E-4B3B-B932-AB68A6ADF501}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV11" xr:uid="{172F6863-3BA5-4336-9F0F-434E9BB909D4}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V11" xr:uid="{C36E2CD5-AE21-48AC-8EB4-8C65CFD45174}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AQ11 AT2:AT11 BV2:BV11" xr:uid="{3C5829A9-0341-475F-A8C1-C3587D20265F}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU11" xr:uid="{1F021E5B-6A93-4AFB-8097-2D0F7A7C3017}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP11" xr:uid="{47019E59-DB9E-4D17-B4A4-F270BAB0636B}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R11" xr:uid="{3FCCD5EA-5CEF-48BC-871E-166586F81AA0}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11" xr:uid="{1C971444-34CA-48AC-B1DB-06D0682D7F83}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2:BZ11" xr:uid="{35674E2C-33FD-47F6-A8B4-32C8E5B9FD31}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR11 AI2:AI11 I2:I11" xr:uid="{D759DB2C-E2F7-4F50-BD7C-5D43E1C4C0AD}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U11" xr:uid="{8D417965-B836-4566-B3EB-D1280A0680B9}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AN11" xr:uid="{067899DB-C169-4825-9EAF-0F28447C440E}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS11" xr:uid="{2871ABEC-B71A-4934-9AB8-00B7DC19C01B}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2:BN11" xr:uid="{58520612-365B-4748-A110-DAC422B68062}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y11" xr:uid="{9130604F-601C-4F94-98D8-554F43DFF458}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z11" xr:uid="{903B8FEB-7441-452F-8450-C23F1D35981D}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA11" xr:uid="{86BBF73D-0B11-46F5-80D7-A338C655F081}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB11" xr:uid="{EDD9ECF5-4AD8-471A-AB8F-C56B6CC49A8A}">
+      <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ11 J2:J11" xr:uid="{5D40C6BF-8E4F-4ED2-AC1E-10C783112998}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR11" xr:uid="{24AC63AF-359F-4BA9-970A-86FED973A3EC}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O11 X2:X11" xr:uid="{F40A5D50-85B7-480B-B08E-049D29246692}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W11" xr:uid="{E97B6691-C3B9-4CCC-A9C9-942D9B48DF4B}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11" xr:uid="{85179445-9A9F-483F-ABBE-65B5C9555A21}">
+      <formula1>"//staging117/backoffice/,//preprod.quadlabs.net/backoffice/,//test.quadlabs.net/backoffice/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E11" xr:uid="{59ADF0AE-8B55-4F26-8E44-967836BE177B}">
+      <formula1>"at,QL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{2167013C-33EA-42EC-84FD-E8C7B91C2D52}">
+      <formula1>"Saurav_at,tarun"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G11" xr:uid="{0C48D6CE-672D-4A4E-9863-F9AC7081FE2F}">
+      <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK11" xr:uid="{BD301E43-41D6-4CF2-B10E-BBD797A4FA59}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2:BL11" xr:uid="{B448D861-6F56-4981-80B3-EC2779728102}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX11 AX2:AX9 AW2:AW10" xr:uid="{01E29073-01DB-4A30-AC1E-B7D9E07F56BD}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{70867058-450B-4922-871A-F14C85CDC2DE}">
+      <formula1>"sbt,preprod117,Live"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T11" xr:uid="{700334E1-65E7-481A-8C94-EA932F7B936F}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX10 AW11" xr:uid="{47B10212-9FB0-4182-9ECD-CF1AE2148612}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{4E00FF83-19DB-4C1D-80A7-907939FC779D}"/>
+    <hyperlink ref="G2" r:id="rId2" display="Password@123" xr:uid="{2D0DDB1A-A008-4090-B4F4-9EE06242AEC7}"/>
+    <hyperlink ref="X2" r:id="rId3" display="shubham.natkar@quadlabs.com" xr:uid="{27F74D40-C1C0-41B8-843D-DD4348ABB78E}"/>
+    <hyperlink ref="T2" r:id="rId4" display="Admin@123" xr:uid="{32C14E28-55B3-4F21-86B3-FDF27288E46C}"/>
+    <hyperlink ref="O2" r:id="rId5" display="shubham.natkar@quadlabs.com" xr:uid="{02AEE2E2-8041-4075-BA91-2D188F862A3A}"/>
+    <hyperlink ref="F6" r:id="rId6" display="shubham.natkar@quadlabs.com" xr:uid="{4F95729E-465B-48CD-95A4-D1E57E0F28BF}"/>
+    <hyperlink ref="G6" r:id="rId7" display="Password@123" xr:uid="{9DF5D258-6F56-4A30-AABA-DC331CD330C5}"/>
+    <hyperlink ref="X6" r:id="rId8" display="shubham.natkar@quadlabs.com" xr:uid="{59F35BF4-E9B8-4DE6-856F-CE5F7CCD590B}"/>
+    <hyperlink ref="T6" r:id="rId9" display="Admin@123" xr:uid="{088C9CCC-C21C-47A2-9658-55C59D241687}"/>
+    <hyperlink ref="O6" r:id="rId10" display="shubham.natkar@quadlabs.com" xr:uid="{FAFFCF2A-A579-400B-A47F-E30A13D83F0D}"/>
+    <hyperlink ref="F3" r:id="rId11" display="shubham.natkar@quadlabs.com" xr:uid="{C3B28AA5-45BE-4AD9-BED7-DD8C5845BEE1}"/>
+    <hyperlink ref="G3" r:id="rId12" display="Password@123" xr:uid="{16567431-0E60-492E-9B9F-42AC396AC03E}"/>
+    <hyperlink ref="X3" r:id="rId13" display="shubham.natkar@quadlabs.com" xr:uid="{481C5439-E492-4DC3-A3A9-50E925503371}"/>
+    <hyperlink ref="T3" r:id="rId14" display="Admin@123" xr:uid="{39F16DA1-82D6-4B56-BB02-2974CA76DCC6}"/>
+    <hyperlink ref="O3" r:id="rId15" display="shubham.natkar@quadlabs.com" xr:uid="{DB53A508-0F47-49AA-AFD9-6B4A3A358E24}"/>
+    <hyperlink ref="F4" r:id="rId16" display="shubham.natkar@quadlabs.com" xr:uid="{7A116D29-FBE8-4DD7-8D2D-A6602E103511}"/>
+    <hyperlink ref="G4" r:id="rId17" display="Password@123" xr:uid="{3413D15D-E78F-457D-8181-9C7C7AA235DF}"/>
+    <hyperlink ref="X4" r:id="rId18" display="shubham.natkar@quadlabs.com" xr:uid="{E04BF59C-E349-4CBB-86F9-F6909FA4A108}"/>
+    <hyperlink ref="T4" r:id="rId19" display="Admin@123" xr:uid="{CCC5F27A-63E5-405E-AFDC-A21691F02F1A}"/>
+    <hyperlink ref="O4" r:id="rId20" display="shubham.natkar@quadlabs.com" xr:uid="{C9636408-359E-4F7C-A779-970320DE82C9}"/>
+    <hyperlink ref="F5" r:id="rId21" display="shubham.natkar@quadlabs.com" xr:uid="{80EACBBA-EBE6-493F-B391-5646069502E3}"/>
+    <hyperlink ref="G5" r:id="rId22" display="Password@123" xr:uid="{99C2A911-C4CC-4993-B946-2304152B5511}"/>
+    <hyperlink ref="X5" r:id="rId23" display="shubham.natkar@quadlabs.com" xr:uid="{79AB7D64-8904-41AA-BDE8-1370D2CA5FAE}"/>
+    <hyperlink ref="T5" r:id="rId24" display="Admin@123" xr:uid="{AE0205C0-D377-4E9F-8C1C-8452188C3FE7}"/>
+    <hyperlink ref="O5" r:id="rId25" display="shubham.natkar@quadlabs.com" xr:uid="{93B07BA7-6018-4A4E-8CDD-86F9D3325CF3}"/>
+    <hyperlink ref="F7" r:id="rId26" display="shubham.natkar@quadlabs.com" xr:uid="{604C2541-035A-4B73-9EC1-59DEF7AB012A}"/>
+    <hyperlink ref="G7" r:id="rId27" display="Password@123" xr:uid="{CBFC87A9-C85E-41F2-A546-19474E4F9105}"/>
+    <hyperlink ref="X7" r:id="rId28" display="shubham.natkar@quadlabs.com" xr:uid="{59BBB7EA-FE7E-4040-8E85-E9BE03CEBB14}"/>
+    <hyperlink ref="T7" r:id="rId29" display="Admin@123" xr:uid="{9B465648-360A-4734-B447-E32E412CE0F2}"/>
+    <hyperlink ref="O7" r:id="rId30" display="shubham.natkar@quadlabs.com" xr:uid="{92D5A170-464D-4247-B202-8E076E60DD85}"/>
+    <hyperlink ref="F8" r:id="rId31" display="shubham.natkar@quadlabs.com" xr:uid="{B0EFF170-1627-4F77-B120-E52210E55F4C}"/>
+    <hyperlink ref="G8" r:id="rId32" display="Password@123" xr:uid="{21D923C1-0CF4-4E0F-8B7F-7C7275DDB48E}"/>
+    <hyperlink ref="X8" r:id="rId33" display="shubham.natkar@quadlabs.com" xr:uid="{80548CEE-8D83-4E70-BCB1-322981CAD53D}"/>
+    <hyperlink ref="T8" r:id="rId34" display="Admin@123" xr:uid="{D99D7F29-2156-439B-9CE3-712DC3DAB41B}"/>
+    <hyperlink ref="O8" r:id="rId35" display="shubham.natkar@quadlabs.com" xr:uid="{0A8A7AD7-E605-454F-9D73-6C2385F7F9C3}"/>
+    <hyperlink ref="F9" r:id="rId36" display="shubham.natkar@quadlabs.com" xr:uid="{6E79D6F0-97A2-4D48-A901-087EC14DB8AF}"/>
+    <hyperlink ref="G9" r:id="rId37" display="Password@123" xr:uid="{E93362E1-0112-490B-8A52-5DA00EEF58F6}"/>
+    <hyperlink ref="X9" r:id="rId38" display="shubham.natkar@quadlabs.com" xr:uid="{B60B4C78-7440-444A-90EB-935D807B0171}"/>
+    <hyperlink ref="T9" r:id="rId39" display="Admin@123" xr:uid="{3B74EB93-173C-4815-8BB3-9E8C687356E4}"/>
+    <hyperlink ref="O9" r:id="rId40" display="shubham.natkar@quadlabs.com" xr:uid="{20BE018C-81D3-4B41-A51D-9D260D604EE9}"/>
+    <hyperlink ref="F10" r:id="rId41" display="shubham.natkar@quadlabs.com" xr:uid="{07346194-C7D0-448C-BB49-C733B2676ED1}"/>
+    <hyperlink ref="G10" r:id="rId42" display="Password@123" xr:uid="{A10AF7C1-F970-42E3-915A-5DFDA5B68974}"/>
+    <hyperlink ref="X10" r:id="rId43" display="shubham.natkar@quadlabs.com" xr:uid="{F62272C5-4B2C-4F37-8FE8-0D0EF2F7CB81}"/>
+    <hyperlink ref="T10" r:id="rId44" display="Admin@123" xr:uid="{83EF2E20-05D1-4E53-841D-735CFE0AFCB0}"/>
+    <hyperlink ref="O10" r:id="rId45" display="shubham.natkar@quadlabs.com" xr:uid="{C50D9043-C483-48A5-8FE9-2BE1860DA6BA}"/>
+    <hyperlink ref="F11" r:id="rId46" display="shubham.natkar@quadlabs.com" xr:uid="{77754BE2-9F85-4EE1-9AD5-07BD0851878F}"/>
+    <hyperlink ref="G11" r:id="rId47" display="Password@123" xr:uid="{2EFC5AC9-A53E-4641-BE25-EF9D128812F2}"/>
+    <hyperlink ref="X11" r:id="rId48" display="shubham.natkar@quadlabs.com" xr:uid="{F4A4D7F2-0A2E-40AC-8FD5-7E84C165C962}"/>
+    <hyperlink ref="T11" r:id="rId49" display="Admin@123" xr:uid="{E3EA0529-3EE2-4F37-B239-44AB51AD1440}"/>
+    <hyperlink ref="O11" r:id="rId50" display="shubham.natkar@quadlabs.com" xr:uid="{9F9CF33E-FB6A-42D8-ACF8-22E97ACBAD7F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6E93E2-3E56-4426-83BC-C12DE34BA364}">
+  <dimension ref="A1:BZ2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AW9" sqref="AW9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ1" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="AR1" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AY1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC1" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="BD1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="BE1" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="BF1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="BG1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="BM1" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="BN1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="BP1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="BS1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BV1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="BW1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BY1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ1" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:78" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="11" t="s">
         <v>52</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>44</v>
+        <v>373</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>295</v>
+        <v>374</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>59</v>
@@ -7130,17 +10281,17 @@
       <c r="W2" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="X2" s="35" t="s">
-        <v>417</v>
+      <c r="X2" s="8" t="s">
+        <v>375</v>
       </c>
       <c r="Y2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>412</v>
+        <v>132</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>337</v>
+        <v>137</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>0</v>
@@ -7149,19 +10300,19 @@
         <v>33</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="AE2" s="28" t="s">
-        <v>414</v>
+        <v>347</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="AF2" s="30" t="s">
         <v>246</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>306</v>
+        <v>410</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>69</v>
@@ -7188,7 +10339,7 @@
         <v>4</v>
       </c>
       <c r="AQ2" s="13" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="AR2" s="7" t="s">
         <v>59</v>
@@ -7281,7 +10432,7 @@
         <v>7</v>
       </c>
       <c r="BV2" s="32" t="s">
-        <v>281</v>
+        <v>153</v>
       </c>
       <c r="BW2" s="7" t="s">
         <v>304</v>
@@ -7297,122 +10448,740 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="36">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2" xr:uid="{90D93D37-9C22-4698-841C-FED041DB87F4}">
-      <formula1>"bom,maa,dxb,IST,JFK"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{CC8FB706-3951-4250-A1E3-3F76870C3D4A}">
+  <dataValidations count="35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2" xr:uid="{2BE40198-C83B-4201-B379-28235C4F9109}">
+      <formula1>"bom,maa,dxb,blr"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{E2B37684-F26A-48DA-A960-F307C40776A5}">
       <formula1>"Normal,SSO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{5F72F893-A0D9-49CE-9690-EA3857459A4B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{A907B12D-5569-4F69-AA58-5D315A49B1FB}">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{4BB6D6BE-D014-42D0-8A34-C47166523A09}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{2A577742-FB66-429B-B771-71A17113431A}">
       <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{859917FD-E0A7-4F2C-BD1F-68DA2DAE983E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{BDF2A910-6171-49E7-A131-15A364C68456}">
       <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2" xr:uid="{D219607C-F2C5-4A38-8201-D27FCCCF93DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2" xr:uid="{37C71BB7-34D7-41ED-B61F-C8B30B14AEF2}">
       <formula1>"Business trip  - Without reason"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV2" xr:uid="{A12CD16C-6418-4FCF-BEF4-4418845D1213}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV2" xr:uid="{13ED48B5-3D0B-4BB7-89C4-E566616F74BD}">
       <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{C3905F57-1B7E-4EFA-94DA-7233652F7F8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{AADA2DC8-1D9F-44A0-80CE-FB85814ACFF1}">
       <formula1>"On,Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2 AT2 AQ2" xr:uid="{45F185F8-31EC-46B1-ABEA-7635A86AF516}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2 AT2 AQ2" xr:uid="{E73D0464-7160-4626-BC3A-4C3EFEF8760B}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2" xr:uid="{4211F050-602B-4387-B682-25E54593032C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2" xr:uid="{0C3440D2-24A2-436C-8A1B-958A93A20542}">
       <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2" xr:uid="{4A09CD01-C341-4F4F-80BB-444A72B05334}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2" xr:uid="{0A43083D-0B20-406F-81B2-D0196B047527}">
       <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{191D4A16-78A5-44DA-BA3F-58BF1723743E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{93279BE6-27A0-4963-8165-FDA3FD6D7481}">
       <formula1>"Administrator,Travel Arranger,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{5232188D-F0A8-4076-A51D-966AEDFB2183}">
-      <formula1>"sbt,preprod117"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2" xr:uid="{ADC4A5DE-F1FA-4A98-8EB7-A982B9AAF89E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 C2" xr:uid="{DA6EB559-8626-4012-9CB5-E398DFEFEBAD}">
+      <formula1>"sbt,preprod117,Live"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2" xr:uid="{629311AB-739F-46D7-9C16-9F4614EC9AE3}">
       <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 AI2 BR2" xr:uid="{5FDACED2-9ABD-43D2-9CED-79F874056968}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 AI2 BR2" xr:uid="{1A7ECC06-6B03-4CAE-ADB9-6C60A7DFF2BD}">
       <formula1>"Applied,NotApplied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{D9D47D60-260D-438A-AB1A-E7640E8E4A5E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{92B8A831-6C41-40B6-994F-D5DD2EBAED60}">
       <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AN2" xr:uid="{DC2884CA-7498-46CA-9CFC-A006097F85D9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AN2" xr:uid="{D398A694-8254-4695-9CB1-E1B1B3631DB6}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2" xr:uid="{1B782B1A-99FD-4AF0-BDAB-3075214F0073}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2" xr:uid="{27D66F0E-DDED-4987-81CA-D6A07EE23E38}">
       <formula1>"0,1,2,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2" xr:uid="{E6A79FF1-EAD5-4279-B608-B03A7417761F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2" xr:uid="{F5C178DB-81D0-499F-8202-97D7986980FC}">
       <formula1>"Master Card,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2" xr:uid="{0BFE0387-361E-427C-8B6C-3FF618079EE1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2" xr:uid="{D9B86F1D-C3B1-42A2-9482-45C646F71736}">
       <formula1>"Individual,Guest,Personal,Dependent"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{29043126-83A7-4918-BB54-BF5A2F6FC08C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{E1A5477C-74EC-467F-97E4-27C6C8E1E7D1}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{07E2FA78-B5AD-4996-AD8B-E488D53EBDDF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{8850AE65-2B6A-47B8-AB3A-97072F0D98C3}">
       <formula1>"OneWay,RoundTrip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2" xr:uid="{B864253E-50C3-4EBF-B35F-3CA34D0B4043}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2" xr:uid="{854B5A45-164E-4EB7-915F-9751F226FBCB}">
       <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 AJ2" xr:uid="{0ACB26FA-66BE-4A93-A38A-80A0846BCAB1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 AJ2" xr:uid="{20206F68-0B42-4134-A652-E68B3B40E4B5}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2" xr:uid="{59316F6A-741F-42FE-8C9A-3C183ADEB28B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2" xr:uid="{17E995D8-A8AA-458A-B764-A1C70CC99455}">
       <formula1>"InPolicy,OutPolicy,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{634DF8F1-B130-4428-95AC-9CC9E18FA097}">
-      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{60855C35-0E78-4BB1-9975-BAA2C1FC5735}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{9383E0B9-E769-47A9-88DD-6216BA310880}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{F7E4EA3D-8671-485D-9825-68C20FFF43C4}">
       <formula1>"Old,New"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{DA60ACC0-5F1C-42CE-BBAE-8D9176E2B731}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{B4F07FDE-E9F5-429C-A4A6-1AE02C3BF83A}">
       <formula1>"//staging117/backoffice/,//preprod.quadlabs.net/backoffice/,//test.quadlabs.net/backoffice/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{85D7396F-6DC0-4CA6-800E-6C803F2CC1C5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{FA09E432-16A9-482E-8B28-2365DAE6EBEE}">
       <formula1>"at,QL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{6761D887-2E90-44EA-979F-5ADE262186ED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{C84BBD8F-1638-4C81-85F5-290AC327F938}">
       <formula1>"Saurav_at,tarun"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{DBA551E6-DBEE-421C-A4E1-9E979D097BDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{D22EF185-6C7F-40F8-BAC2-6871A5A38DFF}">
       <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{BBD5C23F-817F-487F-B51E-F17B617C805F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{FF8F1C1C-9E14-4C37-B0D1-E9074AD998C7}">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2" xr:uid="{2324EC73-740B-4CF1-8709-97F369E3BA25}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2" xr:uid="{EE6C6979-5453-4BE5-AE92-A6D0C4896542}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX2" xr:uid="{8B8AEAF0-A3F4-4129-AF02-8FB49E1FA39B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX2" xr:uid="{A0C5A19F-83A4-490D-A5BE-6E888251A217}">
       <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{5FB86278-861C-4B78-8178-3F76A1AD926D}">
-      <formula1>"sbt,preprod117,Live"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{E895117B-1E23-469C-BCD3-A206E37C7DF6}">
-      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{1D0F7F7E-DD0F-448B-9198-49929D85D048}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M,RKVF8Z7T"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{507B0C3A-98E8-43ED-B1EF-2899D7BF9618}"/>
-    <hyperlink ref="G2" r:id="rId2" display="Password@123" xr:uid="{886A0FA7-BB3F-46E7-A9B9-3B8C1CD6877E}"/>
-    <hyperlink ref="X2" r:id="rId3" display="shubham.natkar@quadlabs.com" xr:uid="{5F68D4CD-1312-434D-AE49-F1844CE02EB2}"/>
-    <hyperlink ref="T2" r:id="rId4" display="Admin@123" xr:uid="{2378CC3D-FD6B-43B1-A253-5A5B5BB517F8}"/>
-    <hyperlink ref="O2" r:id="rId5" xr:uid="{3535D123-5873-4A23-9A27-C7AD9EA638D9}"/>
+    <hyperlink ref="F2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{8F4D5C31-678D-4CAF-A051-2FCCBC766A2A}"/>
+    <hyperlink ref="G2" r:id="rId2" display="Password@123" xr:uid="{B5C91541-8B4A-4B42-8C59-BEA05DBA6592}"/>
+    <hyperlink ref="O2" r:id="rId3" xr:uid="{D2332884-B373-4ADB-AD8E-6499BA321A10}"/>
+    <hyperlink ref="T2" r:id="rId4" display="Admin@123" xr:uid="{816A653B-DFC5-4BC6-AEAF-A1C1ADB638D2}"/>
+    <hyperlink ref="X2" r:id="rId5" display="prince.chaurasia@quadlabs.com" xr:uid="{72C4C9EA-A5C3-48C9-B2E0-6F35807EE442}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B8F8D0-D766-4C64-AE8A-3BA802829F0D}">
+  <dimension ref="A1:BT2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BL26" sqref="BL26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="91.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW1" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="AX1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="AY1" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="BA1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="BG1" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="BH1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="BJ1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BP1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="BQ1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="BR1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BS1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT1" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y2" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AR2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX2" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY2" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ2" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC2" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI2" s="7">
+        <v>123</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP2" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BQ2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT2" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{CC8FB706-3951-4250-A1E3-3F76870C3D4A}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{5F72F893-A0D9-49CE-9690-EA3857459A4B}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{4BB6D6BE-D014-42D0-8A34-C47166523A09}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 BT2" xr:uid="{859917FD-E0A7-4F2C-BD1F-68DA2DAE983E}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{D219607C-F2C5-4A38-8201-D27FCCCF93DB}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AP2" xr:uid="{A12CD16C-6418-4FCF-BEF4-4418845D1213}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{C3905F57-1B7E-4EFA-94DA-7233652F7F8E}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2 AN2 AK2" xr:uid="{45F185F8-31EC-46B1-ABEA-7635A86AF516}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2" xr:uid="{4211F050-602B-4387-B682-25E54593032C}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2" xr:uid="{4A09CD01-C341-4F4F-80BB-444A72B05334}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{191D4A16-78A5-44DA-BA3F-58BF1723743E}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{5232188D-F0A8-4076-A51D-966AEDFB2183}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 AC2 BL2" xr:uid="{5FDACED2-9ABD-43D2-9CED-79F874056968}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{D9D47D60-260D-438A-AB1A-E7640E8E4A5E}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH2" xr:uid="{DC2884CA-7498-46CA-9CFC-A006097F85D9}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2" xr:uid="{1B782B1A-99FD-4AF0-BDAB-3075214F0073}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2" xr:uid="{E6A79FF1-EAD5-4279-B608-B03A7417761F}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{0BFE0387-361E-427C-8B6C-3FF618079EE1}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{29043126-83A7-4918-BB54-BF5A2F6FC08C}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{07E2FA78-B5AD-4996-AD8B-E488D53EBDDF}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2" xr:uid="{B864253E-50C3-4EBF-B35F-3CA34D0B4043}">
+      <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 AD2" xr:uid="{0ACB26FA-66BE-4A93-A38A-80A0846BCAB1}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2" xr:uid="{59316F6A-741F-42FE-8C9A-3C183ADEB28B}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{634DF8F1-B130-4428-95AC-9CC9E18FA097}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,ajit.kumar@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{60855C35-0E78-4BB1-9975-BAA2C1FC5735}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2" xr:uid="{BBD5C23F-817F-487F-B51E-F17B617C805F}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2" xr:uid="{2324EC73-740B-4CF1-8709-97F369E3BA25}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{E895117B-1E23-469C-BCD3-A206E37C7DF6}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{D82F6378-01F3-48A0-8F97-39C3652C48E5}">
+      <formula1>"bom,maa,dxb"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR2" xr:uid="{F8E1F147-C757-4339-A5FE-C676D8DD80D4}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{5F68D4CD-1312-434D-AE49-F1844CE02EB2}"/>
+    <hyperlink ref="N2" r:id="rId2" display="Admin@123" xr:uid="{2378CC3D-FD6B-43B1-A253-5A5B5BB517F8}"/>
+    <hyperlink ref="I2" r:id="rId3" xr:uid="{3535D123-5873-4A23-9A27-C7AD9EA638D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7422,8 +11191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98DCEC8-5D14-41F2-ACA0-1145C7751169}">
   <dimension ref="A1:BN5"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:W2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17578,8 +21347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873E93BB-9FC7-4764-85A0-340252AC8F16}">
   <dimension ref="A1:BV13"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BA2" sqref="BA2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20731,8 +24500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD70ED0-56F2-49A8-B40D-0BFBB88B8CE2}">
   <dimension ref="A1:BV2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AZ11" sqref="AZ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21383,8 +25152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4687B7CB-B79C-4A10-A96F-CB8129CC90D6}">
   <dimension ref="A1:BV5"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5:Z5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21750,7 +25519,7 @@
       <c r="T2" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="35" t="s">
         <v>55</v>
       </c>
       <c r="V2" s="7" t="s">
@@ -22700,7 +26469,7 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{C303F1E4-BBD8-43CA-BE8D-FD1C9A6866FA}"/>
     <hyperlink ref="G2" r:id="rId2" display="Password@123" xr:uid="{80BF7528-DFDE-4E1C-9A66-6B9D423290FE}"/>
-    <hyperlink ref="U2" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{082AD512-7AB8-419C-85C3-BFF7C83F4443}"/>
+    <hyperlink ref="U2" r:id="rId3" xr:uid="{082AD512-7AB8-419C-85C3-BFF7C83F4443}"/>
     <hyperlink ref="Q2" r:id="rId4" display="Admin@123" xr:uid="{89308F22-5EBE-46D9-8126-8D8AD88AFD3A}"/>
     <hyperlink ref="F4" r:id="rId5" display="shubham.natkar@quadlabs.com" xr:uid="{EE5FC487-FED3-469B-8E54-06BBE480F3BD}"/>
     <hyperlink ref="G4" r:id="rId6" display="Password@123" xr:uid="{9DB88266-9568-48AC-8CEF-17056DD5EF6D}"/>

--- a/data/excel/FlightBooking.xlsx
+++ b/data/excel/FlightBooking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\QuadlabsCoreProject\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C328A4F-FDC9-4C9C-8C19-8923223BD68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C606CFC1-0A01-48C1-93B6-6C7091351D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5898" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6072" uniqueCount="442">
   <si>
     <t>del</t>
   </si>
@@ -1352,10 +1352,28 @@
     <t>Verify as a travel arranger, Flight domestic booking flow with Akasa Air (One way - Individual) for 0 stop</t>
   </si>
   <si>
-    <t>ajit.kumar@quadlabs.com</t>
-  </si>
-  <si>
-    <t>17-May-2024</t>
+    <t>shekhar.singh@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Dubai,United Arab Emirates - Dubai (DXB)</t>
+  </si>
+  <si>
+    <t>dxb</t>
+  </si>
+  <si>
+    <t>19-Apr-2024</t>
+  </si>
+  <si>
+    <t>10-Apr-2024</t>
+  </si>
+  <si>
+    <t>22-Apr-2024</t>
+  </si>
+  <si>
+    <t>26-Apr-2024</t>
+  </si>
+  <si>
+    <t>International</t>
   </si>
 </sst>
 </file>
@@ -7034,8 +7052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001DE8A5-962C-4F61-8971-2FADC052C517}">
   <dimension ref="A1:BZ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BL13" sqref="BL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9890,7 +9908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6E93E2-3E56-4426-83BC-C12DE34BA364}">
   <dimension ref="A1:BZ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="AW9" sqref="AW9"/>
     </sheetView>
   </sheetViews>
@@ -10568,10 +10586,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B8F8D0-D766-4C64-AE8A-3BA802829F0D}">
-  <dimension ref="A1:BT2"/>
+  <dimension ref="A1:BT5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BL26" sqref="BL26"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AO16" sqref="AO16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10599,7 +10617,7 @@
     <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="91.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -10893,7 +10911,7 @@
         <v>403</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>343</v>
+        <v>434</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>408</v>
@@ -10947,7 +10965,7 @@
         <v>246</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AB2" s="12" t="s">
         <v>306</v>
@@ -10989,10 +11007,10 @@
         <v>153</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>353</v>
+        <v>139</v>
       </c>
       <c r="AP2" s="7" t="s">
-        <v>353</v>
+        <v>139</v>
       </c>
       <c r="AQ2" s="13" t="s">
         <v>292</v>
@@ -11070,7 +11088,7 @@
         <v>7</v>
       </c>
       <c r="BP2" s="32" t="s">
-        <v>281</v>
+        <v>153</v>
       </c>
       <c r="BQ2" s="7" t="s">
         <v>304</v>
@@ -11085,105 +11103,767 @@
         <v>432</v>
       </c>
     </row>
+    <row r="3" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y3" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ3" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AR3" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX3" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY3" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ3" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA3" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC3" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI3" s="7">
+        <v>123</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM3" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP3" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BQ3" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT3" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y4" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z4" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AP4" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ4" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR4" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX4" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY4" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ4" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA4" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BB4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC4" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BD4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI4" s="7">
+        <v>123</v>
+      </c>
+      <c r="BJ4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BK4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP4" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BQ4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT4" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y5" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AP5" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ5" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR5" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AS5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW5" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX5" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY5" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ5" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA5" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BB5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC5" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BD5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI5" s="7">
+        <v>123</v>
+      </c>
+      <c r="BJ5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BK5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP5" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BQ5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT5" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="30">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{CC8FB706-3951-4250-A1E3-3F76870C3D4A}">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5" xr:uid="{CC8FB706-3951-4250-A1E3-3F76870C3D4A}">
       <formula1>"Normal,SSO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{5F72F893-A0D9-49CE-9690-EA3857459A4B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5" xr:uid="{5F72F893-A0D9-49CE-9690-EA3857459A4B}">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{4BB6D6BE-D014-42D0-8A34-C47166523A09}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M5" xr:uid="{4BB6D6BE-D014-42D0-8A34-C47166523A09}">
       <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 BT2" xr:uid="{859917FD-E0A7-4F2C-BD1F-68DA2DAE983E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K5 BT2:BT5" xr:uid="{859917FD-E0A7-4F2C-BD1F-68DA2DAE983E}">
       <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{D219607C-F2C5-4A38-8201-D27FCCCF93DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z5" xr:uid="{D219607C-F2C5-4A38-8201-D27FCCCF93DB}">
       <formula1>"Business trip  - Without reason"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AP2" xr:uid="{A12CD16C-6418-4FCF-BEF4-4418845D1213}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AP5" xr:uid="{A12CD16C-6418-4FCF-BEF4-4418845D1213}">
       <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{C3905F57-1B7E-4EFA-94DA-7233652F7F8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5" xr:uid="{C3905F57-1B7E-4EFA-94DA-7233652F7F8E}">
       <formula1>"On,Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2 AN2 AK2" xr:uid="{45F185F8-31EC-46B1-ABEA-7635A86AF516}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP5 AN2:AN5 AK2:AK5" xr:uid="{45F185F8-31EC-46B1-ABEA-7635A86AF516}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2" xr:uid="{4211F050-602B-4387-B682-25E54593032C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO5" xr:uid="{4211F050-602B-4387-B682-25E54593032C}">
       <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2" xr:uid="{4A09CD01-C341-4F4F-80BB-444A72B05334}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ5" xr:uid="{4A09CD01-C341-4F4F-80BB-444A72B05334}">
       <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{191D4A16-78A5-44DA-BA3F-58BF1723743E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L5" xr:uid="{191D4A16-78A5-44DA-BA3F-58BF1723743E}">
       <formula1>"Administrator,Travel Arranger,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{5232188D-F0A8-4076-A51D-966AEDFB2183}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{5232188D-F0A8-4076-A51D-966AEDFB2183}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 AC2 BL2" xr:uid="{5FDACED2-9ABD-43D2-9CED-79F874056968}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 AC2:AC5 BL2:BL5" xr:uid="{5FDACED2-9ABD-43D2-9CED-79F874056968}">
       <formula1>"Applied,NotApplied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{D9D47D60-260D-438A-AB1A-E7640E8E4A5E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O5" xr:uid="{D9D47D60-260D-438A-AB1A-E7640E8E4A5E}">
       <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH2" xr:uid="{DC2884CA-7498-46CA-9CFC-A006097F85D9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH5" xr:uid="{DC2884CA-7498-46CA-9CFC-A006097F85D9}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2" xr:uid="{1B782B1A-99FD-4AF0-BDAB-3075214F0073}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM5" xr:uid="{1B782B1A-99FD-4AF0-BDAB-3075214F0073}">
       <formula1>"0,1,2,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2" xr:uid="{E6A79FF1-EAD5-4279-B608-B03A7417761F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BH5" xr:uid="{E6A79FF1-EAD5-4279-B608-B03A7417761F}">
       <formula1>"Master Card,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{0BFE0387-361E-427C-8B6C-3FF618079EE1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S5" xr:uid="{0BFE0387-361E-427C-8B6C-3FF618079EE1}">
       <formula1>"Individual,Guest,Personal,Dependent"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{29043126-83A7-4918-BB54-BF5A2F6FC08C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T5" xr:uid="{29043126-83A7-4918-BB54-BF5A2F6FC08C}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{07E2FA78-B5AD-4996-AD8B-E488D53EBDDF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U5" xr:uid="{07E2FA78-B5AD-4996-AD8B-E488D53EBDDF}">
       <formula1>"OneWay,RoundTrip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2" xr:uid="{B864253E-50C3-4EBF-B35F-3CA34D0B4043}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV5" xr:uid="{B864253E-50C3-4EBF-B35F-3CA34D0B4043}">
       <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 AD2" xr:uid="{0ACB26FA-66BE-4A93-A38A-80A0846BCAB1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 AD2:AD5" xr:uid="{0ACB26FA-66BE-4A93-A38A-80A0846BCAB1}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2" xr:uid="{59316F6A-741F-42FE-8C9A-3C183ADEB28B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL5" xr:uid="{59316F6A-741F-42FE-8C9A-3C183ADEB28B}">
       <formula1>"InPolicy,OutPolicy,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{634DF8F1-B130-4428-95AC-9CC9E18FA097}">
-      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,ajit.kumar@quadlabs.com"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{60855C35-0E78-4BB1-9975-BAA2C1FC5735}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5" xr:uid="{60855C35-0E78-4BB1-9975-BAA2C1FC5735}">
       <formula1>"Old,New"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2" xr:uid="{BBD5C23F-817F-487F-B51E-F17B617C805F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2:BE5" xr:uid="{BBD5C23F-817F-487F-B51E-F17B617C805F}">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2" xr:uid="{2324EC73-740B-4CF1-8709-97F369E3BA25}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BF5" xr:uid="{2324EC73-740B-4CF1-8709-97F369E3BA25}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{E895117B-1E23-469C-BCD3-A206E37C7DF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5" xr:uid="{E895117B-1E23-469C-BCD3-A206E37C7DF6}">
       <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{D82F6378-01F3-48A0-8F97-39C3652C48E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X5" xr:uid="{D82F6378-01F3-48A0-8F97-39C3652C48E5}">
       <formula1>"bom,maa,dxb"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR2" xr:uid="{F8E1F147-C757-4339-A5FE-C676D8DD80D4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR5" xr:uid="{F8E1F147-C757-4339-A5FE-C676D8DD80D4}">
       <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" xr:uid="{5F68D4CD-1312-434D-AE49-F1844CE02EB2}"/>
-    <hyperlink ref="N2" r:id="rId2" display="Admin@123" xr:uid="{2378CC3D-FD6B-43B1-A253-5A5B5BB517F8}"/>
-    <hyperlink ref="I2" r:id="rId3" xr:uid="{3535D123-5873-4A23-9A27-C7AD9EA638D9}"/>
+    <hyperlink ref="N2" r:id="rId1" display="Admin@123" xr:uid="{2378CC3D-FD6B-43B1-A253-5A5B5BB517F8}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{6BF446F1-FC12-47C7-93ED-0C599D1AE0EC}"/>
+    <hyperlink ref="R2" r:id="rId3" xr:uid="{E1F163D7-C3BC-4306-B496-66D1982436AE}"/>
+    <hyperlink ref="N3" r:id="rId4" display="Admin@123" xr:uid="{1E483B72-3BBD-4F3B-BAEE-F708B3541FAE}"/>
+    <hyperlink ref="I3" r:id="rId5" xr:uid="{EE79FE8F-6FC6-49D6-8398-3A8A94BEB662}"/>
+    <hyperlink ref="R3" r:id="rId6" xr:uid="{D6F47941-2A0A-4C81-B99C-9FD1F0E05366}"/>
+    <hyperlink ref="N4" r:id="rId7" display="Admin@123" xr:uid="{BF328D97-9909-4656-8B6F-607D5BFCD8CD}"/>
+    <hyperlink ref="I4" r:id="rId8" xr:uid="{C9F82642-AAD7-460A-AC39-16D7FB5901E4}"/>
+    <hyperlink ref="R4" r:id="rId9" xr:uid="{5F9E6038-683A-4C7F-A07F-C0AF456D2CE4}"/>
+    <hyperlink ref="N5" r:id="rId10" display="Admin@123" xr:uid="{DAE360C8-E4C7-4A58-9B1B-857485904973}"/>
+    <hyperlink ref="I5" r:id="rId11" xr:uid="{256143C5-6744-450A-8CA7-33404308345C}"/>
+    <hyperlink ref="R5" r:id="rId12" xr:uid="{9DDA8946-1E6F-42E3-B68A-2C4F0F729F27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/data/excel/FlightBooking.xlsx
+++ b/data/excel/FlightBooking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\QuadlabsCoreProject\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankur.Yadav\git\ProjectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C606CFC1-0A01-48C1-93B6-6C7091351D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA35AD9-8FFD-4E76-917A-62953752DD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet14" sheetId="72" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Sheet12" sheetId="87" r:id="rId11"/>
     <sheet name="Sheet10" sheetId="85" r:id="rId12"/>
     <sheet name="Sheet9" sheetId="84" r:id="rId13"/>
+    <sheet name="NonBranding" sheetId="88" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6072" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6434" uniqueCount="465">
   <si>
     <t>del</t>
   </si>
@@ -1374,6 +1375,75 @@
   </si>
   <si>
     <t>International</t>
+  </si>
+  <si>
+    <t>Laxmi.khanal@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Laxmi Khanal</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>19-Jun-2024</t>
+  </si>
+  <si>
+    <t>26-Jun-2024</t>
+  </si>
+  <si>
+    <t>20-Jun-2024</t>
+  </si>
+  <si>
+    <t>24-Jun-2024</t>
+  </si>
+  <si>
+    <t>Bom</t>
+  </si>
+  <si>
+    <t>Maa</t>
+  </si>
+  <si>
+    <t>Chennai,India - Chennai (MAA)</t>
+  </si>
+  <si>
+    <t>Dxb</t>
+  </si>
+  <si>
+    <t>Flight Book</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-Domestic(One Way).</t>
+  </si>
+  <si>
+    <t>Verify Booking flow- Domestic(Round Trip).</t>
+  </si>
+  <si>
+    <t>Verify Booking flow -International(Round Trip).</t>
+  </si>
+  <si>
+    <t>Verify Booking flow -International(One Way).</t>
+  </si>
+  <si>
+    <t>27-Jun-2024</t>
+  </si>
+  <si>
+    <t>28-Jun-2024</t>
+  </si>
+  <si>
+    <t>21-Jun-2024</t>
+  </si>
+  <si>
+    <t>sahilyadavmp@gmail.com</t>
+  </si>
+  <si>
+    <t>30-May-2024</t>
+  </si>
+  <si>
+    <t>Verify Booking flow- Domestic(One Way).</t>
   </si>
 </sst>
 </file>
@@ -7052,8 +7122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001DE8A5-962C-4F61-8971-2FADC052C517}">
   <dimension ref="A1:BZ11"/>
   <sheetViews>
-    <sheetView topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BL13" sqref="BL13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BD14" sqref="BD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10588,8 +10658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B8F8D0-D766-4C64-AE8A-3BA802829F0D}">
   <dimension ref="A1:BT5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AO16" sqref="AO16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11864,6 +11934,1506 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6E09BA-4003-477F-B051-06755DCDEEA1}">
+  <dimension ref="A1:BT6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="41.5703125" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW1" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="AX1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="AY1" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="BA1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="BG1" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="BH1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="BJ1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BP1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="BQ1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="BR1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BS1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT1" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ2" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR2" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX2" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY2" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ2" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC2" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI2" s="7">
+        <v>123</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP2" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BQ2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT2" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ3" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AR3" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX3" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY3" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ3" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA3" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC3" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI3" s="7">
+        <v>123</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM3" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP3" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BQ3" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT3" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z4" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AP4" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AQ4" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR4" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX4" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY4" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ4" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA4" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BB4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC4" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BD4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI4" s="7">
+        <v>123</v>
+      </c>
+      <c r="BJ4" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="BK4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP4" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BQ4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT4" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AP5" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ5" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR5" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AS5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW5" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX5" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY5" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ5" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA5" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BB5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC5" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BD5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI5" s="7">
+        <v>123</v>
+      </c>
+      <c r="BJ5" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="BK5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP5" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BQ5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT5" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z6" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ6" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR6" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AS6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW6" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX6" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY6" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ6" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA6" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BB6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC6" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BD6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH6" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI6" s="7">
+        <v>123</v>
+      </c>
+      <c r="BJ6" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="BK6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP6" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BQ6" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT6" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR6" xr:uid="{33417A82-D937-4DEC-8115-9D461E0D8975}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N6" xr:uid="{D81EECBE-9616-48FA-8A20-95F4C255FDAA}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BF6" xr:uid="{33961D5B-1944-4726-A2BD-9F55E782F677}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2:BE6" xr:uid="{82289D07-BB0D-4C86-A972-703B2B870811}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6" xr:uid="{FAD00B68-09C9-4A1C-93B5-3A1D5942A8C3}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL6" xr:uid="{F13B273E-2D5D-44D1-BCE7-20369CAF2A24}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD6 D2:D6" xr:uid="{CBE4FA26-74D4-406B-91C5-8265F02B1C12}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV6" xr:uid="{577BEA08-29B4-466A-9D55-25B3A2F8A11F}">
+      <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U6" xr:uid="{D4E18E7F-EBFA-4D0A-A418-1D95B0BD085D}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T6" xr:uid="{33F5073D-AC21-4EDD-9A82-6E340638EBD2}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S6" xr:uid="{6BDAF865-A4BF-424A-BD75-76F43259B963}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BH6" xr:uid="{AFAD17C9-5593-46C0-963B-FD6D8E94BDF5}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM6" xr:uid="{877B368B-E010-4883-B084-91C8435EE4EC}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH6" xr:uid="{7F1894F1-0BC2-4AF9-AB19-994018F0816E}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O6" xr:uid="{237770D3-9DBE-4447-B7FE-2F3C51438410}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC6 BL2:BL6 C2:C6" xr:uid="{FAB30272-3643-4C04-A8BF-F290CB243A61}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{C65C8EB2-5019-4EEB-918F-100004DCE162}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6" xr:uid="{2E32D78D-F8A1-4896-9234-9F4B2C5D3916}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ6" xr:uid="{4B53715C-6EAE-45D3-BBF0-50982E4CEB02}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO6" xr:uid="{156D3D02-F4B6-45E0-9E3A-A4FFFD5E98B8}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2:AN6 AK2:AK6 BP2:BP6" xr:uid="{B33CB899-0910-4E6C-9CC1-28B70BD98068}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P6" xr:uid="{5FD96D3B-76A0-4325-B3FF-D89357CD46A9}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AP6" xr:uid="{F04EDE45-318D-4C50-9BC7-6B35E271361E}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z6" xr:uid="{88E73A96-3401-4781-9273-2E6526983EEC}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT6 K2:K6" xr:uid="{40280DEE-5536-42DD-A0D4-E7C475CEAEF5}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{65F966E8-EE1B-4209-AC90-B4D5F5FA2BA1}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6" xr:uid="{7C84EE14-DB71-4A4C-B02B-027AB41CDC65}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{D8B53733-5F3D-494D-9C36-4E51FCF9CCC4}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{E503AF17-B10C-444C-9CA1-B0532359EC07}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R6" xr:uid="{5120336C-3D8D-4223-8E07-CCD9AA8835A2}">
+      <formula1>"prince.chaurasia@quadlabs.com,ayushi.shivhare@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,sahilyadavmp@gmail.com"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N3" r:id="rId1" display="Admin@123" xr:uid="{309E571D-4B7A-442D-87F8-E3F87AE33AF0}"/>
+    <hyperlink ref="N4" r:id="rId2" display="Admin@123" xr:uid="{746EA51C-F926-4B45-8604-B3E34AAE7EFA}"/>
+    <hyperlink ref="N5" r:id="rId3" display="Admin@123" xr:uid="{0B5425A4-3BCE-4160-ABAB-DA43F60D5815}"/>
+    <hyperlink ref="N6" r:id="rId4" display="Admin@123" xr:uid="{89E5240B-B164-420B-A771-0C19DDB4A6E6}"/>
+    <hyperlink ref="I3:I6" r:id="rId5" display="shekhar.singh@quadlabs.com" xr:uid="{0EC7BE12-6125-4BDE-BB68-A01867B50EA9}"/>
+    <hyperlink ref="N2" r:id="rId6" display="Admin@123" xr:uid="{BEE11FC9-4CB6-455D-8401-4EAEF31974DC}"/>
+    <hyperlink ref="I2" r:id="rId7" display="shekhar.singh@quadlabs.com" xr:uid="{85CB0260-A24B-44E9-B934-707EBFD93D31}"/>
+    <hyperlink ref="R2" r:id="rId8" display="ajit.kumar@quadlabs.com" xr:uid="{D73BCC51-6C76-472B-B0AF-52AB1337026B}"/>
+    <hyperlink ref="R3:R6" r:id="rId9" display="ajit.kumar@quadlabs.com" xr:uid="{B665CA98-0DA8-4203-9BC6-F2A7D3298B21}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/data/excel/FlightBooking.xlsx
+++ b/data/excel/FlightBooking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankur.Yadav\git\ProjectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA35AD9-8FFD-4E76-917A-62953752DD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6C0EF9-62B9-4D4B-8A5D-6EFE8514AD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="12600" yWindow="4335" windowWidth="16200" windowHeight="11415" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet14" sheetId="72" r:id="rId1"/>
@@ -26,7 +26,12 @@
     <sheet name="Sheet12" sheetId="87" r:id="rId11"/>
     <sheet name="Sheet10" sheetId="85" r:id="rId12"/>
     <sheet name="Sheet9" sheetId="84" r:id="rId13"/>
-    <sheet name="NonBranding" sheetId="88" r:id="rId14"/>
+    <sheet name="Livenonbranding" sheetId="89" r:id="rId14"/>
+    <sheet name="TestLCC+Gds" sheetId="90" r:id="rId15"/>
+    <sheet name="Filtersheet" sheetId="91" r:id="rId16"/>
+    <sheet name="Branding" sheetId="92" r:id="rId17"/>
+    <sheet name="NonBranding" sheetId="96" r:id="rId18"/>
+    <sheet name="Sheet17" sheetId="95" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6434" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8307" uniqueCount="520">
   <si>
     <t>del</t>
   </si>
@@ -1395,55 +1400,220 @@
     <t>26-Jun-2024</t>
   </si>
   <si>
-    <t>20-Jun-2024</t>
-  </si>
-  <si>
-    <t>24-Jun-2024</t>
-  </si>
-  <si>
     <t>Bom</t>
   </si>
   <si>
     <t>Maa</t>
   </si>
   <si>
+    <t>Dxb</t>
+  </si>
+  <si>
+    <t>Flight Book</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-Domestic(One Way).</t>
+  </si>
+  <si>
+    <t>Verify Booking flow- Domestic(Round Trip).</t>
+  </si>
+  <si>
+    <t>Verify Booking flow -International(Round Trip).</t>
+  </si>
+  <si>
+    <t>Verify Booking flow -International(One Way).</t>
+  </si>
+  <si>
+    <t>28-Jun-2024</t>
+  </si>
+  <si>
+    <t>30-May-2024</t>
+  </si>
+  <si>
+    <t>Verify Booking flow- Domestic(One Way).</t>
+  </si>
+  <si>
+    <t>laxmi.khanal@quadlabs.com</t>
+  </si>
+  <si>
+    <t>27-May-2024</t>
+  </si>
+  <si>
+    <t>29-May-2024</t>
+  </si>
+  <si>
+    <t>28-May-2024</t>
+  </si>
+  <si>
+    <t>23-May-2024</t>
+  </si>
+  <si>
+    <t>Laxmi</t>
+  </si>
+  <si>
+    <t>DWUFR8WRAR6SL1M</t>
+  </si>
+  <si>
+    <t>Chennai,India - Chennai International Airport (MAA)</t>
+  </si>
+  <si>
+    <t>Blr</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-Domestic(One Way) With seat map.</t>
+  </si>
+  <si>
+    <t>Verify Booking flow- Domestic(Round Trip) With seat map.</t>
+  </si>
+  <si>
+    <t>Verify Booking flow -International(Round Trip)</t>
+  </si>
+  <si>
+    <t>Verify Booking flow- Domestic(One Way) With seat map.</t>
+  </si>
+  <si>
+    <t>Verify Booking flow -International(One Way) with Seat Map</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-Domestic(Round Trip).</t>
+  </si>
+  <si>
+    <t>Qatar Airways</t>
+  </si>
+  <si>
+    <t>Emirates</t>
+  </si>
+  <si>
+    <t>24-May-2024</t>
+  </si>
+  <si>
+    <t>FilterType</t>
+  </si>
+  <si>
+    <t>ChooseTimingFilter</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-Domestic(One Way) with Duration Filter.</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-Domestic(Round Trip) with Duration Filter.</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-International(One Way) with Duration Filter.</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-International(Round Trip) with Duration Filter.</t>
+  </si>
+  <si>
+    <t>Del</t>
+  </si>
+  <si>
     <t>Chennai,India - Chennai (MAA)</t>
   </si>
   <si>
-    <t>Dxb</t>
-  </si>
-  <si>
-    <t>Flight Book</t>
-  </si>
-  <si>
-    <t>Verify Booking flow-Domestic(One Way).</t>
-  </si>
-  <si>
-    <t>Verify Booking flow- Domestic(Round Trip).</t>
-  </si>
-  <si>
-    <t>Verify Booking flow -International(Round Trip).</t>
-  </si>
-  <si>
-    <t>Verify Booking flow -International(One Way).</t>
-  </si>
-  <si>
-    <t>27-Jun-2024</t>
-  </si>
-  <si>
-    <t>28-Jun-2024</t>
-  </si>
-  <si>
-    <t>21-Jun-2024</t>
-  </si>
-  <si>
-    <t>sahilyadavmp@gmail.com</t>
-  </si>
-  <si>
-    <t>30-May-2024</t>
-  </si>
-  <si>
-    <t>Verify Booking flow- Domestic(One Way).</t>
+    <t>18-Jun-2024</t>
+  </si>
+  <si>
+    <t>10-Jun-2024</t>
+  </si>
+  <si>
+    <t>25-Jun-2024</t>
+  </si>
+  <si>
+    <t>ayushi.shivhare@quadlabs.com</t>
+  </si>
+  <si>
+    <t>6-Jun-2024</t>
+  </si>
+  <si>
+    <t>1-Jul-2024</t>
+  </si>
+  <si>
+    <t>2-Jul-2024</t>
+  </si>
+  <si>
+    <t>3-Jul-2024</t>
+  </si>
+  <si>
+    <t>4-Jul-2024</t>
+  </si>
+  <si>
+    <t>5-Jul-2024</t>
+  </si>
+  <si>
+    <t>11-Jun-2024</t>
+  </si>
+  <si>
+    <t>AirlineType</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>LCC+GDS</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-Domestic(One Way) with LCC.</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-Domestic(Round Trip) with LCC+GDS.</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-International(One Way) With LCC.</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-International(Round Trip) With GDS.</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-Domestic(Round Trip) with GDS.</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-Domestic(One Way) with GDS.</t>
+  </si>
+  <si>
+    <t>15-Jul-2024</t>
+  </si>
+  <si>
+    <t>16-Jul-2024</t>
+  </si>
+  <si>
+    <t>17-Jul-2024</t>
+  </si>
+  <si>
+    <t>18-Jul-2024</t>
+  </si>
+  <si>
+    <t>19-Jul-2024</t>
+  </si>
+  <si>
+    <t>22-Jul-2024</t>
+  </si>
+  <si>
+    <t>23-Jul-2024</t>
+  </si>
+  <si>
+    <t>24-Jul-2024</t>
+  </si>
+  <si>
+    <t>25-Jul-2024</t>
+  </si>
+  <si>
+    <t>26-Jul-2024</t>
+  </si>
+  <si>
+    <t>11-Jul-2024</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-Domestic(Round Trip) with LCC.</t>
+  </si>
+  <si>
+    <t>12-Jul-2024</t>
+  </si>
+  <si>
+    <t>piyush.chauhan@quadlabs.com</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1658,6 +1828,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9978,8 +10151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6E93E2-3E56-4426-83BC-C12DE34BA364}">
   <dimension ref="A1:BZ2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AW9" sqref="AW9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10659,7 +10832,7 @@
   <dimension ref="A1:BT5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11938,16 +12111,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6E09BA-4003-477F-B051-06755DCDEEA1}">
-  <dimension ref="A1:BT6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0334E2-987E-408A-87DF-E6B8195635F8}">
+  <dimension ref="A1:BT11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="96.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -11956,10 +12129,10 @@
     <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -11968,9 +12141,9 @@
     <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.5703125" customWidth="1"/>
     <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="58.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="41.5703125" customWidth="1"/>
+    <col min="25" max="25" width="53.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -12020,7 +12193,7 @@
     <col min="72" max="72" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>35</v>
       </c>
@@ -12243,7 +12416,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>56</v>
@@ -12258,10 +12431,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>442</v>
@@ -12270,16 +12443,16 @@
         <v>408</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>52</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>44</v>
+        <v>464</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>295</v>
+        <v>465</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>59</v>
@@ -12291,7 +12464,7 @@
         <v>445</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>32</v>
@@ -12303,10 +12476,10 @@
         <v>337</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>141</v>
+        <v>394</v>
       </c>
       <c r="X2" s="7" t="s">
         <v>0</v>
@@ -12318,7 +12491,7 @@
         <v>246</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="AB2" s="12" t="s">
         <v>447</v>
@@ -12360,10 +12533,10 @@
         <v>153</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>139</v>
+        <v>353</v>
       </c>
       <c r="AP2" s="7" t="s">
-        <v>139</v>
+        <v>353</v>
       </c>
       <c r="AQ2" s="13" t="s">
         <v>349</v>
@@ -12423,7 +12596,7 @@
         <v>123</v>
       </c>
       <c r="BJ2" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="BK2" s="7" t="s">
         <v>34</v>
@@ -12461,7 +12634,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>56</v>
@@ -12476,10 +12649,10 @@
         <v>3</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="I3" s="35" t="s">
         <v>442</v>
@@ -12488,16 +12661,16 @@
         <v>408</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>52</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>44</v>
+        <v>464</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>295</v>
+        <v>465</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>59</v>
@@ -12509,7 +12682,7 @@
         <v>445</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="S3" s="7" t="s">
         <v>32</v>
@@ -12527,19 +12700,19 @@
         <v>33</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="Z3" s="30" t="s">
         <v>246</v>
       </c>
       <c r="AA3" s="12" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AC3" s="9" t="s">
         <v>69</v>
@@ -12641,7 +12814,7 @@
         <v>123</v>
       </c>
       <c r="BJ3" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="BK3" s="7" t="s">
         <v>34</v>
@@ -12679,7 +12852,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>56</v>
@@ -12694,10 +12867,10 @@
         <v>3</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>442</v>
@@ -12706,16 +12879,16 @@
         <v>408</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>52</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>44</v>
+        <v>464</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>295</v>
+        <v>465</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>59</v>
@@ -12727,7 +12900,7 @@
         <v>445</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>32</v>
@@ -12745,7 +12918,7 @@
         <v>33</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="Y4" s="7" t="s">
         <v>435</v>
@@ -12796,10 +12969,10 @@
         <v>153</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="AP4" s="7" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="AQ4" s="13" t="s">
         <v>349</v>
@@ -12859,7 +13032,7 @@
         <v>123</v>
       </c>
       <c r="BJ4" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="BK4" s="7" t="s">
         <v>34</v>
@@ -12897,7 +13070,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>56</v>
@@ -12912,10 +13085,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="I5" s="35" t="s">
         <v>442</v>
@@ -12924,16 +13097,16 @@
         <v>408</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>52</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>44</v>
+        <v>464</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>295</v>
+        <v>465</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>59</v>
@@ -12945,7 +13118,7 @@
         <v>445</v>
       </c>
       <c r="R5" s="35" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>32</v>
@@ -12957,13 +13130,13 @@
         <v>137</v>
       </c>
       <c r="V5" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="X5" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="Y5" s="7" t="s">
         <v>435</v>
@@ -12972,7 +13145,7 @@
         <v>246</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AB5" s="12" t="s">
         <v>446</v>
@@ -13014,10 +13187,10 @@
         <v>153</v>
       </c>
       <c r="AO5" s="7" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="AP5" s="7" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="AQ5" s="13" t="s">
         <v>349</v>
@@ -13077,7 +13250,7 @@
         <v>123</v>
       </c>
       <c r="BJ5" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="BK5" s="7" t="s">
         <v>34</v>
@@ -13115,7 +13288,7 @@
         <v>364</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>56</v>
@@ -13130,10 +13303,10 @@
         <v>3</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="I6" s="35" t="s">
         <v>442</v>
@@ -13142,16 +13315,16 @@
         <v>408</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>52</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>44</v>
+        <v>464</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>295</v>
+        <v>465</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>59</v>
@@ -13163,7 +13336,7 @@
         <v>445</v>
       </c>
       <c r="R6" s="35" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>32</v>
@@ -13181,16 +13354,16 @@
         <v>33</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>141</v>
+        <v>348</v>
       </c>
       <c r="Z6" s="30" t="s">
         <v>246</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AB6" s="12" t="s">
         <v>447</v>
@@ -13232,10 +13405,10 @@
         <v>153</v>
       </c>
       <c r="AO6" s="7" t="s">
-        <v>139</v>
+        <v>353</v>
       </c>
       <c r="AP6" s="7" t="s">
-        <v>139</v>
+        <v>353</v>
       </c>
       <c r="AQ6" s="13" t="s">
         <v>349</v>
@@ -13295,7 +13468,7 @@
         <v>123</v>
       </c>
       <c r="BJ6" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="BK6" s="7" t="s">
         <v>34</v>
@@ -13325,113 +13498,7825 @@
         <v>9</v>
       </c>
       <c r="BT6" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R7" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK7" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ7" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR7" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AS7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW7" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX7" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY7" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ7" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA7" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BB7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC7" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BD7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI7" s="7">
+        <v>123</v>
+      </c>
+      <c r="BJ7" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="BK7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP7" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BQ7" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT7" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z8" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK8" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ8" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AR8" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AS8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX8" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY8" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ8" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA8" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BB8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC8" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BD8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH8" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI8" s="7">
+        <v>123</v>
+      </c>
+      <c r="BJ8" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="BK8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP8" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BQ8" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT8" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z9" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK9" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ9" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR9" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AS9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW9" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX9" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY9" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ9" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA9" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BB9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC9" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BD9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE9" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH9" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI9" s="7">
+        <v>123</v>
+      </c>
+      <c r="BJ9" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="BK9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM9" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP9" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BQ9" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT9" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z10" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK10" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO10" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AP10" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ10" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR10" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AS10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW10" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX10" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY10" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ10" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA10" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BB10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC10" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BD10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH10" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI10" s="7">
+        <v>123</v>
+      </c>
+      <c r="BJ10" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="BK10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM10" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP10" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BQ10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT10" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R11" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z11" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK11" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AP11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ11" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR11" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AS11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW11" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX11" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY11" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ11" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA11" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BB11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC11" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BD11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH11" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI11" s="7">
+        <v>123</v>
+      </c>
+      <c r="BJ11" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="BK11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM11" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP11" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BQ11" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT11" s="7" t="s">
         <v>443</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="30">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR6" xr:uid="{33417A82-D937-4DEC-8115-9D461E0D8975}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R11" xr:uid="{5D6F55F3-D3BE-409F-B8B4-DA733F9B7584}">
+      <formula1>"prince.chaurasia@quadlabs.com,ayushi.shivhare@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,sahilyadavmp@gmail.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I11" xr:uid="{1CF78344-130E-4CD9-9EE4-E5C8C92518BF}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G11" xr:uid="{424BD3D4-FF3C-40A8-99B0-1E13CDC8D9EC}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H11" xr:uid="{4B45F953-D6CE-4A59-86F6-8AE14C3A64F8}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11" xr:uid="{B982CA3E-302F-4674-9951-3FB1D0BE5566}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT11 K2:K11" xr:uid="{F4D7BEA1-4B60-4406-9D1B-03A16964562C}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z11" xr:uid="{E65065B1-133E-46C7-8BC1-251ADD1BEA18}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AP11" xr:uid="{06192877-8C45-4329-81B7-0702FF32C42D}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P11" xr:uid="{9D356590-8428-4766-AA77-9D8421D985AA}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2:AN11 AK2:AK11 BP2:BP11" xr:uid="{ACF23B46-B945-43C6-A1E1-1649F23295B7}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO11" xr:uid="{0408A036-F794-4127-91F4-7AD008C6EBDA}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ11" xr:uid="{0087D12A-A85C-44DA-B6E5-45C39AFB88B8}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11" xr:uid="{A17CD2DB-4B4F-4764-AC2B-D9EB08937631}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{66E758F6-2075-4CC9-9E96-81ACB7C560EC}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC11 BL2:BL11 C2:C11" xr:uid="{FCD45225-3A0F-4F3D-AACA-34B3F07BBA40}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O11" xr:uid="{A5E87D02-26DC-421E-A487-A231EAFA85AB}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH11" xr:uid="{CAC10D69-CBDC-435A-9D22-0C91FB4C8F88}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM11" xr:uid="{4BD4A62A-09D1-4B12-9FB6-B1899C51C517}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BH11" xr:uid="{7E82A2AC-6631-4693-BFBC-1F26A7309958}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S11" xr:uid="{E604CC23-55F6-4BD3-9E92-1ED3C30E2DA4}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T11" xr:uid="{6343F6A0-617B-4903-9CF2-FCF977FA8A2C}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U11" xr:uid="{6F18D4EF-B491-4A46-8B30-41FD95C31482}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV11" xr:uid="{3090EB83-D022-4FC9-BACE-7AEFA3158064}">
+      <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD11 D2:D11" xr:uid="{6E5C2DDD-DD0D-4BFB-AC2F-D72476FC205A}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL11" xr:uid="{CB1B8EA6-DE44-408A-BD25-00FD5964982F}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q11" xr:uid="{02EF6397-A8CE-4010-B508-0A4543B97EA1}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2:BE11" xr:uid="{5484F61B-127E-4614-9395-B4909834C175}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BF11" xr:uid="{A4CDC541-14D4-4576-B716-1C204C5027CC}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11" xr:uid="{01902C50-7BA0-49E7-8723-FB0CC9EA2E6A}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR11" xr:uid="{49D1CD8E-9375-414D-B296-3CAE0EC3042E}">
       <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N6" xr:uid="{D81EECBE-9616-48FA-8A20-95F4C255FDAA}">
-      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BF6" xr:uid="{33961D5B-1944-4726-A2BD-9F55E782F677}">
-      <formula1>"1,2,3,4,5,6"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2:BE6" xr:uid="{82289D07-BB0D-4C86-A972-703B2B870811}">
-      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6" xr:uid="{FAD00B68-09C9-4A1C-93B5-3A1D5942A8C3}">
-      <formula1>"Old,New"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL6" xr:uid="{F13B273E-2D5D-44D1-BCE7-20369CAF2A24}">
-      <formula1>"InPolicy,OutPolicy,Null"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD6 D2:D6" xr:uid="{CBE4FA26-74D4-406B-91C5-8265F02B1C12}">
-      <formula1>"1,2,3,4,5,6,7,8"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV6" xr:uid="{577BEA08-29B4-466A-9D55-25B3A2F8A11F}">
-      <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U6" xr:uid="{D4E18E7F-EBFA-4D0A-A418-1D95B0BD085D}">
-      <formula1>"OneWay,RoundTrip"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T6" xr:uid="{33F5073D-AC21-4EDD-9A82-6E340638EBD2}">
-      <formula1>"Domestic,International"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S6" xr:uid="{6BDAF865-A4BF-424A-BD75-76F43259B963}">
-      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BH6" xr:uid="{AFAD17C9-5593-46C0-963B-FD6D8E94BDF5}">
-      <formula1>"Master Card,Visa"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM6" xr:uid="{877B368B-E010-4883-B084-91C8435EE4EC}">
-      <formula1>"0,1,2,Null"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH6" xr:uid="{7F1894F1-0BC2-4AF9-AB19-994018F0816E}">
-      <formula1>"0,1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O6" xr:uid="{237770D3-9DBE-4447-B7FE-2F3C51438410}">
-      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC6 BL2:BL6 C2:C6" xr:uid="{FAB30272-3643-4C04-A8BF-F290CB243A61}">
-      <formula1>"Applied,NotApplied"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{C65C8EB2-5019-4EEB-918F-100004DCE162}">
-      <formula1>"sbt,preprod117"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6" xr:uid="{2E32D78D-F8A1-4896-9234-9F4B2C5D3916}">
-      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ6" xr:uid="{4B53715C-6EAE-45D3-BBF0-50982E4CEB02}">
-      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO6" xr:uid="{156D3D02-F4B6-45E0-9E3A-A4FFFD5E98B8}">
-      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2:AN6 AK2:AK6 BP2:BP6" xr:uid="{B33CB899-0910-4E6C-9CC1-28B70BD98068}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P6" xr:uid="{5FD96D3B-76A0-4325-B3FF-D89357CD46A9}">
-      <formula1>"On,Off"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AP6" xr:uid="{F04EDE45-318D-4C50-9BC7-6B35E271361E}">
-      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z6" xr:uid="{88E73A96-3401-4781-9273-2E6526983EEC}">
-      <formula1>"Business trip  - Without reason"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT6 K2:K6" xr:uid="{40280DEE-5536-42DD-A0D4-E7C475CEAEF5}">
-      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{65F966E8-EE1B-4209-AC90-B4D5F5FA2BA1}">
-      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6" xr:uid="{7C84EE14-DB71-4A4C-B02B-027AB41CDC65}">
-      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{D8B53733-5F3D-494D-9C36-4E51FCF9CCC4}">
-      <formula1>"Normal,SSO"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{E503AF17-B10C-444C-9CA1-B0532359EC07}">
-      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R6" xr:uid="{5120336C-3D8D-4223-8E07-CCD9AA8835A2}">
-      <formula1>"prince.chaurasia@quadlabs.com,ayushi.shivhare@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,sahilyadavmp@gmail.com"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" display="Admin@123" xr:uid="{309E571D-4B7A-442D-87F8-E3F87AE33AF0}"/>
-    <hyperlink ref="N4" r:id="rId2" display="Admin@123" xr:uid="{746EA51C-F926-4B45-8604-B3E34AAE7EFA}"/>
-    <hyperlink ref="N5" r:id="rId3" display="Admin@123" xr:uid="{0B5425A4-3BCE-4160-ABAB-DA43F60D5815}"/>
-    <hyperlink ref="N6" r:id="rId4" display="Admin@123" xr:uid="{89E5240B-B164-420B-A771-0C19DDB4A6E6}"/>
-    <hyperlink ref="I3:I6" r:id="rId5" display="shekhar.singh@quadlabs.com" xr:uid="{0EC7BE12-6125-4BDE-BB68-A01867B50EA9}"/>
-    <hyperlink ref="N2" r:id="rId6" display="Admin@123" xr:uid="{BEE11FC9-4CB6-455D-8401-4EAEF31974DC}"/>
-    <hyperlink ref="I2" r:id="rId7" display="shekhar.singh@quadlabs.com" xr:uid="{85CB0260-A24B-44E9-B934-707EBFD93D31}"/>
-    <hyperlink ref="R2" r:id="rId8" display="ajit.kumar@quadlabs.com" xr:uid="{D73BCC51-6C76-472B-B0AF-52AB1337026B}"/>
-    <hyperlink ref="R3:R6" r:id="rId9" display="ajit.kumar@quadlabs.com" xr:uid="{B665CA98-0DA8-4203-9BC6-F2A7D3298B21}"/>
+    <hyperlink ref="I3:I6" r:id="rId1" display="shekhar.singh@quadlabs.com" xr:uid="{80946616-42EE-45EF-8AB6-A2FE1D6EA180}"/>
+    <hyperlink ref="N2" r:id="rId2" display="Admin@123" xr:uid="{6430E915-5B14-4754-8E56-D7092903FFF1}"/>
+    <hyperlink ref="I2" r:id="rId3" display="shekhar.singh@quadlabs.com" xr:uid="{32516577-3CD7-4CAF-8F29-D24C787A9E7D}"/>
+    <hyperlink ref="R2" r:id="rId4" display="ajit.kumar@quadlabs.com" xr:uid="{9F3B50F4-4CFB-445E-81F2-BA4608A838D3}"/>
+    <hyperlink ref="R3:R6" r:id="rId5" display="ajit.kumar@quadlabs.com" xr:uid="{AB562362-5E87-4A74-9EE5-792B6EAC1F61}"/>
+    <hyperlink ref="N3:N6" r:id="rId6" display="Admin@123" xr:uid="{8881BE83-23BC-4C80-930D-30750B8C44D6}"/>
+    <hyperlink ref="I8:I11" r:id="rId7" display="shekhar.singh@quadlabs.com" xr:uid="{B68199EF-21A1-4210-B8A4-77E01D29BA8F}"/>
+    <hyperlink ref="N7" r:id="rId8" display="Admin@123" xr:uid="{93E3A2D1-90C7-411A-92A1-7183C42A991B}"/>
+    <hyperlink ref="I7" r:id="rId9" display="shekhar.singh@quadlabs.com" xr:uid="{B4E4605E-60C2-4B5B-B9F2-B0216CC2B291}"/>
+    <hyperlink ref="R7" r:id="rId10" display="ajit.kumar@quadlabs.com" xr:uid="{7E541B17-3F4F-4EC1-BBE2-A734F914AC4D}"/>
+    <hyperlink ref="R8:R11" r:id="rId11" display="ajit.kumar@quadlabs.com" xr:uid="{912FA053-6E62-4B1A-ADF2-3ABD024155C2}"/>
+    <hyperlink ref="N8:N11" r:id="rId12" display="Admin@123" xr:uid="{ECFE53D0-314B-448B-80B1-365C3D526870}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45857012-A7FC-43F0-8ACA-B6F4F0D37AEB}">
+  <dimension ref="A1:BT2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW1" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="AX1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="AY1" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="BA1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="BG1" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="BH1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="BJ1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BP1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="BQ1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="BR1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BS1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT1" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ2" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR2" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AY2" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ2" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC2" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI2" s="7">
+        <v>123</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP2" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BQ2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT2" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR2" xr:uid="{09265A99-2BF4-4355-AAEB-E764E20AE43B}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{FB63A959-6476-4D6C-B7F9-13EFAC710ED9}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2" xr:uid="{ABA22046-676E-4CBD-A74C-0521EF235F47}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2" xr:uid="{7564A87F-2A2B-4889-A128-CE04946580DA}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{1B931ADC-FC11-485C-B35F-054D7A2B50D7}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2" xr:uid="{8E274BE6-62A5-4354-90C1-34163969A66E}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2 D2" xr:uid="{D0F76662-3621-47A2-9003-9B8518D95AF9}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2" xr:uid="{83C12086-371A-4746-A342-8DC01EB61E99}">
+      <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{B6E5FF21-1EC5-4AB9-8BE7-EC536289682F}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{B68FAC14-2E87-4383-8C64-B28BCC31A1B2}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{337D9E2D-BE92-4B96-95E3-BE268A12DB02}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2" xr:uid="{84C70D2A-980D-4BBA-89F7-3C1300F55C48}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2" xr:uid="{532CE8E5-9AC3-4DCE-BCAE-78156E73F6F2}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH2" xr:uid="{4A1A6CA3-21EE-4801-8640-E3CA167EFFC5}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{46566FA8-EE3A-44B0-8B93-CA3111FAEEB2}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 BL2 C2" xr:uid="{6A87854F-E571-4B4F-ACA7-558683D5FCC4}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{2DADD88D-27BA-4CC8-82DF-794D558B6DE1}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{7D8195E9-ADCA-4037-9A95-86A94E8899DA}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2" xr:uid="{7EDDD9C9-4F85-4C71-9E43-58B01ACF3612}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2" xr:uid="{E76117B7-640A-42A4-9C72-41B9A122B195}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2 AK2 BP2" xr:uid="{18E4E06B-6717-4DFD-948D-31E66B740D7F}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{92681066-FDC3-4F4B-BB56-0384F8563888}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AP2" xr:uid="{90A83664-4836-4017-96F2-ACBE871A651E}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{B10A80AE-BC70-4BD7-9D25-1DBD1D908BC7}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2 K2" xr:uid="{D0387A33-E99C-49F7-A55E-86D2A26E8378}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{4A2E81C5-9E1D-48E1-B42E-0556791DB860}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{822F6564-C0BD-4577-ABCD-76CBBF17921F}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{7579AF47-045A-4CF5-93C7-AD17E402092C}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{3860510D-9837-4ED1-9C7F-EA57A13360C0}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{5E75373E-AE8D-4E69-9F62-D4B86EB47757}">
+      <formula1>"prince.chaurasia@quadlabs.com,ayushi.shivhare@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,sahilyadavmp@gmail.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2" xr:uid="{581DFA31-E507-4997-A473-63622FF534A3}">
+      <formula1>"bom,maa,dxb,blr"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" display="Admin@123" xr:uid="{3D19C52D-E522-4D7E-BF06-4EA081E24821}"/>
+    <hyperlink ref="I2" r:id="rId2" display="shekhar.singh@quadlabs.com" xr:uid="{C8554CF1-D192-4E7A-8CF7-7FE4BF89E8A4}"/>
+    <hyperlink ref="R2" r:id="rId3" display="ajit.kumar@quadlabs.com" xr:uid="{5D4114EF-6A9D-4317-82EF-227BECA1D691}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8833F89-7580-468F-8122-D89B0C2701E3}">
+  <dimension ref="A1:BV6"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.42578125" customWidth="1"/>
+    <col min="42" max="42" width="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AY1" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="BA1" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="BB1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="BC1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="BI1" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="BJ1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="BL1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="BQ1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV1" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:74" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AT2" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ2" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BA2" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BB2" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BC2" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE2" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BF2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK2" s="7">
+        <v>123</v>
+      </c>
+      <c r="BL2" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="BM2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BP2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR2" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BS2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BT2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BU2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV2" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74" ht="48" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS3" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AT3" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AU3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ3" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BA3" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BB3" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BC3" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE3" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BF3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK3" s="7">
+        <v>123</v>
+      </c>
+      <c r="BL3" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO3" s="9">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR3" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BS3" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BT3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BU3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV3" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:74" ht="48" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z4" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS4" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AT4" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ4" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BA4" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BB4" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BC4" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BD4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE4" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BF4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK4" s="7">
+        <v>123</v>
+      </c>
+      <c r="BL4" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="BM4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR4" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BS4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BT4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BU4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV4" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:74" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS5" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AT5" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AU5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY5" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ5" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BA5" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BB5" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BC5" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BD5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE5" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BF5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK5" s="7">
+        <v>123</v>
+      </c>
+      <c r="BL5" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="BM5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR5" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BS5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BT5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BU5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV5" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:74" ht="48" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z6" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS6" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AT6" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AU6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY6" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ6" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BA6" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BB6" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BC6" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BD6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE6" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BF6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ6" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK6" s="7">
+        <v>123</v>
+      </c>
+      <c r="BL6" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="BM6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR6" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BS6" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BT6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BU6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV6" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{AA68C9AC-99C7-4C42-AF51-CA94B9B634EE}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6" xr:uid="{446298D8-20D5-4A67-95A4-2B8E45FDA618}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{C34EC858-AF43-4750-9998-2D18ED64D2FC}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2:BV6 K2:K6" xr:uid="{122B3471-33CC-45CE-B4AB-E2303BF35960}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z6" xr:uid="{E4760682-169D-40A4-9F60-14003FB55CBC}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR6" xr:uid="{1E53B1D4-9960-4F3D-BE11-C6135F74465E}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P6" xr:uid="{5CA9D4F0-B62D-431E-8A5A-D98034CEBFF2}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP6 AK2:AK6 BR2:BR6 AN2:AN6" xr:uid="{018C4820-4032-4E1C-9CB5-60F8B19B73F2}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ2:BQ6" xr:uid="{D45C9F30-C35B-4FE4-ABED-3168AA1BC072}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2:BL6" xr:uid="{7F48B50A-4555-4BF5-8A06-C162B44D9800}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6" xr:uid="{6924749B-8FA8-4529-8690-CB2F72D05E8D}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{093556E3-4E53-4AF5-885B-13E80A1C296A}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC6 BN2:BN6 C2:C6" xr:uid="{16A557C6-7700-48F6-B94A-BFA1E1677D18}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O6" xr:uid="{790E240A-04A7-4CB6-88BF-F0FA256879C7}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH6" xr:uid="{ED6C91E8-20B8-4C08-9130-839B1B42BB72}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM6" xr:uid="{D6DC42EC-9C13-441B-8836-3851DC8FD411}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ6" xr:uid="{0769C753-F102-4874-B1A8-63F34179DF14}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S6" xr:uid="{292788CF-4F04-4E2F-A77C-6DF867CC4E27}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T6" xr:uid="{D46F67C4-3875-4419-B2A5-302DA9C0DBE5}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U6" xr:uid="{4D75FF2B-7728-4727-A6C3-4CE75BA246AF}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2:AX6" xr:uid="{91B515A1-8187-4A45-8AE9-D634812FDA26}">
+      <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD6 D2:D6" xr:uid="{A2196938-0196-4883-A2CB-E0076F19203D}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL6" xr:uid="{8619985A-FFBF-4CCD-97CC-9D6B4D0A1334}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6" xr:uid="{E38B7091-7002-4C4D-B009-49E0E81937C2}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG2:BG6" xr:uid="{844AE0CF-6328-41F1-8C06-BBC58CC46B90}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BH6" xr:uid="{CC082547-8F88-4622-B3CF-766B3F9B8741}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N6" xr:uid="{5C4C01B7-0884-44B8-87D1-580E0FAAE6FE}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AT6" xr:uid="{10305415-D348-4E31-A280-B7F718D146CA}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO6" xr:uid="{97BEDD01-51BC-49D2-815A-66C7234C73CB}">
+      <formula1>"Duration,Layover,TimingFilter"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{33FBF62F-55B0-4445-ADE1-E2DD9BC3C0F7}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com,ankit.singh@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R6" xr:uid="{D6D7BB5A-58FD-4289-8A4F-B6942A6D2A21}">
+      <formula1>"prince.chaurasia@quadlabs.com,ayushi.shivhare@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,ankit.singh@quadlabs.com"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" display="Admin@123" xr:uid="{16C90EFA-A8DB-4BC0-80F4-609F32DCE61E}"/>
+    <hyperlink ref="I2" r:id="rId2" display="shekhar.singh@quadlabs.com" xr:uid="{D4D86DA5-D2F3-4AAB-A68E-3EC5CF19B380}"/>
+    <hyperlink ref="R2" r:id="rId3" display="ajit.kumar@quadlabs.com" xr:uid="{07388A1E-48D0-4EB0-9DF5-9B95FF727094}"/>
+    <hyperlink ref="N3" r:id="rId4" display="Admin@123" xr:uid="{C1A14010-FC1A-40A9-B552-166225ACEFD6}"/>
+    <hyperlink ref="N4" r:id="rId5" display="Admin@123" xr:uid="{EED7A9C1-78B1-40F7-AC73-95A5E576FF26}"/>
+    <hyperlink ref="N5" r:id="rId6" display="Admin@123" xr:uid="{260FC7FB-4422-426B-963E-D10A4BB7B3B3}"/>
+    <hyperlink ref="N6" r:id="rId7" display="Admin@123" xr:uid="{43F21103-2D8E-4693-8416-56D15DD696ED}"/>
+    <hyperlink ref="I3:I6" r:id="rId8" display="shekhar.singh@quadlabs.com" xr:uid="{7EE40E0B-C28D-49D6-8EC1-23503B157018}"/>
+    <hyperlink ref="R3:R6" r:id="rId9" display="ajit.kumar@quadlabs.com" xr:uid="{DFE2318C-D2F5-4E16-BD68-AB493639FA38}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8274BB29-8D16-41B7-801E-EA95E6FC3C79}">
+  <dimension ref="A1:BW8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2:AB2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="39" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.5703125" customWidth="1"/>
+    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="AV1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="BA1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="BB1" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="BC1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="BD1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="BU1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BV1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW1" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA2" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB2" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC2" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD2" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF2" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL2" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS2" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW2" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AS3" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT3" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU3" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="AV3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA3" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB3" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC3" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD3" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF3" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL3" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP3" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS3" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT3" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW3" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z4" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR4" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS4" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT4" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="AU4" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA4" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB4" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC4" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD4" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF4" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL4" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS4" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW4" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS5" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="AT5" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="AU5" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ5" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA5" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB5" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC5" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD5" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF5" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL5" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS5" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW5" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS6" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="AT6" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="AU6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ6" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA6" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB6" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC6" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD6" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF6" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK6" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL6" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS6" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT6" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW6" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="R7" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z7" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK7" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO7" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP7" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AS7" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT7" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU7" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="AV7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ7" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA7" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB7" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC7" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD7" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF7" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL7" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS7" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT7" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW7" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z8" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK8" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO8" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP8" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AR8" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS8" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="AT8" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="AU8" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA8" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB8" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC8" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD8" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF8" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK8" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL8" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS8" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT8" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW8" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8" xr:uid="{6BD6E2B9-6D63-423B-8CA8-90ABA2F4FCBB}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com,ankit.singh@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO8" xr:uid="{CF0E0497-EFC5-4287-9F84-F985C1B4F3C4}">
+      <formula1>"Duration,Layover,TimingFilter"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AT8" xr:uid="{4F8520FA-DA6E-4077-A4C8-74D124EF07BD}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N8" xr:uid="{9D4054E9-FDFA-4385-995A-28D1AD388FCA}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2:BI8" xr:uid="{A9D17834-8979-430E-A3DD-483757A008B7}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BH8" xr:uid="{84630E2F-0FBD-4603-AB3A-B06577A1D7F2}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8" xr:uid="{3AE752B4-5094-457D-9F64-EB138A8A4B43}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL8" xr:uid="{BCF4B526-78F7-4052-8B6B-523AD63A4F73}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD8 D2:D8" xr:uid="{70E0C846-FBCE-43DD-A909-389CA1E24CB2}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY8" xr:uid="{CB60544C-DB37-4535-A19C-07BA4DCA5BC8}">
+      <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U8" xr:uid="{8A0F7F29-14F6-4F86-A5D3-1ACBFAF48CC5}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T8" xr:uid="{8793DB3C-C8D9-455E-BAA2-D8A96C4EAD7A}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S8" xr:uid="{8BF2B832-2A18-4F53-8C67-3F8F2B7ACF7F}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK8" xr:uid="{9BAC8472-F5F9-4EEA-842D-E84152C1D8F2}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM8" xr:uid="{2855A186-64EA-406B-8E2A-E25DCE68249A}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH8" xr:uid="{0500BAE5-8F68-49B5-BDA7-1A002F5F6764}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{18F68F10-01DE-43F7-BF28-FE58178CF3F2}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC8 BO2:BO8 C2:C8" xr:uid="{0CF60872-4E11-4E31-9B88-ACC04C55DC80}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8" xr:uid="{0AC1750D-CD6E-46F6-825F-28CF20BA2DDA}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L8" xr:uid="{51EDA40B-923C-4ADB-9C1B-2BC1CB78CC05}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM8" xr:uid="{C1ACC2A8-7AFE-4863-9A20-C3A7B70C44BA}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR8" xr:uid="{E5CF7D65-C02E-40A6-ABB4-C2B0B5FB53F8}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP8 AK2:AK8 AN2:AN8 BS2:BS8" xr:uid="{FBCF1FC9-A8F7-493A-874B-5905C45368E9}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P8" xr:uid="{9BDDE396-B2DC-4564-BA83-824CEF87A3F4}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR8" xr:uid="{7BED66EE-B411-4FCC-A2A2-B19B05DE590A}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z8" xr:uid="{83DD1974-0D38-4920-A620-BCC91FEF7D77}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K8 BW2:BW8" xr:uid="{53E5A104-0CB2-4583-A9D6-B3B0BB9BC4CF}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M8" xr:uid="{E8F96025-C773-4781-9A5E-690ADC16491C}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H8" xr:uid="{5A61D4A2-3350-4B2A-AA08-582468EA22F7}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G8" xr:uid="{B23DC216-B5B5-4408-A460-13DD6CB91C7A}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AU8" xr:uid="{A2FCF9F9-AC50-4F23-81E1-685D37C0FB20}">
+      <formula1>"LCC,LCC+GDS,GDS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{0002B7E7-3673-4D8D-B829-F774F0E5E23D}">
+      <formula1>"prince.chaurasia@quadlabs.com,ayushi.shivhare@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,ajit.kumar@quadlabs.com"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" display="Admin@123" xr:uid="{4206385E-5BE7-43DE-A4D3-0809D52EB5AC}"/>
+    <hyperlink ref="I2" r:id="rId2" display="shekhar.singh@quadlabs.com" xr:uid="{227ECE21-344F-4F50-A0D7-E1DF75CCEB6D}"/>
+    <hyperlink ref="R2" r:id="rId3" display="ajit.kumar@quadlabs.com" xr:uid="{80B72F26-5E39-4ABA-83A2-236DF0C3E0C4}"/>
+    <hyperlink ref="N4" r:id="rId4" display="Admin@123" xr:uid="{10268859-7AD9-44E8-916D-73C36B5BA60D}"/>
+    <hyperlink ref="N7" r:id="rId5" display="Admin@123" xr:uid="{08E4BA01-ABAD-481C-946E-F31C0F6C0367}"/>
+    <hyperlink ref="N8" r:id="rId6" display="Admin@123" xr:uid="{3F7E784B-F7DD-4130-B6A1-FD7DCF87B4B3}"/>
+    <hyperlink ref="I4:I8" r:id="rId7" display="shekhar.singh@quadlabs.com" xr:uid="{6B1FAD5A-DC53-4258-9867-F32418CD65CD}"/>
+    <hyperlink ref="N5" r:id="rId8" display="Admin@123" xr:uid="{1EBDEB05-4236-4A44-9CE0-63DF418CEEC0}"/>
+    <hyperlink ref="I5" r:id="rId9" display="shekhar.singh@quadlabs.com" xr:uid="{04B33747-A9ED-47ED-9F18-C3184A1338A0}"/>
+    <hyperlink ref="I6" r:id="rId10" display="shekhar.singh@quadlabs.com" xr:uid="{E1E36C38-E577-4C66-83CA-791B2C4AAEAF}"/>
+    <hyperlink ref="N6" r:id="rId11" display="Admin@123" xr:uid="{D3D8F9D0-2B11-48DA-B5D1-402621C2E5E1}"/>
+    <hyperlink ref="N3" r:id="rId12" display="Admin@123" xr:uid="{DB276899-54C9-4F1F-B3D4-D644530FB96D}"/>
+    <hyperlink ref="I3" r:id="rId13" display="shekhar.singh@quadlabs.com" xr:uid="{C2E2E24B-F83C-4F6D-B9EE-C638B71C3707}"/>
+    <hyperlink ref="R3:R8" r:id="rId14" display="ajit.kumar@quadlabs.com" xr:uid="{F6BF94B4-C56C-42BF-99AD-F58443FAB673}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B5143E-7EC1-42F1-ACFE-7B1A3D040ECA}">
+  <dimension ref="A1:BW7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="AV1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="BA1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="BB1" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="BC1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="BD1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="BU1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BV1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW1" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X2" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA2" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB2" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC2" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD2" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF2" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL2" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM2" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="BN2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS2" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW2" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS3" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT3" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU3" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="AV3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA3" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB3" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC3" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD3" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF3" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL3" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="BN3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP3" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS3" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT3" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW3" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z4" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR4" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS4" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT4" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="AU4" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA4" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB4" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC4" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD4" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF4" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL4" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM4" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="BN4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS4" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW4" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS5" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="AT5" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="AU5" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ5" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA5" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB5" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC5" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD5" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF5" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL5" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM5" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="BN5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS5" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW5" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z6" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AS6" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT6" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU6" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="AV6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ6" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA6" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB6" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC6" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD6" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF6" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK6" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL6" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM6" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="BN6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS6" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT6" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW6" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R7" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z7" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK7" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO7" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP7" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AS7" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AT7" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AU7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ7" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA7" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB7" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC7" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD7" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF7" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL7" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM7" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="BN7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS7" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT7" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW7" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R7" xr:uid="{D024D7FF-5877-417E-8C21-AC9B5D1F8CA7}">
+      <formula1>"prince.chaurasia@quadlabs.com,ayushi.shivhare@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,ajit.kumar@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AU7" xr:uid="{4C2EDD49-F03F-44BA-B1B8-0C136E083675}">
+      <formula1>"LCC,LCC+GDS,GDS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7" xr:uid="{23A46B36-DA52-4C07-895C-BE6A8632AE14}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7" xr:uid="{068909F9-1BBD-41F4-8849-032AB66C945E}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M7" xr:uid="{76AB454B-9E0E-4A0C-8699-6A5D118E1C80}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K7 BW2:BW7" xr:uid="{5B655824-089E-4155-A471-2E4B953D4352}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z7" xr:uid="{E6CF0F22-524C-4672-9F14-15C0D88E8F5B}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR7" xr:uid="{1979A165-151B-4A1C-A673-EA35B65C343E}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P7" xr:uid="{9BFD1C69-9188-48AC-A569-3C49A29B4462}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS2:BS7 AN2:AN7 AK2:AK7 AP2:AP7" xr:uid="{193811A6-9F52-4E9A-8B76-B07D9E985177}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR7" xr:uid="{1BDB8AF6-EF2C-4961-9DFE-57A3DEADACBA}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM7" xr:uid="{59EEE077-0DA6-4262-8C44-9A7B7BA8C20B}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L7" xr:uid="{AFEEE849-A3D6-4969-BD6A-44189286F05D}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7" xr:uid="{6FCF972E-7DCD-4529-A74B-20A98452F1CC}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7 BO2:BO7 AC2:AC7" xr:uid="{9AE4D64B-6BB3-4B65-9210-7D14B8E279BF}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O7" xr:uid="{E7E93449-81F1-437E-9466-FCAE3EB13B34}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH7" xr:uid="{57C1CD49-D81E-4CDA-ADC2-333E298D6DD0}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM7" xr:uid="{0127F8DA-9C08-45CD-8FAD-0FC6A9948873}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK7" xr:uid="{C3ADB87A-3DAF-43D2-B61E-6A59AC77244F}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S7" xr:uid="{10D74546-3B89-4934-BAAC-ADACDD978C07}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T7" xr:uid="{3BCB5532-36B1-4688-BCF7-AB2BDF21ABD4}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U7" xr:uid="{D7F0DC9D-3959-4718-B297-E9ECED9A0DD7}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY7" xr:uid="{0CA3DD45-8728-4DAC-8734-22AAE78A4C44}">
+      <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7 AD2:AD7" xr:uid="{70CB9E9E-DC29-424B-A299-C70286D5C8A3}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL7" xr:uid="{4ABB4FC5-3500-4E6F-AEBA-AD8C6A7B4B2C}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q7" xr:uid="{F4DEB8CA-EC4B-48AA-BB77-81A22662FE0E}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BH7" xr:uid="{5A8206FF-C0CF-4DB1-BC6D-021DB9E7D33C}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2:BI7" xr:uid="{5ADD087C-10E9-4870-A4C5-C6A8DCE3887B}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N7" xr:uid="{0C07B452-AE94-4F16-8DF4-58EBCD080F04}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AT7" xr:uid="{2B5D6E92-6B4E-4398-9FB0-ECA48C538D48}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO7" xr:uid="{0CF9A97E-6EE1-403B-BC9D-2B189D56E156}">
+      <formula1>"Duration,Layover,TimingFilter"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I7" xr:uid="{BA6EB1E2-9966-4D56-8CCD-47062AABC97D}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com,ankit.singh@quadlabs.com"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" display="Admin@123" xr:uid="{36741546-A047-41F4-8FD6-332B511AC497}"/>
+    <hyperlink ref="I2" r:id="rId2" display="shekhar.singh@quadlabs.com" xr:uid="{52C22434-0242-4BA0-8214-10A45065AA6D}"/>
+    <hyperlink ref="R2" r:id="rId3" display="ajit.kumar@quadlabs.com" xr:uid="{B6437C01-074E-4F66-8471-605B892771AA}"/>
+    <hyperlink ref="N4" r:id="rId4" display="Admin@123" xr:uid="{6E97E840-FFAF-43A0-A061-487737F951DB}"/>
+    <hyperlink ref="N6" r:id="rId5" display="Admin@123" xr:uid="{EE183E74-5766-44BC-AC1F-E8D6BCC0BBCB}"/>
+    <hyperlink ref="N7" r:id="rId6" display="Admin@123" xr:uid="{A309F605-A086-45B9-8FD8-5A999C33AD94}"/>
+    <hyperlink ref="N5" r:id="rId7" display="Admin@123" xr:uid="{EBE27E5A-247F-4972-9E49-AE8F4A8D2739}"/>
+    <hyperlink ref="N3" r:id="rId8" display="Admin@123" xr:uid="{2CCAC76D-2183-4AD6-B662-7675D4BAB0B5}"/>
+    <hyperlink ref="I3:I7" r:id="rId9" display="shekhar.singh@quadlabs.com" xr:uid="{4DEAAFA1-B1F8-4B52-89F8-D5A367DCAA50}"/>
+    <hyperlink ref="R3:R7" r:id="rId10" display="ajit.kumar@quadlabs.com" xr:uid="{9FB03654-ED91-46F9-B963-7460745D3E8B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4DC434-9680-44B9-B67E-2B0017A95C76}">
+  <dimension ref="A1:BW2"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="AV1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="BA1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="BB1" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="BC1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="BD1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="BU1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BV1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW1" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA2" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB2" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC2" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD2" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF2" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL2" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM2" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="BN2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS2" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW2" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2" xr:uid="{D3900C6F-1777-4D0B-830B-6CA38C678C2E}">
+      <formula1>"LCC,LCC+GDS,GDS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{87E15701-8FFF-47C6-8182-91C969B70A45}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{33668CE0-1DDE-45B3-82C9-A3877A20A5C6}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{923274EF-88F2-49F5-95F7-51E925A08275}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 BW2" xr:uid="{4BDDF4B7-CD7E-4D4D-BD02-4E9D70AECE6F}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{277A127C-28B8-4779-9E1B-8EA1452D0880}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR2" xr:uid="{E7EC7AA6-D0C3-449C-904C-FB0B98DC357A}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{E23F84D7-0B2D-4F2B-B8C8-4359E60D88E7}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2 AK2 AN2 BS2" xr:uid="{B35E8AC8-02E1-4306-BCD3-04FB4439816E}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2" xr:uid="{BD05D512-9370-49E0-A144-2FCFC60ECE24}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{56300E86-4641-4666-8550-5E9D4BFDDFC1}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{DE2D710D-048B-4747-9987-1BD7E2250EA3}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{495278D9-DCC7-4117-BC8F-9DDA1A0D934D}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 BO2 C2" xr:uid="{37380F4F-37F7-4632-BE33-5BBDCC35E971}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{CCE50C8E-E3E4-4C0E-B718-31874734F583}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH2" xr:uid="{69A8293C-E3E1-4D27-89B7-D543D13FEB28}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2" xr:uid="{B2DF9EA9-6765-4431-9EC4-D1DCE05F9A50}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{0E8A5A80-3075-4DAB-8D97-7F82CD8EACE5}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{504C6EAE-0F0A-446C-A27B-71C58E3AD7CF}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{13BFBF4F-8F42-4489-9200-DB8F77D7D716}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{7B17BA7E-3C8E-4387-B1CE-E1DB7ADD75D7}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2" xr:uid="{259CCC1A-E85C-4116-82A5-26588349065F}">
+      <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2 D2" xr:uid="{6FD257E7-09EA-47DA-9986-D991407A7B04}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2" xr:uid="{B86F4493-CEC8-4EFD-B94F-39C2984F13F1}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{3BAA1A34-724C-44CD-AA5B-323690C7704D}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2" xr:uid="{63ACD46A-8FFA-4253-BECC-27D42285FD7F}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2" xr:uid="{155D8940-388F-4386-A78A-97D04D57775F}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{EF5A522C-150B-410F-89E1-A78425F14AD5}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AT2" xr:uid="{2EACF76F-2D13-43C3-8D7C-B86423F97D43}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2" xr:uid="{C39DAB6B-42EE-4E9B-9997-722A0980A03F}">
+      <formula1>"Duration,Layover,TimingFilter"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{87A79131-0DC0-4B75-A9CF-B7450A8DAF89}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com,ankit.singh@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{6E9686C3-5E56-48D4-83EE-75241BE8EF2B}">
+      <formula1>"prince.chaurasia@quadlabs.com,ayushi.shivhare@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,ajit.kumar@quadlabs.com"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" display="Admin@123" xr:uid="{7F0E7733-1EF9-43C3-8A77-5B1C27FAD025}"/>
+    <hyperlink ref="I2" r:id="rId2" display="shekhar.singh@quadlabs.com" xr:uid="{BB2DB6D9-9D3D-40A8-8CB4-F2B30B699183}"/>
+    <hyperlink ref="R2" r:id="rId3" display="ajit.kumar@quadlabs.com" xr:uid="{55D73720-9660-4207-9DE0-6DF75728F9D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17289,7 +25174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB15FCD5-34BA-4B6C-9C82-F2D97EAE87F9}">
   <dimension ref="A1:BV13"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
@@ -27402,7 +35287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4687B7CB-B79C-4A10-A96F-CB8129CC90D6}">
   <dimension ref="A1:BV5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>

--- a/data/excel/FlightBooking.xlsx
+++ b/data/excel/FlightBooking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankur.Yadav\git\ProjectQuadlabs\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham.Natkar\git\ProjectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6C0EF9-62B9-4D4B-8A5D-6EFE8514AD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C758AA-2912-42E9-BC97-20C293E4F627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12600" yWindow="4335" windowWidth="16200" windowHeight="11415" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet14" sheetId="72" r:id="rId1"/>
@@ -30,8 +30,9 @@
     <sheet name="TestLCC+Gds" sheetId="90" r:id="rId15"/>
     <sheet name="Filtersheet" sheetId="91" r:id="rId16"/>
     <sheet name="Branding" sheetId="92" r:id="rId17"/>
-    <sheet name="NonBranding" sheetId="96" r:id="rId18"/>
-    <sheet name="Sheet17" sheetId="95" r:id="rId19"/>
+    <sheet name="Sheet11" sheetId="97" r:id="rId18"/>
+    <sheet name="NonBranding" sheetId="96" r:id="rId19"/>
+    <sheet name="Sheet17" sheetId="95" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8307" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8443" uniqueCount="520">
   <si>
     <t>del</t>
   </si>
@@ -16865,8 +16866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8274BB29-8D16-41B7-801E-EA95E6FC3C79}">
   <dimension ref="A1:BW8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2:AB2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18884,6 +18885,654 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1152101-88D1-47D8-974F-BB578AD00182}">
+  <dimension ref="A1:BW2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BJ19" sqref="BJ19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="AV1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="BA1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="BB1" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="BC1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="BD1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="BU1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BV1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW1" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA2" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB2" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC2" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD2" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF2" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL2" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS2" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW2" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{25F60164-562A-48E3-8AC1-3D4314AA16B5}">
+      <formula1>"prince.chaurasia@quadlabs.com,ayushi.shivhare@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,ajit.kumar@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2" xr:uid="{FB2E7975-C45A-4044-A09D-01478BE0CC22}">
+      <formula1>"LCC,LCC+GDS,GDS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{D4A070FA-90F0-401D-86ED-16885515AA57}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{6C219D70-C84D-470D-91F5-D75280927F82}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{505A1FAB-445B-4B08-983E-70B20B60B500}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 BW2" xr:uid="{249F9713-76F2-4AC8-A20A-C618293667D2}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{C79C0E2B-0A1B-4D2A-8611-22A143F5AEF4}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR2" xr:uid="{5E9A6754-E241-46E2-B2D3-ED802818109F}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{FADB8C77-ED57-4B66-9920-593FC152E36D}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2 AK2 AN2 BS2" xr:uid="{5E566F18-E6EF-40D8-91E5-BDA76AB29C03}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2" xr:uid="{76FE0F58-E3FC-451E-9372-CF10DBD4D5A3}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{CFEEC431-62CF-4087-A2D1-A5F9EDC2291E}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{060E6A03-C224-4062-A54C-F69844C41AC3}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{86BE20C5-805B-4B6A-9B03-9C1026FF1459}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 BO2 C2" xr:uid="{BC362102-86DA-491E-92AB-BB7399F63F17}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{E1DB1DAA-3729-49E6-A990-CAD6084A96CC}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH2" xr:uid="{EB980B71-C557-4420-9F4E-8A2694C1CDA9}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2" xr:uid="{972F423D-F1D5-40DE-BC56-9CA1436471F0}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{DF49684E-C672-4142-BCEB-84EA90241E0B}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{6F3686EE-246B-4DB4-BB11-02C3EC33819F}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{DAD87662-E6E8-40DD-92C4-979C8552F30A}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{7702B831-421E-4B60-9C57-C800F7B8A6D9}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2" xr:uid="{3A64760F-D34B-4E60-AE36-BE71C7676729}">
+      <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2 D2" xr:uid="{617A75F5-B873-470F-8224-2F5FA6AA66C3}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2" xr:uid="{546C0649-2FA6-49D3-AD11-F2EAD1C45578}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{2AE44249-D30A-45F0-98EC-A8512DED6FDB}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2" xr:uid="{FE062D84-BF61-47F5-BCBF-634752FF4142}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2" xr:uid="{D35036CE-2CFC-431F-9845-AEEF9CDC8F61}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{FD4E3DD2-6FE5-4556-ACB9-7C3B3648902A}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AT2" xr:uid="{BEE93905-D711-45DD-81F0-C3D752C20B57}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2" xr:uid="{AA58A214-4C3E-4476-8784-656901C29FE0}">
+      <formula1>"Duration,Layover,TimingFilter"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{E0BA27C0-A15A-42BC-92AB-33294D8BE26D}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com,ankit.singh@quadlabs.com"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" display="Admin@123" xr:uid="{ECEDCFC7-0E34-4131-B791-2108DA5D8FDE}"/>
+    <hyperlink ref="I2" r:id="rId2" display="shekhar.singh@quadlabs.com" xr:uid="{59BA13CB-A0B3-4C25-9305-4D382065537B}"/>
+    <hyperlink ref="R2" r:id="rId3" display="ajit.kumar@quadlabs.com" xr:uid="{C2C28B64-9E94-4C43-AEAA-6BF3B5C9590E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B5143E-7EC1-42F1-ACFE-7B1A3D040ECA}">
   <dimension ref="A1:BW7"/>
   <sheetViews>
@@ -20674,7 +21323,1187 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98DCEC8-5D14-41F2-ACA0-1145C7751169}">
+  <dimension ref="A1:BN5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="39" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:66" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AT1" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="AU1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="AV1" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="AW1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="AX1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="BI1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BN1" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="AT2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV2" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AW2" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BA2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BC2" s="7">
+        <v>123</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ2" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BL2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BM2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN2" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="X3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO3" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="AT3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU3" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV3" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AW3" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="AX3" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ3" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BC3" s="7">
+        <v>123</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG3" s="9">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ3" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BL3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN3" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="W4" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="X4" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN4" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO4" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="AT4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU4" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV4" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AW4" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="AX4" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="AY4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ4" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BA4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BC4" s="7">
+        <v>123</v>
+      </c>
+      <c r="BD4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BE4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ4" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BK4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BL4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BM4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN4" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="W5" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="X5" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN5" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO5" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="AT5" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU5" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV5" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AW5" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="AX5" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="AY5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ5" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BA5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BC5" s="7">
+        <v>123</v>
+      </c>
+      <c r="BD5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BE5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ5" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BK5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BL5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BM5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN5" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2:AO5" xr:uid="{4C45BBA0-2468-4129-8909-5E2815C4EB44}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O5" xr:uid="{0498C7EF-6BD5-4414-BC0D-0B89B42C81D9}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5" xr:uid="{6B5A5108-C256-4019-BCCE-CC490AE4BCA9}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI5" xr:uid="{98E61256-8850-4C03-9D36-075015ED01CC}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB5 E2:E5" xr:uid="{9059B3F4-968D-45C1-9427-4E4FCE205F4A}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS5" xr:uid="{077F7F65-7BB5-4FF2-8522-DB49E74D3F7B}">
+      <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S5" xr:uid="{E25BF804-2BBA-4031-9ABA-3A22A0457AF3}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R5" xr:uid="{1C07EC02-53F8-470A-B793-1B536FCB9483}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5" xr:uid="{45B43896-196B-444E-A57D-D4CF1B7E05FC}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB5" xr:uid="{35A02EEF-3CF7-4406-BF54-46DCB8DA4267}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ5" xr:uid="{355C1A6D-9AEA-4E38-A8A2-D07607C65B9F}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AF5" xr:uid="{FF4C6D12-8499-48C6-9435-8BF7F2942144}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M5" xr:uid="{464D4F95-3883-47A0-A7F9-51D1446597F9}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BF5 AA2:AA5 D2:D5" xr:uid="{CC07C336-4A16-45DF-9638-834263C42DA1}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2:BN5" xr:uid="{4BE857CC-3145-4D79-8C91-EDE9B44EFC75}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5 C2:C5" xr:uid="{3BCDF557-BCA7-4EC3-BCE9-519CC0BE82C9}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J5" xr:uid="{BE80B1B3-5276-4F1B-BB3A-635D81D89A1D}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2:BD5" xr:uid="{95D2C220-28DD-4E70-871A-BFF40ED3F615}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2:BI5" xr:uid="{46FC40F7-467A-4BD0-98E6-97E1DFD7992D}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK5 BJ2:BJ5" xr:uid="{2F077DC4-B127-4A6C-B83E-A983439A5C56}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5" xr:uid="{87705A5D-5904-48F2-97F2-09BBE7E4C9E5}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AM5" xr:uid="{21E7CB9D-A18E-45EE-A9A7-7913A0D2CA86}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X5" xr:uid="{C72D7F70-CA7A-4ABD-AC3C-9E2D040E2C72}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5" xr:uid="{310C9F88-970E-4677-8A0C-823F3944E930}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K5" xr:uid="{1F86D526-37BB-4AB6-9484-49FD291F83B4}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L5" xr:uid="{529624DA-8D2C-417A-901F-39F2D5A560C2}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5" xr:uid="{472D9684-51F0-4B7F-BCE6-F0A4853100BE}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V5" xr:uid="{D31D6128-9BD3-4BF2-B783-90C7D458BF1B}">
+      <formula1>"bom,maa,dxb"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" display="prince.chaurasia@quadlabs.com" xr:uid="{A9E84B22-2915-495B-AECF-AAC5DAE73BB0}"/>
+    <hyperlink ref="L2" r:id="rId2" display="Admin@123" xr:uid="{F51E4D43-C8EB-438B-B592-AADCA801EF4A}"/>
+    <hyperlink ref="P3" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{A42925E6-506D-491F-A2F9-F455B650502B}"/>
+    <hyperlink ref="L3" r:id="rId4" display="Admin@123" xr:uid="{42E2827C-4AE1-40E8-9D44-6A4766CA39B8}"/>
+    <hyperlink ref="P4" r:id="rId5" display="prince.chaurasia@quadlabs.com" xr:uid="{4AF26D49-4895-4F3E-9ED2-9D46678B1705}"/>
+    <hyperlink ref="L4" r:id="rId6" display="Admin@123" xr:uid="{1941C053-7D7B-4DE5-8719-5729011254F8}"/>
+    <hyperlink ref="P5" r:id="rId7" display="prince.chaurasia@quadlabs.com" xr:uid="{618D8B16-3569-4302-B345-E33A90DAF425}"/>
+    <hyperlink ref="L5" r:id="rId8" display="Admin@123" xr:uid="{64B90536-6371-4F46-948E-8188EA7B4DE9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4DC434-9680-44B9-B67E-2B0017A95C76}">
   <dimension ref="A1:BW2"/>
   <sheetViews>
@@ -21317,1186 +23146,6 @@
     <hyperlink ref="N2" r:id="rId1" display="Admin@123" xr:uid="{7F0E7733-1EF9-43C3-8A77-5B1C27FAD025}"/>
     <hyperlink ref="I2" r:id="rId2" display="shekhar.singh@quadlabs.com" xr:uid="{BB2DB6D9-9D3D-40A8-8CB4-F2B30B699183}"/>
     <hyperlink ref="R2" r:id="rId3" display="ajit.kumar@quadlabs.com" xr:uid="{55D73720-9660-4207-9DE0-6DF75728F9D4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98DCEC8-5D14-41F2-ACA0-1145C7751169}">
-  <dimension ref="A1:BN5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="39" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:66" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y1" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z1" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB1" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC1" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE1" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF1" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG1" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH1" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI1" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="AJ1" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AP1" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ1" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS1" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="AT1" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="AU1" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="AV1" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="AW1" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="AX1" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY1" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ1" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="BA1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="BB1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="BC1" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD1" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="BF1" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="BG1" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH1" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI1" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="BJ1" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="BK1" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="BL1" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="BM1" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="BN1" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:66" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="W2" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="X2" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN2" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO2" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="AP2" s="7">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="AT2" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU2" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV2" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="AW2" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AX2" s="7">
-        <v>78554432323</v>
-      </c>
-      <c r="AY2" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ2" s="7">
-        <v>345678</v>
-      </c>
-      <c r="BA2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB2" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="BC2" s="7">
-        <v>123</v>
-      </c>
-      <c r="BD2" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="BE2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="BG2" s="9">
-        <v>1</v>
-      </c>
-      <c r="BH2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="BJ2" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="BK2" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="BL2" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="BM2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN2" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:66" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="W3" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="X3" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN3" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO3" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="AP3" s="7">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="AT3" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU3" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV3" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="AW3" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AX3" s="7">
-        <v>78554432323</v>
-      </c>
-      <c r="AY3" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ3" s="7">
-        <v>345678</v>
-      </c>
-      <c r="BA3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB3" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="BC3" s="7">
-        <v>123</v>
-      </c>
-      <c r="BD3" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="BE3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="BG3" s="9">
-        <v>1</v>
-      </c>
-      <c r="BH3" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="BJ3" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="BK3" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="BL3" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="BM3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN3" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:66" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="W4" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="X4" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL4" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM4" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN4" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO4" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="AP4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="AT4" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU4" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV4" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="AW4" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AX4" s="7">
-        <v>78554432323</v>
-      </c>
-      <c r="AY4" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ4" s="7">
-        <v>345678</v>
-      </c>
-      <c r="BA4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB4" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="BC4" s="7">
-        <v>123</v>
-      </c>
-      <c r="BD4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="BE4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="BG4" s="9">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="BJ4" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="BK4" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="BL4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="BM4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN4" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:66" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="W5" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="X5" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN5" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO5" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="AP5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="AT5" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU5" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV5" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="AW5" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AX5" s="7">
-        <v>78554432323</v>
-      </c>
-      <c r="AY5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ5" s="7">
-        <v>345678</v>
-      </c>
-      <c r="BA5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB5" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="BC5" s="7">
-        <v>123</v>
-      </c>
-      <c r="BD5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="BE5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="BG5" s="9">
-        <v>1</v>
-      </c>
-      <c r="BH5" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="BJ5" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="BK5" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="BL5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="BM5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN5" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="28">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2:AO5" xr:uid="{4C45BBA0-2468-4129-8909-5E2815C4EB44}">
-      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O5" xr:uid="{0498C7EF-6BD5-4414-BC0D-0B89B42C81D9}">
-      <formula1>"Old,New"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5" xr:uid="{6B5A5108-C256-4019-BCCE-CC490AE4BCA9}">
-      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI5" xr:uid="{98E61256-8850-4C03-9D36-075015ED01CC}">
-      <formula1>"InPolicy,OutPolicy,Null"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB5 E2:E5" xr:uid="{9059B3F4-968D-45C1-9427-4E4FCE205F4A}">
-      <formula1>"1,2,3,4,5,6,7,8"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS5" xr:uid="{077F7F65-7BB5-4FF2-8522-DB49E74D3F7B}">
-      <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S5" xr:uid="{E25BF804-2BBA-4031-9ABA-3A22A0457AF3}">
-      <formula1>"OneWay,RoundTrip"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R5" xr:uid="{1C07EC02-53F8-470A-B793-1B536FCB9483}">
-      <formula1>"Domestic,International"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5" xr:uid="{45B43896-196B-444E-A57D-D4CF1B7E05FC}">
-      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB5" xr:uid="{35A02EEF-3CF7-4406-BF54-46DCB8DA4267}">
-      <formula1>"Master Card,Visa"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ5" xr:uid="{355C1A6D-9AEA-4E38-A8A2-D07607C65B9F}">
-      <formula1>"0,1,2,Null"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AF5" xr:uid="{FF4C6D12-8499-48C6-9435-8BF7F2942144}">
-      <formula1>"0,1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M5" xr:uid="{464D4F95-3883-47A0-A7F9-51D1446597F9}">
-      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BF5 AA2:AA5 D2:D5" xr:uid="{CC07C336-4A16-45DF-9638-834263C42DA1}">
-      <formula1>"Applied,NotApplied"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2:BN5" xr:uid="{4BE857CC-3145-4D79-8C91-EDE9B44EFC75}">
-      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5 C2:C5" xr:uid="{3BCDF557-BCA7-4EC3-BCE9-519CC0BE82C9}">
-      <formula1>"sbt,preprod117"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J5" xr:uid="{BE80B1B3-5276-4F1B-BB3A-635D81D89A1D}">
-      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2:BD5" xr:uid="{95D2C220-28DD-4E70-871A-BFF40ED3F615}">
-      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2:BI5" xr:uid="{46FC40F7-467A-4BD0-98E6-97E1DFD7992D}">
-      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK5 BJ2:BJ5" xr:uid="{2F077DC4-B127-4A6C-B83E-A983439A5C56}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5" xr:uid="{87705A5D-5904-48F2-97F2-09BBE7E4C9E5}">
-      <formula1>"On,Off"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AM5" xr:uid="{21E7CB9D-A18E-45EE-A9A7-7913A0D2CA86}">
-      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X5" xr:uid="{C72D7F70-CA7A-4ABD-AC3C-9E2D040E2C72}">
-      <formula1>"Business trip  - Without reason"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5" xr:uid="{310C9F88-970E-4677-8A0C-823F3944E930}">
-      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K5" xr:uid="{1F86D526-37BB-4AB6-9484-49FD291F83B4}">
-      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L5" xr:uid="{529624DA-8D2C-417A-901F-39F2D5A560C2}">
-      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5" xr:uid="{472D9684-51F0-4B7F-BCE6-F0A4853100BE}">
-      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V5" xr:uid="{D31D6128-9BD3-4BF2-B783-90C7D458BF1B}">
-      <formula1>"bom,maa,dxb"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" display="prince.chaurasia@quadlabs.com" xr:uid="{A9E84B22-2915-495B-AECF-AAC5DAE73BB0}"/>
-    <hyperlink ref="L2" r:id="rId2" display="Admin@123" xr:uid="{F51E4D43-C8EB-438B-B592-AADCA801EF4A}"/>
-    <hyperlink ref="P3" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{A42925E6-506D-491F-A2F9-F455B650502B}"/>
-    <hyperlink ref="L3" r:id="rId4" display="Admin@123" xr:uid="{42E2827C-4AE1-40E8-9D44-6A4766CA39B8}"/>
-    <hyperlink ref="P4" r:id="rId5" display="prince.chaurasia@quadlabs.com" xr:uid="{4AF26D49-4895-4F3E-9ED2-9D46678B1705}"/>
-    <hyperlink ref="L4" r:id="rId6" display="Admin@123" xr:uid="{1941C053-7D7B-4DE5-8719-5729011254F8}"/>
-    <hyperlink ref="P5" r:id="rId7" display="prince.chaurasia@quadlabs.com" xr:uid="{618D8B16-3569-4302-B345-E33A90DAF425}"/>
-    <hyperlink ref="L5" r:id="rId8" display="Admin@123" xr:uid="{64B90536-6371-4F46-948E-8188EA7B4DE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel/FlightBooking.xlsx
+++ b/data/excel/FlightBooking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham.Natkar\git\ProjectQuadlabs\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankur.Yadav\git\ProjectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C758AA-2912-42E9-BC97-20C293E4F627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED004B1-1A6E-4510-8A92-1AAFF7C7BBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet14" sheetId="72" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8443" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8443" uniqueCount="523">
   <si>
     <t>del</t>
   </si>
@@ -1615,6 +1615,15 @@
   </si>
   <si>
     <t>piyush.chauhan@quadlabs.com</t>
+  </si>
+  <si>
+    <t>28-Nov-2024</t>
+  </si>
+  <si>
+    <t>26-Nov-2024</t>
+  </si>
+  <si>
+    <t>Master Card</t>
   </si>
 </sst>
 </file>
@@ -18888,8 +18897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1152101-88D1-47D8-974F-BB578AD00182}">
   <dimension ref="A1:BW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BJ19" sqref="BJ19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22507,8 +22516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4DC434-9680-44B9-B67E-2B0017A95C76}">
   <dimension ref="A1:BW2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
+      <selection activeCell="BP15" sqref="BP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22539,7 +22548,7 @@
     <col min="25" max="25" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -22574,7 +22583,7 @@
     <col min="60" max="60" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -22878,7 +22887,7 @@
         <v>132</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>137</v>
+        <v>337</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>484</v>
@@ -22896,10 +22905,10 @@
         <v>246</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="AC2" s="9" t="s">
         <v>69</v>
@@ -22956,7 +22965,7 @@
         <v>292</v>
       </c>
       <c r="AU2" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AV2" s="7">
         <v>1</v>
@@ -23004,13 +23013,13 @@
         <v>156</v>
       </c>
       <c r="BK2" s="7" t="s">
-        <v>290</v>
+        <v>522</v>
       </c>
       <c r="BL2" s="7">
         <v>123</v>
       </c>
       <c r="BM2" s="7" t="s">
-        <v>451</v>
+        <v>150</v>
       </c>
       <c r="BN2" s="7" t="s">
         <v>34</v>
@@ -23044,6 +23053,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="32">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2" xr:uid="{D3900C6F-1777-4D0B-830B-6CA38C678C2E}">
       <formula1>"LCC,LCC+GDS,GDS"</formula1>

--- a/data/excel/FlightBooking.xlsx
+++ b/data/excel/FlightBooking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankur.Yadav\git\ProjectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED004B1-1A6E-4510-8A92-1AAFF7C7BBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E823AB96-25D8-410C-9C7E-6B1017DCDD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet14" sheetId="72" r:id="rId1"/>
@@ -30,9 +30,10 @@
     <sheet name="TestLCC+Gds" sheetId="90" r:id="rId15"/>
     <sheet name="Filtersheet" sheetId="91" r:id="rId16"/>
     <sheet name="Branding" sheetId="92" r:id="rId17"/>
-    <sheet name="Sheet11" sheetId="97" r:id="rId18"/>
+    <sheet name="Branding118" sheetId="97" r:id="rId18"/>
     <sheet name="NonBranding" sheetId="96" r:id="rId19"/>
-    <sheet name="Sheet17" sheetId="95" r:id="rId20"/>
+    <sheet name="Nonbranding117" sheetId="95" r:id="rId20"/>
+    <sheet name="Test117" sheetId="99" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8443" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9016" uniqueCount="547">
   <si>
     <t>del</t>
   </si>
@@ -1617,13 +1618,85 @@
     <t>piyush.chauhan@quadlabs.com</t>
   </si>
   <si>
-    <t>28-Nov-2024</t>
-  </si>
-  <si>
-    <t>26-Nov-2024</t>
-  </si>
-  <si>
-    <t>Master Card</t>
+    <t>sachinkumar</t>
+  </si>
+  <si>
+    <t>Admin@123</t>
+  </si>
+  <si>
+    <t>ECO VALUE</t>
+  </si>
+  <si>
+    <t>ECONOMY COMFORT</t>
+  </si>
+  <si>
+    <t>4CJDOMEL9TNCR1R</t>
+  </si>
+  <si>
+    <t>27-Mar-2025</t>
+  </si>
+  <si>
+    <t>14-Apr-2025</t>
+  </si>
+  <si>
+    <t>27-Apr-2025</t>
+  </si>
+  <si>
+    <t>21-Apr-2025</t>
+  </si>
+  <si>
+    <t>23-Apr-2025</t>
+  </si>
+  <si>
+    <t>22-Apr-2025</t>
+  </si>
+  <si>
+    <t>25-Apr-2025</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-International(One Way).</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-International(Round Trip).</t>
+  </si>
+  <si>
+    <t>25-Mar-2025</t>
+  </si>
+  <si>
+    <t>26-Mar-2025</t>
+  </si>
+  <si>
+    <t>28-Mar-2025</t>
+  </si>
+  <si>
+    <t>6-Mar-2025</t>
+  </si>
+  <si>
+    <t>Oman Air</t>
+  </si>
+  <si>
+    <t>Chennai, Tamil Nadu, India (MAA-Chennai Intl.)</t>
+  </si>
+  <si>
+    <t>30-Mar-2025</t>
+  </si>
+  <si>
+    <t>Dubai,United Arab Emirates - Dubai  (DXB)</t>
+  </si>
+  <si>
+    <t>Verify Booking flow- (Flight+ Hotel)-International.</t>
+  </si>
+  <si>
+    <t>Verify Booking flow- (Flight+ Hotel)-Domestic.</t>
+  </si>
+  <si>
+    <t>Test on Flight+ Hotel 1</t>
+  </si>
+  <si>
+    <t>Test on Flight+ Hotel 2</t>
+  </si>
+  <si>
+    <t>16-Mar-2025</t>
   </si>
 </sst>
 </file>
@@ -16876,7 +16949,7 @@
   <dimension ref="A1:BW8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18895,16 +18968,16 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1152101-88D1-47D8-974F-BB578AD00182}">
-  <dimension ref="A1:BW2"/>
+  <dimension ref="A1:BW5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
@@ -18914,7 +18987,7 @@
     <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -18922,14 +18995,14 @@
     <col min="18" max="18" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="36" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -19211,10 +19284,10 @@
         <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>500</v>
+        <v>452</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
@@ -19226,10 +19299,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>403</v>
+        <v>296</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>343</v>
@@ -19244,10 +19317,10 @@
         <v>52</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>44</v>
+        <v>520</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>295</v>
+        <v>521</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>59</v>
@@ -19259,7 +19332,7 @@
         <v>293</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>343</v>
+        <v>519</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>32</v>
@@ -19286,10 +19359,10 @@
         <v>246</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="AC2" s="9" t="s">
         <v>69</v>
@@ -19321,8 +19394,8 @@
       <c r="AL2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AM2" s="7">
-        <v>0</v>
+      <c r="AM2" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="AN2" s="13" t="s">
         <v>281</v>
@@ -19334,19 +19407,19 @@
         <v>153</v>
       </c>
       <c r="AQ2" s="7" t="s">
-        <v>139</v>
+        <v>414</v>
       </c>
       <c r="AR2" s="7" t="s">
-        <v>139</v>
+        <v>414</v>
       </c>
       <c r="AS2" s="13" t="s">
-        <v>292</v>
+        <v>522</v>
       </c>
       <c r="AT2" s="13" t="s">
-        <v>292</v>
+        <v>522</v>
       </c>
       <c r="AU2" s="13" t="s">
-        <v>498</v>
+        <v>129</v>
       </c>
       <c r="AV2" s="7">
         <v>1</v>
@@ -19418,7 +19491,7 @@
         <v>7</v>
       </c>
       <c r="BS2" s="32" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="BT2" s="7" t="s">
         <v>304</v>
@@ -19433,109 +19506,796 @@
         <v>432</v>
       </c>
     </row>
+    <row r="3" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AS3" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="AT3" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="AU3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA3" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB3" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC3" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD3" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF3" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL3" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP3" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS3" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT3" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW3" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z4" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN4" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR4" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AS4" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="AT4" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="AU4" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA4" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB4" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC4" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD4" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF4" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL4" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS4" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW4" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN5" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AS5" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="AT5" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="AU5" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ5" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA5" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB5" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC5" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD5" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF5" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL5" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS5" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW5" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="32">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{25F60164-562A-48E3-8AC1-3D4314AA16B5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R5" xr:uid="{D1C29CB6-7D71-4C9F-AA7E-BCB27B558B9E}">
       <formula1>"prince.chaurasia@quadlabs.com,ayushi.shivhare@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,ajit.kumar@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2" xr:uid="{FB2E7975-C45A-4044-A09D-01478BE0CC22}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AU5" xr:uid="{BCE20CB4-3431-457A-8EE0-9DFA5B7EC149}">
       <formula1>"LCC,LCC+GDS,GDS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{D4A070FA-90F0-401D-86ED-16885515AA57}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5" xr:uid="{99333616-1054-4CE3-803C-764BFFEDB27C}">
       <formula1>"Normal,SSO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{6C219D70-C84D-470D-91F5-D75280927F82}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5" xr:uid="{F9353EFC-07AC-4B3B-98E8-69D81F4234B1}">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{505A1FAB-445B-4B08-983E-70B20B60B500}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M5" xr:uid="{3F7C362B-2676-4E9F-A161-EE26C36383D0}">
       <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 BW2" xr:uid="{249F9713-76F2-4AC8-A20A-C618293667D2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K5 BW2:BW5" xr:uid="{0CB11497-59A5-4089-A817-57E44F74594C}">
       <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{C79C0E2B-0A1B-4D2A-8611-22A143F5AEF4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z5" xr:uid="{BF8D8700-B723-433A-B31C-8816891F6AD1}">
       <formula1>"Business trip  - Without reason"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR2" xr:uid="{5E9A6754-E241-46E2-B2D3-ED802818109F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR5" xr:uid="{9D2B7538-80D7-431A-81A6-FE5C66B85211}">
       <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{FADB8C77-ED57-4B66-9920-593FC152E36D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5" xr:uid="{07E1DC5A-5609-4805-9738-0A7B234AFF1C}">
       <formula1>"On,Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2 AK2 AN2 BS2" xr:uid="{5E566F18-E6EF-40D8-91E5-BDA76AB29C03}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP5 AK2:AK5 AN2:AN5 BS2:BS5" xr:uid="{2CAC40F4-B0C8-4FAF-B3EF-FB8D74381C26}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2" xr:uid="{76FE0F58-E3FC-451E-9372-CF10DBD4D5A3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR5" xr:uid="{BE696F33-88F6-4242-81D5-3A1231C471DC}">
       <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{CFEEC431-62CF-4087-A2D1-A5F9EDC2291E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM5" xr:uid="{6721F498-20BE-4E45-8A07-FFD6F3EDB5AC}">
       <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{060E6A03-C224-4062-A54C-F69844C41AC3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L5" xr:uid="{431381AE-0088-4A2B-A9FB-62D5CE6B9B50}">
       <formula1>"Administrator,Travel Arranger,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{86BE20C5-805B-4B6A-9B03-9C1026FF1459}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{65E9D3A0-C2C4-4A5D-9F56-39913CD71534}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 BO2 C2" xr:uid="{BC362102-86DA-491E-92AB-BB7399F63F17}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC5 BO2:BO5 C2:C5" xr:uid="{8BEC20D9-6C20-4974-A3D2-1C9EAF6FCC47}">
       <formula1>"Applied,NotApplied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{E1DB1DAA-3729-49E6-A990-CAD6084A96CC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O5" xr:uid="{DD0E79A3-9B04-4B10-B396-02C50DE24A48}">
       <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH2" xr:uid="{EB980B71-C557-4420-9F4E-8A2694C1CDA9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH5" xr:uid="{41E24847-3316-4D3B-B0D4-746E34A68E25}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2" xr:uid="{972F423D-F1D5-40DE-BC56-9CA1436471F0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM5" xr:uid="{41A9908D-CFD5-4918-8067-4F85EC1B6759}">
       <formula1>"0,1,2,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{DF49684E-C672-4142-BCEB-84EA90241E0B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK5" xr:uid="{06385851-2E08-407E-8153-AC204078B183}">
       <formula1>"Master Card,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{6F3686EE-246B-4DB4-BB11-02C3EC33819F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S5" xr:uid="{E40B6617-1EEC-421D-A1E7-93FE69EF4B50}">
       <formula1>"Individual,Guest,Personal,Dependent"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{DAD87662-E6E8-40DD-92C4-979C8552F30A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T5" xr:uid="{448C40A0-04E0-4A20-B9CC-AA6D52EC4D83}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{7702B831-421E-4B60-9C57-C800F7B8A6D9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U5" xr:uid="{2774575B-E7EF-4180-854E-AE98655ACE51}">
       <formula1>"OneWay,RoundTrip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2" xr:uid="{3A64760F-D34B-4E60-AE36-BE71C7676729}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY5" xr:uid="{14C5715E-17CE-4034-A173-B5B9C696EA26}">
       <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2 D2" xr:uid="{617A75F5-B873-470F-8224-2F5FA6AA66C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD5 D2:D5" xr:uid="{2A8787A5-BF51-43C5-A1E5-8FF84DC787E2}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2" xr:uid="{546C0649-2FA6-49D3-AD11-F2EAD1C45578}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL5" xr:uid="{3DEF7436-7DD1-469F-874C-E4A3CF3F0BFB}">
       <formula1>"InPolicy,OutPolicy,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{2AE44249-D30A-45F0-98EC-A8512DED6FDB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5" xr:uid="{4A7B71B2-7F0A-4FA2-8F79-4C9AF4029FCF}">
       <formula1>"Old,New"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2" xr:uid="{FE062D84-BF61-47F5-BCBF-634752FF4142}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BH5" xr:uid="{786455BA-80A4-40D3-B515-62977DA4529A}">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2" xr:uid="{D35036CE-2CFC-431F-9845-AEEF9CDC8F61}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2:BI5" xr:uid="{4F3CD9F0-6EE0-45C0-BE68-A11D1FED42E9}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{FD4E3DD2-6FE5-4556-ACB9-7C3B3648902A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO5" xr:uid="{C5B07846-D033-4D7B-93DD-F602A6FECBF1}">
+      <formula1>"Duration,Layover,TimingFilter"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5" xr:uid="{EC79C94A-F77B-4BEB-9FD2-2A007464EB43}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com,ankit.singh@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5" xr:uid="{AA68B074-32D7-4BC1-8328-71E7750EAEC3}">
       <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AT2" xr:uid="{BEE93905-D711-45DD-81F0-C3D752C20B57}">
-      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2" xr:uid="{AA58A214-4C3E-4476-8784-656901C29FE0}">
-      <formula1>"Duration,Layover,TimingFilter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{E0BA27C0-A15A-42BC-92AB-33294D8BE26D}">
-      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com,ankit.singh@quadlabs.com"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AT5" xr:uid="{A64E5340-3DE2-44C0-A3F4-3939F0F8D110}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE,ECO VALUE"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" display="Admin@123" xr:uid="{ECEDCFC7-0E34-4131-B791-2108DA5D8FDE}"/>
-    <hyperlink ref="I2" r:id="rId2" display="shekhar.singh@quadlabs.com" xr:uid="{59BA13CB-A0B3-4C25-9305-4D382065537B}"/>
-    <hyperlink ref="R2" r:id="rId3" display="ajit.kumar@quadlabs.com" xr:uid="{C2C28B64-9E94-4C43-AEAA-6BF3B5C9590E}"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{9D5E350B-B997-4B63-952B-E1D180F8B7F1}"/>
+    <hyperlink ref="I2" r:id="rId2" display="shekhar.singh@quadlabs.com" xr:uid="{79AB449E-9652-46F7-A3EE-4AFF97604D40}"/>
+    <hyperlink ref="R2" r:id="rId3" display="ajit.kumar@quadlabs.com" xr:uid="{26CA8F43-D419-4C2A-8CC6-230498F06E4D}"/>
+    <hyperlink ref="I3" r:id="rId4" display="shekhar.singh@quadlabs.com" xr:uid="{B3C6CE97-DF0A-473E-B433-6F32D321FBED}"/>
+    <hyperlink ref="R3" r:id="rId5" display="ajit.kumar@quadlabs.com" xr:uid="{C42F67E2-7AC6-444C-932F-9881BE76EACC}"/>
+    <hyperlink ref="I4:I5" r:id="rId6" display="shekhar.singh@quadlabs.com" xr:uid="{18A507A3-3F15-43DA-8D87-54261D8F7BE2}"/>
+    <hyperlink ref="R4:R5" r:id="rId7" display="ajit.kumar@quadlabs.com" xr:uid="{CF35DA78-8130-45B3-B773-B4AAD261A859}"/>
+    <hyperlink ref="N3:N5" r:id="rId8" display="Admin@123" xr:uid="{88351F86-4295-4738-87D0-D6A0373372F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19546,7 +20306,7 @@
   <dimension ref="A1:BW7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22514,10 +23274,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4DC434-9680-44B9-B67E-2B0017A95C76}">
-  <dimension ref="A1:BW2"/>
+  <dimension ref="A1:BW5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
-      <selection activeCell="BP15" sqref="BP15"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22534,7 +23294,7 @@
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -22598,7 +23358,7 @@
     <col min="75" max="75" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>35</v>
       </c>
@@ -22825,15 +23585,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:75" ht="48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>517</v>
+        <v>452</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
@@ -22845,10 +23605,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>403</v>
+        <v>296</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>442</v>
@@ -22863,10 +23623,10 @@
         <v>52</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>44</v>
+        <v>464</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>295</v>
+        <v>524</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>59</v>
@@ -22905,10 +23665,10 @@
         <v>246</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="AC2" s="9" t="s">
         <v>69</v>
@@ -22940,8 +23700,8 @@
       <c r="AL2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AM2" s="7">
-        <v>0</v>
+      <c r="AM2" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="AN2" s="13" t="s">
         <v>281</v>
@@ -22956,13 +23716,13 @@
         <v>139</v>
       </c>
       <c r="AR2" s="7" t="s">
-        <v>429</v>
+        <v>139</v>
       </c>
       <c r="AS2" s="13" t="s">
-        <v>292</v>
+        <v>522</v>
       </c>
       <c r="AT2" s="13" t="s">
-        <v>292</v>
+        <v>522</v>
       </c>
       <c r="AU2" s="13" t="s">
         <v>498</v>
@@ -23013,7 +23773,7 @@
         <v>156</v>
       </c>
       <c r="BK2" s="7" t="s">
-        <v>522</v>
+        <v>290</v>
       </c>
       <c r="BL2" s="7">
         <v>123</v>
@@ -23049,113 +23809,1690 @@
         <v>9</v>
       </c>
       <c r="BW2" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:75" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS3" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT3" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU3" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="AV3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA3" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB3" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC3" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD3" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF3" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL3" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP3" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS3" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT3" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW3" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:75" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z4" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN4" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="AR4" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="AS4" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT4" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU4" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA4" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB4" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC4" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD4" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF4" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL4" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS4" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW4" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:75" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN5" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="AS5" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="AT5" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="AU5" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ5" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA5" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB5" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC5" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD5" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF5" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL5" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS5" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW5" s="7" t="s">
         <v>443</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="32">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2" xr:uid="{D3900C6F-1777-4D0B-830B-6CA38C678C2E}">
+  <dataValidations count="35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AU5" xr:uid="{EC928448-8EC4-4CB1-A994-D1C9228B148B}">
       <formula1>"LCC,LCC+GDS,GDS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{87E15701-8FFF-47C6-8182-91C969B70A45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5" xr:uid="{0DDC40CB-7A4C-40BF-B31C-4A553525E5FD}">
       <formula1>"Normal,SSO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{33668CE0-1DDE-45B3-82C9-A3877A20A5C6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5" xr:uid="{CAD0730E-A63B-4E21-B91B-FED4529C8D74}">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{923274EF-88F2-49F5-95F7-51E925A08275}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M5" xr:uid="{A2363397-B5A7-47AC-B91F-37630D3394E0}">
       <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 BW2" xr:uid="{4BDDF4B7-CD7E-4D4D-BD02-4E9D70AECE6F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K5 BW2:BW5" xr:uid="{AC4E50D1-7B4E-45C1-B0F9-BE54B4057BCA}">
       <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{277A127C-28B8-4779-9E1B-8EA1452D0880}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z5" xr:uid="{4E2059D6-DF67-4F2E-A9F8-955F0911D857}">
       <formula1>"Business trip  - Without reason"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR2" xr:uid="{E7EC7AA6-D0C3-449C-904C-FB0B98DC357A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR3" xr:uid="{5A7ECA39-CA67-4022-986F-8D2A58856DE9}">
       <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{E23F84D7-0B2D-4F2B-B8C8-4359E60D88E7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5" xr:uid="{309F1BC4-FAA4-447C-B9E4-DAB83AD1DFD8}">
       <formula1>"On,Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2 AK2 AN2 BS2" xr:uid="{B35E8AC8-02E1-4306-BCD3-04FB4439816E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP5 AK2:AK5 AN2:AN5 BS2:BS5" xr:uid="{1216AF12-4212-4634-895A-AD628A51B2C3}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2" xr:uid="{BD05D512-9370-49E0-A144-2FCFC60ECE24}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR5" xr:uid="{0135A625-9D4A-425E-9572-EE947EAC85DA}">
       <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{56300E86-4641-4666-8550-5E9D4BFDDFC1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM5" xr:uid="{B2219BA7-5CA3-453D-B13D-DC33DDD92D73}">
       <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{DE2D710D-048B-4747-9987-1BD7E2250EA3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L5" xr:uid="{54D4D5EE-8109-4DBE-B4D5-EC79E251D682}">
       <formula1>"Administrator,Travel Arranger,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{495278D9-DCC7-4117-BC8F-9DDA1A0D934D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{DD205B55-E6B4-4B43-A0CF-B8932BCE1533}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 BO2 C2" xr:uid="{37380F4F-37F7-4632-BE33-5BBDCC35E971}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC5 BO2:BO5 C2:C5" xr:uid="{490C6FE3-836B-421F-916C-94E059B880CE}">
       <formula1>"Applied,NotApplied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{CCE50C8E-E3E4-4C0E-B718-31874734F583}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O5" xr:uid="{ACF4D5A4-0DC7-43D7-AC38-4DD5CCD07329}">
       <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH2" xr:uid="{69A8293C-E3E1-4D27-89B7-D543D13FEB28}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH5" xr:uid="{118BEC9A-4E65-412C-8629-C748C84A86B0}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2" xr:uid="{B2DF9EA9-6765-4431-9EC4-D1DCE05F9A50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM5" xr:uid="{3ACACE3E-B225-4F0A-B26D-CBF744565CFD}">
       <formula1>"0,1,2,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{0E8A5A80-3075-4DAB-8D97-7F82CD8EACE5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK5" xr:uid="{5482CDEC-BB45-4E6F-B005-CE780F5E693D}">
       <formula1>"Master Card,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{504C6EAE-0F0A-446C-A27B-71C58E3AD7CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S5" xr:uid="{F11BE9FA-A48A-42A4-9D91-371A1BBB943C}">
       <formula1>"Individual,Guest,Personal,Dependent"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{13BFBF4F-8F42-4489-9200-DB8F77D7D716}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T5" xr:uid="{B9446D96-4D8B-4F57-91A4-E907AD141DC4}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{7B17BA7E-3C8E-4387-B1CE-E1DB7ADD75D7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U5" xr:uid="{72E96D30-2C65-40E9-82F2-CB8E50751A53}">
       <formula1>"OneWay,RoundTrip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2" xr:uid="{259CCC1A-E85C-4116-82A5-26588349065F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY5" xr:uid="{CB30D557-953E-4C20-BBF5-4DE6D7BDCCCF}">
       <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2 D2" xr:uid="{6FD257E7-09EA-47DA-9986-D991407A7B04}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD5 D2:D5" xr:uid="{FB68D6E9-5ECC-441B-BE2A-7D17A66A7959}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2" xr:uid="{B86F4493-CEC8-4EFD-B94F-39C2984F13F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL5" xr:uid="{59018923-A5B7-45E4-B7E4-246176AE1F92}">
       <formula1>"InPolicy,OutPolicy,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{3BAA1A34-724C-44CD-AA5B-323690C7704D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5" xr:uid="{218FCD4E-2907-4A24-B5EF-9AA80BB04E34}">
       <formula1>"Old,New"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2" xr:uid="{63ACD46A-8FFA-4253-BECC-27D42285FD7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BH5" xr:uid="{27BCB8B8-8374-490A-9916-F9ADD6E1CB71}">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2" xr:uid="{155D8940-388F-4386-A78A-97D04D57775F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2:BI5" xr:uid="{B547B30C-AAEA-4DD9-B9DB-33C54B0A300F}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{EF5A522C-150B-410F-89E1-A78425F14AD5}">
-      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AT2" xr:uid="{2EACF76F-2D13-43C3-8D7C-B86423F97D43}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AT4" xr:uid="{5817BC27-B89A-41E7-B56D-145D193549AC}">
       <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2" xr:uid="{C39DAB6B-42EE-4E9B-9997-722A0980A03F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO5" xr:uid="{DEBDD3C3-A254-4C53-BBF4-91BE8405B65C}">
       <formula1>"Duration,Layover,TimingFilter"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{87A79131-0DC0-4B75-A9CF-B7450A8DAF89}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5" xr:uid="{7EBD3EEA-799E-48E4-8A26-90D932288DC4}">
       <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com,ankit.singh@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{6E9686C3-5E56-48D4-83EE-75241BE8EF2B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R5" xr:uid="{AC75DA0E-5022-431F-A98F-549C17D73FC6}">
       <formula1>"prince.chaurasia@quadlabs.com,ayushi.shivhare@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,ajit.kumar@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS5:AT5" xr:uid="{25A687DB-AFBC-4A4F-8CBC-8F6EB1362E2D}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE,ECO VALUE,ECONOMY COMFORT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AT2" xr:uid="{EB145F55-8FE1-49E3-A98C-7AFA4557B7C2}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE,ECO VALUE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5" xr:uid="{990C8E4F-D679-45B5-80C8-4B4ADAF291A3}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M,4CJDOMEL9TNCR1R"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ4:AR5" xr:uid="{74D89A81-4565-4484-8ED5-1E3685D76855}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet,Oman Air"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" display="Admin@123" xr:uid="{7F0E7733-1EF9-43C3-8A77-5B1C27FAD025}"/>
-    <hyperlink ref="I2" r:id="rId2" display="shekhar.singh@quadlabs.com" xr:uid="{BB2DB6D9-9D3D-40A8-8CB4-F2B30B699183}"/>
-    <hyperlink ref="R2" r:id="rId3" display="ajit.kumar@quadlabs.com" xr:uid="{55D73720-9660-4207-9DE0-6DF75728F9D4}"/>
+    <hyperlink ref="N2" r:id="rId1" display="Admin@123" xr:uid="{DB86B022-F769-4C7A-9DB9-3FC529F9560F}"/>
+    <hyperlink ref="I2" r:id="rId2" display="shekhar.singh@quadlabs.com" xr:uid="{5D4920FF-2CED-4A83-AF60-4FE402A0BF11}"/>
+    <hyperlink ref="R2" r:id="rId3" display="ajit.kumar@quadlabs.com" xr:uid="{A60B1C06-5F63-43B7-BFC2-47AE8D93B169}"/>
+    <hyperlink ref="I3:I5" r:id="rId4" display="shekhar.singh@quadlabs.com" xr:uid="{E5F75214-D076-4382-8A97-A8E3BEF0ADBA}"/>
+    <hyperlink ref="N3:N5" r:id="rId5" display="Admin@123" xr:uid="{88796BC8-6CD8-492C-8F80-5F3896C26947}"/>
+    <hyperlink ref="R3:R5" r:id="rId6" display="ajit.kumar@quadlabs.com" xr:uid="{0D8B9D82-0B40-48BF-A17D-EFB642580973}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B6E574-1524-4FC6-990B-395A9F7D764D}">
+  <dimension ref="A1:BW3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="AV1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="BA1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="BB1" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="BC1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="BD1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="BU1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BV1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW1" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:75" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="AT2" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="AZ2" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="BA2" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="BB2" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="BC2" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="BD2" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF2" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL2" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS2" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW2" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:75" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="AS3" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="AT3" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="AZ3" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="BA3" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="BB3" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="BC3" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="BD3" s="7">
+        <v>78554432323</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF3" s="7">
+        <v>345678</v>
+      </c>
+      <c r="BG3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL3" s="7">
+        <v>123</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP3" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS3" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT3" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW3" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AT2 AS3" xr:uid="{2ED64E23-E70B-45DE-A35E-85E5A30CF3D6}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE,ECO VALUE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3" xr:uid="{82F7442D-09B2-4B89-9810-DC7BD179E262}">
+      <formula1>"prince.chaurasia@quadlabs.com,ayushi.shivhare@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,ajit.kumar@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{4C870F32-8074-451B-ABD2-6CB213734A3C}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com,ankit.singh@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO3" xr:uid="{A0AF4344-0C99-4029-990C-41AF6E3B5465}">
+      <formula1>"Duration,Layover,TimingFilter"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2:BI3" xr:uid="{42E453F7-1801-4493-91B2-DDB093D058BC}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BH3" xr:uid="{140F3AAD-0367-4044-A3FD-A47E97E97C5D}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{712E3F93-DD6B-4D94-943E-590142101106}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL3" xr:uid="{67072100-EE9D-4DB7-BD4E-C76C740B0F0B}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD3 D2:D3" xr:uid="{9A4AD928-0CDA-410B-BC2E-AC371BA98256}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY3" xr:uid="{24444412-772A-4700-A19C-667FB9D8CBC0}">
+      <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{2AB4B260-5963-4333-B466-880BF67014B7}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T3" xr:uid="{E07BF0FA-229F-451C-9FAF-7F74E9740E1E}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S3" xr:uid="{1D554BA9-10F1-427E-BD41-74792659D624}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK3" xr:uid="{F329C05C-F093-4B60-A969-9E0C9178B39E}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM3" xr:uid="{76B64032-3675-4BD2-941B-3C8541596F64}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH3" xr:uid="{40AAB1AB-2C55-42B6-B72D-5238350289F4}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{879DE0FF-0874-4C80-AFC2-FC51A9DA992B}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC3 BO2:BO3 C2:C3" xr:uid="{76D8315B-7A74-4A8E-8BB6-DDF055ABB714}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{0F3465E6-7EA8-41E5-9F7D-DF8BFEA1BA4D}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{75B9222A-24F4-4FF2-AE27-CE81883117AF}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM3" xr:uid="{DE3974ED-D9BB-48BF-952B-C2A06C1C740F}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR3" xr:uid="{98523617-ACB9-40B9-B99A-59A2ED2514A2}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP3 AK2:AK3 AN2:AN3 BS2:BS3" xr:uid="{5C5D30D0-7713-4058-8D75-48845FA92A69}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{E4763A3B-8294-4C0E-8D8C-BDB7090AC714}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR2" xr:uid="{6419269E-F65B-45E4-9F84-C07FBF389413}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z3" xr:uid="{16388B76-E72C-49CB-933D-1ABC0B401BD1}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3 BW2:BW3" xr:uid="{8E15FDFE-CBA4-4F34-8A9C-8E93C81D8511}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3" xr:uid="{163C42BE-D264-413D-865A-978A13706B53}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3" xr:uid="{AAF84EA6-2908-45E9-8611-87DBFE8938F9}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{BC71A964-3271-4927-9F8E-17273260A612}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AU3" xr:uid="{CA2EB351-ED08-4467-9DC9-D28AAC33ADC2}">
+      <formula1>"LCC,LCC+GDS,GDS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{CC244F04-819F-4850-A567-A70EB412443F}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M,4CJDOMEL9TNCR1R"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT3" xr:uid="{5EB677E9-C73B-481C-9A3E-6339FF3AA51A}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AR3" xr:uid="{3F7FB19C-291B-4EF2-A916-196719325BB4}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet,Oman Air"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" display="Admin@123" xr:uid="{5563FAE7-F7F4-4CB2-8846-184F9E56FB02}"/>
+    <hyperlink ref="I2" r:id="rId2" display="shekhar.singh@quadlabs.com" xr:uid="{6C8D3FD1-0ADA-4164-BC67-D8F6A7692C53}"/>
+    <hyperlink ref="R2" r:id="rId3" display="ajit.kumar@quadlabs.com" xr:uid="{81E72062-10E0-4586-B229-0FAB453BEC89}"/>
+    <hyperlink ref="I3" r:id="rId4" display="shekhar.singh@quadlabs.com" xr:uid="{F5C13127-26CB-4668-89E6-B484ABEFB632}"/>
+    <hyperlink ref="N3" r:id="rId5" display="Admin@123" xr:uid="{4E2F3935-6E3C-422D-B222-F007242E6FD2}"/>
+    <hyperlink ref="R3" r:id="rId6" display="ajit.kumar@quadlabs.com" xr:uid="{6EA1B6B4-8E03-4B2C-8080-D2CA9AC67FEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
